--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="План" sheetId="1" r:id="rId1"/>
     <sheet name="Таск" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Боты" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -50,6 +50,72 @@
   <si>
     <t>Построить тестовый модуль на основании PAG и стратегии сбора спреда</t>
   </si>
+  <si>
+    <t>Решить вопрос стабильности вифи</t>
+  </si>
+  <si>
+    <t>Идея</t>
+  </si>
+  <si>
+    <t>Реализация</t>
+  </si>
+  <si>
+    <t>Модуль работает на основании поиска цвета в определенном регионе</t>
+  </si>
+  <si>
+    <t>Программа слишком хорошо защищена. Необходима большая работа.</t>
+  </si>
+  <si>
+    <t>Поиск источников</t>
+  </si>
+  <si>
+    <t>С этим пока все сложно</t>
+  </si>
+  <si>
+    <t>В процессе рассмотрения</t>
+  </si>
+  <si>
+    <t>Номер</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>Новичок-1</t>
+  </si>
+  <si>
+    <t>Частично реализован ботом "Новичок-1"</t>
+  </si>
+  <si>
+    <t>Покупает возле первой крупной заявки, продает возле первой средней или крупной заявки</t>
+  </si>
+  <si>
+    <t>Дата запуска</t>
+  </si>
+  <si>
+    <t>Дата остановки</t>
+  </si>
+  <si>
+    <t>Дней работы</t>
+  </si>
+  <si>
+    <t>Проблемы</t>
+  </si>
+  <si>
+    <t>Бот хорошо работает на реальных основаниях, но очень часто получает большой убыток на прострелах вниз</t>
+  </si>
+  <si>
+    <t>Остановлен</t>
+  </si>
+  <si>
+    <t>Оценка</t>
+  </si>
 </sst>
 </file>
 
@@ -64,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -74,6 +140,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -90,9 +168,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -394,89 +501,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B13"/>
+  <dimension ref="A2:C70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="65" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -487,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +884,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -516,7 +892,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -524,13 +900,16 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1575,12 +1954,3512 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:T220"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="38.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="11">
+        <v>45419</v>
+      </c>
+      <c r="E3" s="11">
+        <v>45420</v>
+      </c>
+      <c r="F3" s="5">
+        <f>E3-D3</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="9"/>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="9"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="9"/>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="9"/>
+      <c r="R88" s="9"/>
+      <c r="S88" s="9"/>
+      <c r="T88" s="9"/>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="9"/>
+      <c r="S89" s="9"/>
+      <c r="T89" s="9"/>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="9"/>
+      <c r="S90" s="9"/>
+      <c r="T90" s="9"/>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="9"/>
+      <c r="Q92" s="9"/>
+      <c r="R92" s="9"/>
+      <c r="S92" s="9"/>
+      <c r="T92" s="9"/>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="9"/>
+      <c r="R93" s="9"/>
+      <c r="S93" s="9"/>
+      <c r="T93" s="9"/>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
+      <c r="R94" s="9"/>
+      <c r="S94" s="9"/>
+      <c r="T94" s="9"/>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9"/>
+      <c r="R95" s="9"/>
+      <c r="S95" s="9"/>
+      <c r="T95" s="9"/>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="9"/>
+      <c r="S96" s="9"/>
+      <c r="T96" s="9"/>
+    </row>
+    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
+      <c r="R97" s="9"/>
+      <c r="S97" s="9"/>
+      <c r="T97" s="9"/>
+    </row>
+    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
+      <c r="R98" s="9"/>
+      <c r="S98" s="9"/>
+      <c r="T98" s="9"/>
+    </row>
+    <row r="99" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="9"/>
+      <c r="S99" s="9"/>
+      <c r="T99" s="9"/>
+    </row>
+    <row r="100" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="9"/>
+      <c r="S100" s="9"/>
+      <c r="T100" s="9"/>
+    </row>
+    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="9"/>
+      <c r="S101" s="9"/>
+      <c r="T101" s="9"/>
+    </row>
+    <row r="102" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="9"/>
+      <c r="Q102" s="9"/>
+      <c r="R102" s="9"/>
+      <c r="S102" s="9"/>
+      <c r="T102" s="9"/>
+    </row>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="9"/>
+      <c r="S103" s="9"/>
+      <c r="T103" s="9"/>
+    </row>
+    <row r="104" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="9"/>
+      <c r="Q104" s="9"/>
+      <c r="R104" s="9"/>
+      <c r="S104" s="9"/>
+      <c r="T104" s="9"/>
+    </row>
+    <row r="105" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
+    </row>
+    <row r="106" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="9"/>
+      <c r="S106" s="9"/>
+      <c r="T106" s="9"/>
+    </row>
+    <row r="107" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="9"/>
+      <c r="Q107" s="9"/>
+      <c r="R107" s="9"/>
+      <c r="S107" s="9"/>
+      <c r="T107" s="9"/>
+    </row>
+    <row r="108" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="9"/>
+      <c r="R108" s="9"/>
+      <c r="S108" s="9"/>
+      <c r="T108" s="9"/>
+    </row>
+    <row r="109" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="9"/>
+      <c r="R109" s="9"/>
+      <c r="S109" s="9"/>
+      <c r="T109" s="9"/>
+    </row>
+    <row r="110" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
+      <c r="P110" s="9"/>
+      <c r="Q110" s="9"/>
+      <c r="R110" s="9"/>
+      <c r="S110" s="9"/>
+      <c r="T110" s="9"/>
+    </row>
+    <row r="111" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
+      <c r="O111" s="9"/>
+      <c r="P111" s="9"/>
+      <c r="Q111" s="9"/>
+      <c r="R111" s="9"/>
+      <c r="S111" s="9"/>
+      <c r="T111" s="9"/>
+    </row>
+    <row r="112" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="9"/>
+      <c r="O112" s="9"/>
+      <c r="P112" s="9"/>
+      <c r="Q112" s="9"/>
+      <c r="R112" s="9"/>
+      <c r="S112" s="9"/>
+      <c r="T112" s="9"/>
+    </row>
+    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="9"/>
+      <c r="O113" s="9"/>
+      <c r="P113" s="9"/>
+      <c r="Q113" s="9"/>
+      <c r="R113" s="9"/>
+      <c r="S113" s="9"/>
+      <c r="T113" s="9"/>
+    </row>
+    <row r="114" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
+      <c r="O114" s="9"/>
+      <c r="P114" s="9"/>
+      <c r="Q114" s="9"/>
+      <c r="R114" s="9"/>
+      <c r="S114" s="9"/>
+      <c r="T114" s="9"/>
+    </row>
+    <row r="115" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+      <c r="O115" s="9"/>
+      <c r="P115" s="9"/>
+      <c r="Q115" s="9"/>
+      <c r="R115" s="9"/>
+      <c r="S115" s="9"/>
+      <c r="T115" s="9"/>
+    </row>
+    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="9"/>
+      <c r="P116" s="9"/>
+      <c r="Q116" s="9"/>
+      <c r="R116" s="9"/>
+      <c r="S116" s="9"/>
+      <c r="T116" s="9"/>
+    </row>
+    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+      <c r="O117" s="9"/>
+      <c r="P117" s="9"/>
+      <c r="Q117" s="9"/>
+      <c r="R117" s="9"/>
+      <c r="S117" s="9"/>
+      <c r="T117" s="9"/>
+    </row>
+    <row r="118" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="9"/>
+      <c r="Q118" s="9"/>
+      <c r="R118" s="9"/>
+      <c r="S118" s="9"/>
+      <c r="T118" s="9"/>
+    </row>
+    <row r="119" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="9"/>
+      <c r="O119" s="9"/>
+      <c r="P119" s="9"/>
+      <c r="Q119" s="9"/>
+      <c r="R119" s="9"/>
+      <c r="S119" s="9"/>
+      <c r="T119" s="9"/>
+    </row>
+    <row r="120" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="9"/>
+      <c r="Q120" s="9"/>
+      <c r="R120" s="9"/>
+      <c r="S120" s="9"/>
+      <c r="T120" s="9"/>
+    </row>
+    <row r="121" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="9"/>
+      <c r="O121" s="9"/>
+      <c r="P121" s="9"/>
+      <c r="Q121" s="9"/>
+      <c r="R121" s="9"/>
+      <c r="S121" s="9"/>
+      <c r="T121" s="9"/>
+    </row>
+    <row r="122" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="9"/>
+      <c r="O122" s="9"/>
+      <c r="P122" s="9"/>
+      <c r="Q122" s="9"/>
+      <c r="R122" s="9"/>
+      <c r="S122" s="9"/>
+      <c r="T122" s="9"/>
+    </row>
+    <row r="123" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="9"/>
+      <c r="N123" s="9"/>
+      <c r="O123" s="9"/>
+      <c r="P123" s="9"/>
+      <c r="Q123" s="9"/>
+      <c r="R123" s="9"/>
+      <c r="S123" s="9"/>
+      <c r="T123" s="9"/>
+    </row>
+    <row r="124" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="9"/>
+      <c r="O124" s="9"/>
+      <c r="P124" s="9"/>
+      <c r="Q124" s="9"/>
+      <c r="R124" s="9"/>
+      <c r="S124" s="9"/>
+      <c r="T124" s="9"/>
+    </row>
+    <row r="125" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="9"/>
+      <c r="O125" s="9"/>
+      <c r="P125" s="9"/>
+      <c r="Q125" s="9"/>
+      <c r="R125" s="9"/>
+      <c r="S125" s="9"/>
+      <c r="T125" s="9"/>
+    </row>
+    <row r="126" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="9"/>
+      <c r="O126" s="9"/>
+      <c r="P126" s="9"/>
+      <c r="Q126" s="9"/>
+      <c r="R126" s="9"/>
+      <c r="S126" s="9"/>
+      <c r="T126" s="9"/>
+    </row>
+    <row r="127" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="9"/>
+      <c r="O127" s="9"/>
+      <c r="P127" s="9"/>
+      <c r="Q127" s="9"/>
+      <c r="R127" s="9"/>
+      <c r="S127" s="9"/>
+      <c r="T127" s="9"/>
+    </row>
+    <row r="128" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="9"/>
+      <c r="O128" s="9"/>
+      <c r="P128" s="9"/>
+      <c r="Q128" s="9"/>
+      <c r="R128" s="9"/>
+      <c r="S128" s="9"/>
+      <c r="T128" s="9"/>
+    </row>
+    <row r="129" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="9"/>
+      <c r="O129" s="9"/>
+      <c r="P129" s="9"/>
+      <c r="Q129" s="9"/>
+      <c r="R129" s="9"/>
+      <c r="S129" s="9"/>
+      <c r="T129" s="9"/>
+    </row>
+    <row r="130" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="9"/>
+      <c r="M130" s="9"/>
+      <c r="N130" s="9"/>
+      <c r="O130" s="9"/>
+      <c r="P130" s="9"/>
+      <c r="Q130" s="9"/>
+      <c r="R130" s="9"/>
+      <c r="S130" s="9"/>
+      <c r="T130" s="9"/>
+    </row>
+    <row r="131" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="9"/>
+      <c r="O131" s="9"/>
+      <c r="P131" s="9"/>
+      <c r="Q131" s="9"/>
+      <c r="R131" s="9"/>
+      <c r="S131" s="9"/>
+      <c r="T131" s="9"/>
+    </row>
+    <row r="132" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="9"/>
+      <c r="O132" s="9"/>
+      <c r="P132" s="9"/>
+      <c r="Q132" s="9"/>
+      <c r="R132" s="9"/>
+      <c r="S132" s="9"/>
+      <c r="T132" s="9"/>
+    </row>
+    <row r="133" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="9"/>
+      <c r="O133" s="9"/>
+      <c r="P133" s="9"/>
+      <c r="Q133" s="9"/>
+      <c r="R133" s="9"/>
+      <c r="S133" s="9"/>
+      <c r="T133" s="9"/>
+    </row>
+    <row r="134" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="9"/>
+      <c r="O134" s="9"/>
+      <c r="P134" s="9"/>
+      <c r="Q134" s="9"/>
+      <c r="R134" s="9"/>
+      <c r="S134" s="9"/>
+      <c r="T134" s="9"/>
+    </row>
+    <row r="135" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="9"/>
+      <c r="M135" s="9"/>
+      <c r="N135" s="9"/>
+      <c r="O135" s="9"/>
+      <c r="P135" s="9"/>
+      <c r="Q135" s="9"/>
+      <c r="R135" s="9"/>
+      <c r="S135" s="9"/>
+      <c r="T135" s="9"/>
+    </row>
+    <row r="136" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="9"/>
+      <c r="M136" s="9"/>
+      <c r="N136" s="9"/>
+      <c r="O136" s="9"/>
+      <c r="P136" s="9"/>
+      <c r="Q136" s="9"/>
+      <c r="R136" s="9"/>
+      <c r="S136" s="9"/>
+      <c r="T136" s="9"/>
+    </row>
+    <row r="137" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B137" s="9"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="9"/>
+      <c r="M137" s="9"/>
+      <c r="N137" s="9"/>
+      <c r="O137" s="9"/>
+      <c r="P137" s="9"/>
+      <c r="Q137" s="9"/>
+      <c r="R137" s="9"/>
+      <c r="S137" s="9"/>
+      <c r="T137" s="9"/>
+    </row>
+    <row r="138" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="9"/>
+      <c r="M138" s="9"/>
+      <c r="N138" s="9"/>
+      <c r="O138" s="9"/>
+      <c r="P138" s="9"/>
+      <c r="Q138" s="9"/>
+      <c r="R138" s="9"/>
+      <c r="S138" s="9"/>
+      <c r="T138" s="9"/>
+    </row>
+    <row r="139" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
+      <c r="M139" s="9"/>
+      <c r="N139" s="9"/>
+      <c r="O139" s="9"/>
+      <c r="P139" s="9"/>
+      <c r="Q139" s="9"/>
+      <c r="R139" s="9"/>
+      <c r="S139" s="9"/>
+      <c r="T139" s="9"/>
+    </row>
+    <row r="140" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
+      <c r="M140" s="9"/>
+      <c r="N140" s="9"/>
+      <c r="O140" s="9"/>
+      <c r="P140" s="9"/>
+      <c r="Q140" s="9"/>
+      <c r="R140" s="9"/>
+      <c r="S140" s="9"/>
+      <c r="T140" s="9"/>
+    </row>
+    <row r="141" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
+      <c r="M141" s="9"/>
+      <c r="N141" s="9"/>
+      <c r="O141" s="9"/>
+      <c r="P141" s="9"/>
+      <c r="Q141" s="9"/>
+      <c r="R141" s="9"/>
+      <c r="S141" s="9"/>
+      <c r="T141" s="9"/>
+    </row>
+    <row r="142" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="9"/>
+      <c r="M142" s="9"/>
+      <c r="N142" s="9"/>
+      <c r="O142" s="9"/>
+      <c r="P142" s="9"/>
+      <c r="Q142" s="9"/>
+      <c r="R142" s="9"/>
+      <c r="S142" s="9"/>
+      <c r="T142" s="9"/>
+    </row>
+    <row r="143" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
+      <c r="N143" s="9"/>
+      <c r="O143" s="9"/>
+      <c r="P143" s="9"/>
+      <c r="Q143" s="9"/>
+      <c r="R143" s="9"/>
+      <c r="S143" s="9"/>
+      <c r="T143" s="9"/>
+    </row>
+    <row r="144" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c r="L144" s="9"/>
+      <c r="M144" s="9"/>
+      <c r="N144" s="9"/>
+      <c r="O144" s="9"/>
+      <c r="P144" s="9"/>
+      <c r="Q144" s="9"/>
+      <c r="R144" s="9"/>
+      <c r="S144" s="9"/>
+      <c r="T144" s="9"/>
+    </row>
+    <row r="145" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9"/>
+      <c r="M145" s="9"/>
+      <c r="N145" s="9"/>
+      <c r="O145" s="9"/>
+      <c r="P145" s="9"/>
+      <c r="Q145" s="9"/>
+      <c r="R145" s="9"/>
+      <c r="S145" s="9"/>
+      <c r="T145" s="9"/>
+    </row>
+    <row r="146" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B146" s="9"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="9"/>
+      <c r="M146" s="9"/>
+      <c r="N146" s="9"/>
+      <c r="O146" s="9"/>
+      <c r="P146" s="9"/>
+      <c r="Q146" s="9"/>
+      <c r="R146" s="9"/>
+      <c r="S146" s="9"/>
+      <c r="T146" s="9"/>
+    </row>
+    <row r="147" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B147" s="9"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c r="L147" s="9"/>
+      <c r="M147" s="9"/>
+      <c r="N147" s="9"/>
+      <c r="O147" s="9"/>
+      <c r="P147" s="9"/>
+      <c r="Q147" s="9"/>
+      <c r="R147" s="9"/>
+      <c r="S147" s="9"/>
+      <c r="T147" s="9"/>
+    </row>
+    <row r="148" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B148" s="9"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c r="L148" s="9"/>
+      <c r="M148" s="9"/>
+      <c r="N148" s="9"/>
+      <c r="O148" s="9"/>
+      <c r="P148" s="9"/>
+      <c r="Q148" s="9"/>
+      <c r="R148" s="9"/>
+      <c r="S148" s="9"/>
+      <c r="T148" s="9"/>
+    </row>
+    <row r="149" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B149" s="9"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c r="L149" s="9"/>
+      <c r="M149" s="9"/>
+      <c r="N149" s="9"/>
+      <c r="O149" s="9"/>
+      <c r="P149" s="9"/>
+      <c r="Q149" s="9"/>
+      <c r="R149" s="9"/>
+      <c r="S149" s="9"/>
+      <c r="T149" s="9"/>
+    </row>
+    <row r="150" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B150" s="9"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+      <c r="L150" s="9"/>
+      <c r="M150" s="9"/>
+      <c r="N150" s="9"/>
+      <c r="O150" s="9"/>
+      <c r="P150" s="9"/>
+      <c r="Q150" s="9"/>
+      <c r="R150" s="9"/>
+      <c r="S150" s="9"/>
+      <c r="T150" s="9"/>
+    </row>
+    <row r="151" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B151" s="9"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c r="L151" s="9"/>
+      <c r="M151" s="9"/>
+      <c r="N151" s="9"/>
+      <c r="O151" s="9"/>
+      <c r="P151" s="9"/>
+      <c r="Q151" s="9"/>
+      <c r="R151" s="9"/>
+      <c r="S151" s="9"/>
+      <c r="T151" s="9"/>
+    </row>
+    <row r="152" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
+      <c r="L152" s="9"/>
+      <c r="M152" s="9"/>
+      <c r="N152" s="9"/>
+      <c r="O152" s="9"/>
+      <c r="P152" s="9"/>
+      <c r="Q152" s="9"/>
+      <c r="R152" s="9"/>
+      <c r="S152" s="9"/>
+      <c r="T152" s="9"/>
+    </row>
+    <row r="153" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B153" s="9"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="9"/>
+      <c r="L153" s="9"/>
+      <c r="M153" s="9"/>
+      <c r="N153" s="9"/>
+      <c r="O153" s="9"/>
+      <c r="P153" s="9"/>
+      <c r="Q153" s="9"/>
+      <c r="R153" s="9"/>
+      <c r="S153" s="9"/>
+      <c r="T153" s="9"/>
+    </row>
+    <row r="154" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B154" s="9"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="9"/>
+      <c r="L154" s="9"/>
+      <c r="M154" s="9"/>
+      <c r="N154" s="9"/>
+      <c r="O154" s="9"/>
+      <c r="P154" s="9"/>
+      <c r="Q154" s="9"/>
+      <c r="R154" s="9"/>
+      <c r="S154" s="9"/>
+      <c r="T154" s="9"/>
+    </row>
+    <row r="155" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
+      <c r="L155" s="9"/>
+      <c r="M155" s="9"/>
+      <c r="N155" s="9"/>
+      <c r="O155" s="9"/>
+      <c r="P155" s="9"/>
+      <c r="Q155" s="9"/>
+      <c r="R155" s="9"/>
+      <c r="S155" s="9"/>
+      <c r="T155" s="9"/>
+    </row>
+    <row r="156" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B156" s="9"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
+      <c r="J156" s="9"/>
+      <c r="K156" s="9"/>
+      <c r="L156" s="9"/>
+      <c r="M156" s="9"/>
+      <c r="N156" s="9"/>
+      <c r="O156" s="9"/>
+      <c r="P156" s="9"/>
+      <c r="Q156" s="9"/>
+      <c r="R156" s="9"/>
+      <c r="S156" s="9"/>
+      <c r="T156" s="9"/>
+    </row>
+    <row r="157" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B157" s="9"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="9"/>
+      <c r="J157" s="9"/>
+      <c r="K157" s="9"/>
+      <c r="L157" s="9"/>
+      <c r="M157" s="9"/>
+      <c r="N157" s="9"/>
+      <c r="O157" s="9"/>
+      <c r="P157" s="9"/>
+      <c r="Q157" s="9"/>
+      <c r="R157" s="9"/>
+      <c r="S157" s="9"/>
+      <c r="T157" s="9"/>
+    </row>
+    <row r="158" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B158" s="9"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9"/>
+      <c r="J158" s="9"/>
+      <c r="K158" s="9"/>
+      <c r="L158" s="9"/>
+      <c r="M158" s="9"/>
+      <c r="N158" s="9"/>
+      <c r="O158" s="9"/>
+      <c r="P158" s="9"/>
+      <c r="Q158" s="9"/>
+      <c r="R158" s="9"/>
+      <c r="S158" s="9"/>
+      <c r="T158" s="9"/>
+    </row>
+    <row r="159" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B159" s="9"/>
+      <c r="C159" s="9"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="9"/>
+      <c r="J159" s="9"/>
+      <c r="K159" s="9"/>
+      <c r="L159" s="9"/>
+      <c r="M159" s="9"/>
+      <c r="N159" s="9"/>
+      <c r="O159" s="9"/>
+      <c r="P159" s="9"/>
+      <c r="Q159" s="9"/>
+      <c r="R159" s="9"/>
+      <c r="S159" s="9"/>
+      <c r="T159" s="9"/>
+    </row>
+    <row r="160" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B160" s="9"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B163" s="9"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164" s="9"/>
+      <c r="C164" s="9"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165" s="9"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166" s="9"/>
+      <c r="C166" s="9"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B167" s="9"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168" s="9"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169" s="9"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170" s="9"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172" s="9"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B173" s="9"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B174" s="9"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B175" s="9"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B176" s="9"/>
+      <c r="C176" s="9"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B177" s="9"/>
+      <c r="C177" s="9"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B178" s="9"/>
+      <c r="C178" s="9"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B179" s="9"/>
+      <c r="C179" s="9"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B180" s="9"/>
+      <c r="C180" s="9"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B181" s="9"/>
+      <c r="C181" s="9"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B182" s="9"/>
+      <c r="C182" s="9"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B183" s="9"/>
+      <c r="C183" s="9"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B184" s="9"/>
+      <c r="C184" s="9"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B185" s="9"/>
+      <c r="C185" s="9"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B186" s="9"/>
+      <c r="C186" s="9"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B187" s="9"/>
+      <c r="C187" s="9"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B188" s="9"/>
+      <c r="C188" s="9"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B189" s="9"/>
+      <c r="C189" s="9"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B190" s="9"/>
+      <c r="C190" s="9"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B191" s="9"/>
+      <c r="C191" s="9"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B192" s="9"/>
+      <c r="C192" s="9"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B193" s="9"/>
+      <c r="C193" s="9"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B194" s="9"/>
+      <c r="C194" s="9"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B195" s="9"/>
+      <c r="C195" s="9"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B196" s="9"/>
+      <c r="C196" s="9"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B197" s="9"/>
+      <c r="C197" s="9"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B198" s="9"/>
+      <c r="C198" s="9"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B199" s="9"/>
+      <c r="C199" s="9"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B200" s="9"/>
+      <c r="C200" s="9"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B201" s="9"/>
+      <c r="C201" s="9"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B202" s="9"/>
+      <c r="C202" s="9"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B203" s="9"/>
+      <c r="C203" s="9"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B204" s="9"/>
+      <c r="C204" s="9"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B205" s="9"/>
+      <c r="C205" s="9"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B206" s="9"/>
+      <c r="C206" s="9"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B207" s="9"/>
+      <c r="C207" s="9"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B208" s="9"/>
+      <c r="C208" s="9"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B209" s="9"/>
+      <c r="C209" s="9"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B210" s="9"/>
+      <c r="C210" s="9"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B211" s="9"/>
+      <c r="C211" s="9"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B212" s="9"/>
+      <c r="C212" s="9"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B213" s="9"/>
+      <c r="C213" s="9"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B214" s="9"/>
+      <c r="C214" s="9"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B215" s="9"/>
+      <c r="C215" s="9"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B216" s="9"/>
+      <c r="C216" s="9"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B217" s="9"/>
+      <c r="C217" s="9"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B218" s="9"/>
+      <c r="C218" s="9"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B219" s="9"/>
+      <c r="C219" s="9"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B220" s="9"/>
+      <c r="C220" s="9"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="План" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Изучить возможности работы с графиками с помощью OpenCV</t>
+  </si>
+  <si>
+    <t>Оптимизировать с помощью серых цветов</t>
   </si>
 </sst>
 </file>
@@ -884,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B213"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,7 +956,9 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2005,7 +2010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2024,7 +2029,7 @@
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E1" s="12">
         <f ca="1">NOW()</f>
-        <v>45435.038388194444</v>
+        <v>45435.631103472224</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -2113,7 +2118,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="4">
         <f ca="1">ROUND(IF(E4,E4-D4,$E$1-D4),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>35</v>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Покупает в нижней части графика, продает в верхней</t>
   </si>
   <si>
-    <t>Тестируется</t>
-  </si>
-  <si>
     <t>Бот хорошо работает, когда на графике боковик, но может сильно провиснуть, когда инструмент безоткатно падает. В целом бот может приносить прибыль, если периодически подбирать графики</t>
   </si>
   <si>
@@ -137,11 +134,29 @@
   <si>
     <t>Оптимизировать с помощью серых цветов</t>
   </si>
+  <si>
+    <t>Трендер-1</t>
+  </si>
+  <si>
+    <t>Попытка торговли по тренду</t>
+  </si>
+  <si>
+    <t>Бот оказался провальным. Он не спас от проливов рынка, как ожидалось</t>
+  </si>
+  <si>
+    <t>Создать консультанта по торговле</t>
+  </si>
+  <si>
+    <t>Рассмотреть дебаггинг декомпилированной версии</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -224,6 +239,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -528,7 +546,7 @@
   <dimension ref="A2:C70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +906,7 @@
   <dimension ref="A2:B213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,16 +958,16 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>37</v>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>38</v>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -957,20 +975,24 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2011,7 +2033,7 @@
   <dimension ref="A1:T220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,7 +2051,7 @@
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E1" s="12">
         <f ca="1">NOW()</f>
-        <v>45435.631103472224</v>
+        <v>45442.74202986111</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -2087,7 +2109,7 @@
       <c r="H3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="14">
         <v>2.9</v>
       </c>
       <c r="J3" s="8"/>
@@ -2115,18 +2137,20 @@
       <c r="D4" s="10">
         <v>45433</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="10">
+        <v>45435</v>
+      </c>
       <c r="F4" s="4">
-        <f ca="1">ROUND(IF(E4,E4-D4,$E$1-D4),0)</f>
-        <v>3</v>
-      </c>
-      <c r="G4" s="8" t="s">
+        <f>ROUND(IF(E4,E4-D4,$E$1-D4),0)</f>
+        <v>2</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="I4" s="14">
         <v>3.6</v>
       </c>
       <c r="J4" s="8"/>
@@ -2141,16 +2165,35 @@
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="10">
+        <v>45442</v>
+      </c>
+      <c r="E5" s="10">
+        <v>45442</v>
+      </c>
+      <c r="F5" s="4">
+        <f>ROUND(IF(E5,E5-D5,$E$1-D5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="14">
+        <v>3</v>
+      </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -2173,6 +2216,7 @@
       <c r="E6" s="4"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
+      <c r="I6" s="14"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -2195,6 +2239,7 @@
       <c r="E7" s="4"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -2217,6 +2262,7 @@
       <c r="E8" s="4"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
+      <c r="I8" s="14"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -2239,6 +2285,7 @@
       <c r="E9" s="4"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
+      <c r="I9" s="14"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -2261,6 +2308,7 @@
       <c r="E10" s="4"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
+      <c r="I10" s="14"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -2283,6 +2331,7 @@
       <c r="E11" s="4"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
+      <c r="I11" s="14"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -2305,6 +2354,7 @@
       <c r="E12" s="4"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -2327,6 +2377,7 @@
       <c r="E13" s="4"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
+      <c r="I13" s="14"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -2349,6 +2400,7 @@
       <c r="E14" s="4"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
+      <c r="I14" s="14"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -2371,6 +2423,7 @@
       <c r="E15" s="4"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
+      <c r="I15" s="14"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -2393,6 +2446,7 @@
       <c r="E16" s="4"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
+      <c r="I16" s="14"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -2415,6 +2469,7 @@
       <c r="E17" s="4"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
+      <c r="I17" s="14"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
@@ -2437,6 +2492,7 @@
       <c r="E18" s="4"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
+      <c r="I18" s="14"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -2459,6 +2515,7 @@
       <c r="E19" s="4"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
+      <c r="I19" s="14"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
@@ -2481,6 +2538,7 @@
       <c r="E20" s="4"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
+      <c r="I20" s="14"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -2503,6 +2561,7 @@
       <c r="E21" s="4"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
+      <c r="I21" s="14"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
@@ -2525,6 +2584,7 @@
       <c r="E22" s="4"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
+      <c r="I22" s="14"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
@@ -2547,6 +2607,7 @@
       <c r="E23" s="4"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
+      <c r="I23" s="14"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
@@ -2569,6 +2630,7 @@
       <c r="E24" s="4"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
+      <c r="I24" s="14"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
@@ -2591,6 +2653,7 @@
       <c r="E25" s="4"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
+      <c r="I25" s="14"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
@@ -2613,6 +2676,7 @@
       <c r="E26" s="4"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
+      <c r="I26" s="14"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
@@ -2635,6 +2699,7 @@
       <c r="E27" s="4"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
+      <c r="I27" s="14"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
@@ -2657,6 +2722,7 @@
       <c r="E28" s="4"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
+      <c r="I28" s="14"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
@@ -2679,6 +2745,7 @@
       <c r="E29" s="4"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
+      <c r="I29" s="14"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
@@ -2701,6 +2768,7 @@
       <c r="E30" s="4"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
+      <c r="I30" s="14"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
@@ -2723,6 +2791,7 @@
       <c r="E31" s="4"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
+      <c r="I31" s="14"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
@@ -2745,6 +2814,7 @@
       <c r="E32" s="4"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
+      <c r="I32" s="14"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="План" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>Рассмотреть дебаггинг декомпилированной версии</t>
+  </si>
+  <si>
+    <t>Трендер-2</t>
+  </si>
+  <si>
+    <t>Использование линейной регрессии для определения тренда</t>
+  </si>
+  <si>
+    <t>Тест</t>
+  </si>
+  <si>
+    <t>Протестированно</t>
   </si>
 </sst>
 </file>
@@ -546,7 +558,7 @@
   <dimension ref="A2:C70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,11 +634,11 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -2032,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T220"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2051,7 +2063,7 @@
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E1" s="12">
         <f ca="1">NOW()</f>
-        <v>45442.74202986111</v>
+        <v>45457.808687037039</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -2206,15 +2218,21 @@
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="G6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="H6" s="8"/>
       <c r="I6" s="14"/>
       <c r="J6" s="8"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>Протестированно</t>
+  </si>
+  <si>
+    <t>Новичок-3</t>
+  </si>
+  <si>
+    <t>Покупает в нижней части графика, продает в верхней с учетом тренда</t>
+  </si>
+  <si>
+    <t>Тест провален в первый день</t>
   </si>
 </sst>
 </file>
@@ -2045,7 +2054,7 @@
   <dimension ref="A1:T220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2063,7 +2072,7 @@
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E1" s="12">
         <f ca="1">NOW()</f>
-        <v>45457.808687037039</v>
+        <v>45475.650588310185</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -2228,8 +2237,14 @@
       <c r="C6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="10">
+        <v>45457</v>
+      </c>
       <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <f t="shared" ref="F6:F7" ca="1" si="0">ROUND(IF(E6,E6-D6,$E$1-D6),0)</f>
+        <v>19</v>
+      </c>
       <c r="G6" s="8" t="s">
         <v>46</v>
       </c>
@@ -2247,17 +2262,35 @@
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="14"/>
+      <c r="B7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="10">
+        <v>45475</v>
+      </c>
+      <c r="E7" s="10">
+        <v>45475</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="14">
+        <v>1.3</v>
+      </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -169,6 +169,24 @@
   </si>
   <si>
     <t>Тест провален в первый день</t>
+  </si>
+  <si>
+    <t>АнтиТрендер-2</t>
+  </si>
+  <si>
+    <t>КонтерТрендер-1</t>
+  </si>
+  <si>
+    <t>Статистик-1</t>
+  </si>
+  <si>
+    <t>Противоположные сделки Трендеру-2</t>
+  </si>
+  <si>
+    <t>Торговля в контертренд</t>
+  </si>
+  <si>
+    <t>Торговля по тренду от точек статистики</t>
   </si>
 </sst>
 </file>
@@ -2054,7 +2072,7 @@
   <dimension ref="A1:T220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2072,7 +2090,7 @@
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E1" s="12">
         <f ca="1">NOW()</f>
-        <v>45475.650588310185</v>
+        <v>45477.616939930558</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -2242,8 +2260,8 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4">
-        <f t="shared" ref="F6:F7" ca="1" si="0">ROUND(IF(E6,E6-D6,$E$1-D6),0)</f>
-        <v>19</v>
+        <f t="shared" ref="F6:F10" ca="1" si="0">ROUND(IF(E6,E6-D6,$E$1-D6),0)</f>
+        <v>21</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>46</v>
@@ -2307,11 +2325,23 @@
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="10">
+        <v>45477</v>
+      </c>
       <c r="E8" s="4"/>
-      <c r="G8" s="8"/>
+      <c r="F8" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="14"/>
       <c r="J8" s="8"/>
@@ -2330,11 +2360,23 @@
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="10">
+        <v>45477</v>
+      </c>
       <c r="E9" s="4"/>
-      <c r="G9" s="8"/>
+      <c r="F9" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="H9" s="8"/>
       <c r="I9" s="14"/>
       <c r="J9" s="8"/>
@@ -2353,11 +2395,23 @@
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="10">
+        <v>45477</v>
+      </c>
       <c r="E10" s="4"/>
-      <c r="G10" s="8"/>
+      <c r="F10" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="H10" s="8"/>
       <c r="I10" s="14"/>
       <c r="J10" s="8"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="План" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -72,9 +72,6 @@
     <t>С этим пока все сложно</t>
   </si>
   <si>
-    <t>В процессе рассмотрения</t>
-  </si>
-  <si>
     <t>Номер</t>
   </si>
   <si>
@@ -187,6 +184,24 @@
   </si>
   <si>
     <t>Торговля по тренду от точек статистики</t>
+  </si>
+  <si>
+    <t>Депортатор-1</t>
+  </si>
+  <si>
+    <t>Торговля вне трендового канала</t>
+  </si>
+  <si>
+    <t>Требуется дороботка. Тренд часто ломается</t>
+  </si>
+  <si>
+    <t>Поздний вход</t>
+  </si>
+  <si>
+    <t>Частая смена тренда</t>
+  </si>
+  <si>
+    <t>В работе</t>
   </si>
 </sst>
 </file>
@@ -584,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +647,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -665,7 +680,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -676,7 +691,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -998,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1006,7 +1021,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1014,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1022,7 +1037,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1030,7 +1045,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2071,8 +2086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2090,36 +2105,36 @@
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E1" s="12">
         <f ca="1">NOW()</f>
-        <v>45477.616939930558</v>
+        <v>45480.964457986112</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -2127,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="10">
         <v>45419</v>
@@ -2143,10 +2158,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="14">
         <v>2.9</v>
@@ -2168,10 +2183,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="D4" s="10">
         <v>45433</v>
@@ -2184,10 +2199,10 @@
         <v>2</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="14">
         <v>3.6</v>
@@ -2209,10 +2224,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="D5" s="10">
         <v>45442</v>
@@ -2225,10 +2240,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="14">
         <v>3</v>
@@ -2250,24 +2265,30 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="D6" s="10">
         <v>45457</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="10">
+        <v>45480</v>
+      </c>
       <c r="F6" s="4">
-        <f t="shared" ref="F6:F10" ca="1" si="0">ROUND(IF(E6,E6-D6,$E$1-D6),0)</f>
-        <v>21</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="14"/>
+        <f t="shared" ref="F6:F11" si="0">ROUND(IF(E6,E6-D6,$E$1-D6),0)</f>
+        <v>23</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="14">
+        <v>3.9</v>
+      </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -2285,10 +2306,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="D7" s="10">
         <v>45475</v>
@@ -2301,10 +2322,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" s="14">
         <v>1.3</v>
@@ -2326,24 +2347,30 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="10">
         <v>45477</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="10">
+        <v>45480</v>
+      </c>
       <c r="F8" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="14"/>
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="14">
+        <v>4</v>
+      </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -2361,10 +2388,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="10">
         <v>45477</v>
@@ -2372,10 +2399,10 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="14"/>
@@ -2396,24 +2423,30 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="10">
         <v>45477</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="10">
+        <v>45480</v>
+      </c>
       <c r="F10" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="14"/>
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="14">
+        <v>3.2</v>
+      </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -2430,11 +2463,23 @@
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="10">
+        <v>45480</v>
+      </c>
       <c r="E11" s="4"/>
-      <c r="G11" s="8"/>
+      <c r="F11" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="H11" s="8"/>
       <c r="I11" s="14"/>
       <c r="J11" s="8"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Использование линейной регрессии для определения тренда</t>
   </si>
   <si>
-    <t>Тест</t>
-  </si>
-  <si>
     <t>Протестированно</t>
   </si>
   <si>
@@ -201,7 +198,13 @@
     <t>Частая смена тренда</t>
   </si>
   <si>
-    <t>В работе</t>
+    <t>После неудачных испытаний отложенно</t>
+  </si>
+  <si>
+    <t>Абстракт-2</t>
+  </si>
+  <si>
+    <t>Абстрактный бот</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,7 @@
   <dimension ref="A2:C70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +683,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -691,7 +694,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2087,7 +2090,7 @@
   <dimension ref="A1:T220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2105,7 +2108,7 @@
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E1" s="12">
         <f ca="1">NOW()</f>
-        <v>45480.964457986112</v>
+        <v>45494.866448726854</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -2277,14 +2280,14 @@
         <v>45480</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" ref="F6:F11" si="0">ROUND(IF(E6,E6-D6,$E$1-D6),0)</f>
+        <f t="shared" ref="F6:F12" si="0">ROUND(IF(E6,E6-D6,$E$1-D6),0)</f>
         <v>23</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" s="14">
         <v>3.9</v>
@@ -2306,10 +2309,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="D7" s="10">
         <v>45475</v>
@@ -2325,7 +2328,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I7" s="14">
         <v>1.3</v>
@@ -2347,10 +2350,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="10">
         <v>45477</v>
@@ -2366,7 +2369,7 @@
         <v>30</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I8" s="14">
         <v>4</v>
@@ -2388,24 +2391,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="10">
         <v>45477</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="10">
+        <v>45481</v>
+      </c>
       <c r="F9" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>45</v>
+      <c r="G9" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="14"/>
+      <c r="I9" s="14">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -2423,10 +2430,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="10">
         <v>45477</v>
@@ -2442,7 +2449,7 @@
         <v>30</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="14">
         <v>3.2</v>
@@ -2464,24 +2471,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="D11" s="10">
         <v>45480</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="10">
+        <v>45481</v>
+      </c>
       <c r="F11" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>45</v>
+      <c r="G11" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="H11" s="8"/>
-      <c r="I11" s="14"/>
+      <c r="I11" s="14">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -2498,10 +2509,20 @@
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="10">
+        <v>45494</v>
+      </c>
       <c r="E12" s="4"/>
+      <c r="F12" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="14"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="План" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>Абстрактный бот</t>
+  </si>
+  <si>
+    <t>Поколение</t>
+  </si>
+  <si>
+    <t>МультиТрендер-1</t>
+  </si>
+  <si>
+    <t>Торговля по тренду разных таймфремов</t>
+  </si>
+  <si>
+    <t>Абстракт-1</t>
   </si>
 </sst>
 </file>
@@ -261,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -298,6 +310,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2087,31 +2105,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T220"/>
+  <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="38.28515625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="4"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="31" style="15" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E1" s="12">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45494.866448726854</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>45497.62455763889</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2119,98 +2138,89 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="10">
-        <v>45419</v>
-      </c>
-      <c r="E3" s="10">
-        <v>45420</v>
-      </c>
-      <c r="F3" s="4">
-        <f>ROUND(IF(E3,E3-D3,$E$1-D3),0)</f>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="D3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="16">
+        <v>45401</v>
+      </c>
+      <c r="F3" s="16">
+        <v>45494</v>
+      </c>
+      <c r="G3" s="4">
+        <f>ROUND(IF(F3,F3-E3,$F$1-E3),0)</f>
+        <v>93</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="14">
-        <v>2.9</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-    </row>
-    <row r="4" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="10">
-        <v>45433</v>
+        <v>22</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="E4" s="10">
-        <v>45435</v>
-      </c>
-      <c r="F4" s="4">
-        <f>ROUND(IF(E4,E4-D4,$E$1-D4),0)</f>
-        <v>2</v>
-      </c>
-      <c r="G4" s="11" t="s">
+        <v>45419</v>
+      </c>
+      <c r="F4" s="10">
+        <v>45420</v>
+      </c>
+      <c r="G4" s="4">
+        <f>ROUND(IF(F4,F4-E4,$F$1-E4),0)</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="14">
-        <v>3.6</v>
-      </c>
-      <c r="J4" s="8"/>
+      <c r="I4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="14">
+        <v>2.9</v>
+      </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -2221,37 +2231,40 @@
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
-    </row>
-    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="U4" s="8"/>
+    </row>
+    <row r="5" spans="1:21" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="10">
-        <v>45442</v>
+        <v>32</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="E5" s="10">
-        <v>45442</v>
-      </c>
-      <c r="F5" s="4">
-        <f>ROUND(IF(E5,E5-D5,$E$1-D5),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
+        <v>45433</v>
+      </c>
+      <c r="F5" s="10">
+        <v>45435</v>
+      </c>
+      <c r="G5" s="4">
+        <f>ROUND(IF(F5,F5-E5,$F$1-E5),0)</f>
+        <v>2</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="14">
-        <v>3</v>
-      </c>
-      <c r="J5" s="8"/>
+      <c r="I5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="14">
+        <v>3.6</v>
+      </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -2262,37 +2275,40 @@
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
-    </row>
-    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="U5" s="8"/>
+    </row>
+    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="10">
-        <v>45457</v>
+        <v>38</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="E6" s="10">
-        <v>45480</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" ref="F6:F12" si="0">ROUND(IF(E6,E6-D6,$E$1-D6),0)</f>
-        <v>23</v>
-      </c>
-      <c r="G6" s="11" t="s">
+        <v>45442</v>
+      </c>
+      <c r="F6" s="10">
+        <v>45442</v>
+      </c>
+      <c r="G6" s="4">
+        <f>ROUND(IF(F6,F6-E6,$F$1-E6),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="14">
-        <v>3.9</v>
-      </c>
-      <c r="J6" s="8"/>
+      <c r="I6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="14">
+        <v>3</v>
+      </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -2303,37 +2319,40 @@
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
-    </row>
-    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="U6" s="8"/>
+    </row>
+    <row r="7" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="10">
-        <v>45475</v>
+        <v>43</v>
+      </c>
+      <c r="C7" s="8">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="E7" s="10">
-        <v>45475</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
+        <v>45457</v>
+      </c>
+      <c r="F7" s="10">
+        <v>45480</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" ref="G7:G13" si="0">ROUND(IF(F7,F7-E7,$F$1-E7),0)</f>
+        <v>23</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="J7" s="8"/>
+      <c r="I7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="14">
+        <v>3.9</v>
+      </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -2344,37 +2363,40 @@
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" s="8"/>
+    </row>
+    <row r="8" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="10">
-        <v>45477</v>
+        <v>46</v>
+      </c>
+      <c r="C8" s="8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="E8" s="10">
-        <v>45480</v>
-      </c>
-      <c r="F8" s="4">
+        <v>45475</v>
+      </c>
+      <c r="F8" s="10">
+        <v>45475</v>
+      </c>
+      <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="14">
-        <v>4</v>
-      </c>
-      <c r="J8" s="8"/>
+      <c r="I8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="14">
+        <v>1.3</v>
+      </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -2385,35 +2407,40 @@
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8" s="8"/>
+    </row>
+    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="10">
+        <v>49</v>
+      </c>
+      <c r="C9" s="8">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="10">
         <v>45477</v>
       </c>
-      <c r="E9" s="10">
-        <v>45481</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="F9" s="10">
+        <v>45480</v>
+      </c>
+      <c r="G9" s="4">
         <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="14">
         <v>4</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -2424,37 +2451,38 @@
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="8"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="10">
+        <v>50</v>
+      </c>
+      <c r="C10" s="8">
+        <v>4</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="10">
         <v>45477</v>
       </c>
-      <c r="E10" s="10">
-        <v>45480</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="F10" s="10">
+        <v>45481</v>
+      </c>
+      <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="J10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="14">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -2465,35 +2493,40 @@
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" s="8"/>
+    </row>
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="10">
+        <v>51</v>
+      </c>
+      <c r="C11" s="8">
+        <v>4</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="10">
+        <v>45477</v>
+      </c>
+      <c r="F11" s="10">
         <v>45480</v>
       </c>
-      <c r="E11" s="10">
-        <v>45481</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="J11" s="8"/>
+      <c r="I11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="14">
+        <v>3.2</v>
+      </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -2504,29 +2537,38 @@
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" s="8"/>
+    </row>
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="10">
-        <v>45494</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C12" s="8">
+        <v>4</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="10">
+        <v>45480</v>
+      </c>
+      <c r="F12" s="10">
+        <v>45481</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="8"/>
+      <c r="H12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="14">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -2537,19 +2579,32 @@
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12" s="8"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="G13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="10">
+        <v>45494</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
       <c r="H13" s="8"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="8"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="14"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -2560,19 +2615,26 @@
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13" s="8"/>
+    </row>
+    <row r="14" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="E14" s="4"/>
-      <c r="G14" s="8"/>
+      <c r="F14" s="4"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="8"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="14"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
@@ -2583,19 +2645,20 @@
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14" s="8"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>13</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="4"/>
-      <c r="G15" s="8"/>
+      <c r="F15" s="4"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="8"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="14"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
@@ -2606,19 +2669,20 @@
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15" s="8"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="4"/>
-      <c r="G16" s="8"/>
+      <c r="F16" s="4"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="8"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="14"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
@@ -2629,19 +2693,20 @@
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16" s="8"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="4"/>
-      <c r="G17" s="8"/>
+      <c r="F17" s="4"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="8"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="14"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
@@ -2652,19 +2717,20 @@
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17" s="8"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="4"/>
-      <c r="G18" s="8"/>
+      <c r="F18" s="4"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="8"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="14"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -2675,19 +2741,20 @@
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18" s="8"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="4"/>
-      <c r="G19" s="8"/>
+      <c r="F19" s="4"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="8"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="14"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -2698,19 +2765,20 @@
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19" s="8"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>18</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="4"/>
-      <c r="G20" s="8"/>
+      <c r="F20" s="4"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="8"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="14"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -2721,19 +2789,20 @@
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20" s="8"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>19</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="4"/>
-      <c r="G21" s="8"/>
+      <c r="F21" s="4"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="8"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="14"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
@@ -2744,19 +2813,20 @@
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21" s="8"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>20</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="4"/>
-      <c r="G22" s="8"/>
+      <c r="F22" s="4"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="8"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="14"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
@@ -2767,19 +2837,20 @@
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22" s="8"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>21</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="4"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="4"/>
-      <c r="G23" s="8"/>
+      <c r="F23" s="4"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="8"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="14"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -2790,19 +2861,20 @@
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23" s="8"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>22</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="4"/>
-      <c r="G24" s="8"/>
+      <c r="F24" s="4"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="8"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="14"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
@@ -2813,19 +2885,20 @@
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
       <c r="T24" s="8"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24" s="8"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>23</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="4"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="4"/>
-      <c r="G25" s="8"/>
+      <c r="F25" s="4"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="8"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="14"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -2836,19 +2909,20 @@
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
       <c r="T25" s="8"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25" s="8"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>24</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="4"/>
-      <c r="G26" s="8"/>
+      <c r="F26" s="4"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="8"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="14"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -2859,19 +2933,20 @@
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U26" s="8"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>25</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="4"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="4"/>
-      <c r="G27" s="8"/>
+      <c r="F27" s="4"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="8"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="14"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -2882,19 +2957,20 @@
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U27" s="8"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>26</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="4"/>
-      <c r="G28" s="8"/>
+      <c r="F28" s="4"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="8"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="14"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
@@ -2905,19 +2981,20 @@
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U28" s="8"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>27</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="4"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="4"/>
-      <c r="G29" s="8"/>
+      <c r="F29" s="4"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="8"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="14"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -2928,19 +3005,20 @@
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U29" s="8"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>28</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="4"/>
-      <c r="G30" s="8"/>
+      <c r="F30" s="4"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="8"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="14"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
@@ -2951,19 +3029,20 @@
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30" s="8"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>29</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="4"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="4"/>
-      <c r="G31" s="8"/>
+      <c r="F31" s="4"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="8"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="14"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
@@ -2974,19 +3053,20 @@
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
       <c r="T31" s="8"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U31" s="8"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>30</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="4"/>
-      <c r="G32" s="8"/>
+      <c r="F32" s="4"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="8"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="14"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
@@ -2997,15 +3077,20 @@
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U32" s="8"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="4"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="4"/>
-      <c r="G33" s="8"/>
+      <c r="F33" s="4"/>
       <c r="H33" s="8"/>
-      <c r="J33" s="8"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="14"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
@@ -3016,15 +3101,16 @@
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U33" s="8"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="4"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="4"/>
-      <c r="G34" s="8"/>
+      <c r="F34" s="4"/>
       <c r="H34" s="8"/>
-      <c r="J34" s="8"/>
+      <c r="I34" s="9"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
@@ -3035,15 +3121,16 @@
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
       <c r="T34" s="8"/>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U34" s="8"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="4"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="4"/>
-      <c r="G35" s="8"/>
+      <c r="F35" s="4"/>
       <c r="H35" s="8"/>
-      <c r="J35" s="8"/>
+      <c r="I35" s="9"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
@@ -3054,15 +3141,16 @@
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
       <c r="T35" s="8"/>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U35" s="8"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="4"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="4"/>
-      <c r="G36" s="8"/>
+      <c r="F36" s="4"/>
       <c r="H36" s="8"/>
-      <c r="J36" s="8"/>
+      <c r="I36" s="9"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
@@ -3073,15 +3161,16 @@
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
       <c r="T36" s="8"/>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U36" s="8"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="4"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="4"/>
-      <c r="G37" s="8"/>
+      <c r="F37" s="4"/>
       <c r="H37" s="8"/>
-      <c r="J37" s="8"/>
+      <c r="I37" s="9"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
@@ -3092,15 +3181,16 @@
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
       <c r="T37" s="8"/>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U37" s="8"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="4"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="4"/>
-      <c r="G38" s="8"/>
+      <c r="F38" s="4"/>
       <c r="H38" s="8"/>
-      <c r="J38" s="8"/>
+      <c r="I38" s="9"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
@@ -3111,15 +3201,16 @@
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U38" s="8"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="4"/>
+      <c r="D39" s="9"/>
       <c r="E39" s="4"/>
-      <c r="G39" s="8"/>
+      <c r="F39" s="4"/>
       <c r="H39" s="8"/>
-      <c r="J39" s="8"/>
+      <c r="I39" s="9"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
@@ -3130,15 +3221,16 @@
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
       <c r="T39" s="8"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U39" s="8"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="4"/>
+      <c r="D40" s="9"/>
       <c r="E40" s="4"/>
-      <c r="G40" s="8"/>
+      <c r="F40" s="4"/>
       <c r="H40" s="8"/>
-      <c r="J40" s="8"/>
+      <c r="I40" s="9"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
@@ -3149,15 +3241,16 @@
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U40" s="8"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="4"/>
+      <c r="D41" s="9"/>
       <c r="E41" s="4"/>
-      <c r="G41" s="8"/>
+      <c r="F41" s="4"/>
       <c r="H41" s="8"/>
-      <c r="J41" s="8"/>
+      <c r="I41" s="9"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
@@ -3168,15 +3261,16 @@
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
       <c r="T41" s="8"/>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U41" s="8"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="4"/>
+      <c r="D42" s="9"/>
       <c r="E42" s="4"/>
-      <c r="G42" s="8"/>
+      <c r="F42" s="4"/>
       <c r="H42" s="8"/>
-      <c r="J42" s="8"/>
+      <c r="I42" s="9"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
@@ -3187,15 +3281,16 @@
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
       <c r="T42" s="8"/>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U42" s="8"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="4"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="4"/>
-      <c r="G43" s="8"/>
+      <c r="F43" s="4"/>
       <c r="H43" s="8"/>
-      <c r="J43" s="8"/>
+      <c r="I43" s="9"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
@@ -3206,15 +3301,16 @@
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U43" s="8"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="4"/>
+      <c r="D44" s="9"/>
       <c r="E44" s="4"/>
-      <c r="G44" s="8"/>
+      <c r="F44" s="4"/>
       <c r="H44" s="8"/>
-      <c r="J44" s="8"/>
+      <c r="I44" s="9"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
@@ -3225,15 +3321,16 @@
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
       <c r="T44" s="8"/>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U44" s="8"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="4"/>
+      <c r="D45" s="9"/>
       <c r="E45" s="4"/>
-      <c r="G45" s="8"/>
+      <c r="F45" s="4"/>
       <c r="H45" s="8"/>
-      <c r="J45" s="8"/>
+      <c r="I45" s="9"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
@@ -3244,15 +3341,16 @@
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
       <c r="T45" s="8"/>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U45" s="8"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="4"/>
+      <c r="D46" s="9"/>
       <c r="E46" s="4"/>
-      <c r="G46" s="8"/>
+      <c r="F46" s="4"/>
       <c r="H46" s="8"/>
-      <c r="J46" s="8"/>
+      <c r="I46" s="9"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
@@ -3263,15 +3361,16 @@
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
       <c r="T46" s="8"/>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U46" s="8"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="4"/>
+      <c r="D47" s="9"/>
       <c r="E47" s="4"/>
-      <c r="G47" s="8"/>
+      <c r="F47" s="4"/>
       <c r="H47" s="8"/>
-      <c r="J47" s="8"/>
+      <c r="I47" s="9"/>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
@@ -3282,15 +3381,16 @@
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
       <c r="T47" s="8"/>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U47" s="8"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="4"/>
+      <c r="D48" s="9"/>
       <c r="E48" s="4"/>
-      <c r="G48" s="8"/>
+      <c r="F48" s="4"/>
       <c r="H48" s="8"/>
-      <c r="J48" s="8"/>
+      <c r="I48" s="9"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
@@ -3301,15 +3401,16 @@
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
-    </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U48" s="8"/>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="4"/>
+      <c r="D49" s="9"/>
       <c r="E49" s="4"/>
-      <c r="G49" s="8"/>
+      <c r="F49" s="4"/>
       <c r="H49" s="8"/>
-      <c r="J49" s="8"/>
+      <c r="I49" s="9"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
@@ -3320,15 +3421,16 @@
       <c r="R49" s="8"/>
       <c r="S49" s="8"/>
       <c r="T49" s="8"/>
-    </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U49" s="8"/>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="4"/>
+      <c r="D50" s="9"/>
       <c r="E50" s="4"/>
-      <c r="G50" s="8"/>
+      <c r="F50" s="4"/>
       <c r="H50" s="8"/>
-      <c r="J50" s="8"/>
+      <c r="I50" s="9"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
@@ -3339,15 +3441,16 @@
       <c r="R50" s="8"/>
       <c r="S50" s="8"/>
       <c r="T50" s="8"/>
-    </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U50" s="8"/>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="4"/>
+      <c r="D51" s="9"/>
       <c r="E51" s="4"/>
-      <c r="G51" s="8"/>
+      <c r="F51" s="4"/>
       <c r="H51" s="8"/>
-      <c r="J51" s="8"/>
+      <c r="I51" s="9"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
@@ -3358,15 +3461,16 @@
       <c r="R51" s="8"/>
       <c r="S51" s="8"/>
       <c r="T51" s="8"/>
-    </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U51" s="8"/>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="4"/>
+      <c r="D52" s="9"/>
       <c r="E52" s="4"/>
-      <c r="G52" s="8"/>
+      <c r="F52" s="4"/>
       <c r="H52" s="8"/>
-      <c r="J52" s="8"/>
+      <c r="I52" s="9"/>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
@@ -3377,15 +3481,16 @@
       <c r="R52" s="8"/>
       <c r="S52" s="8"/>
       <c r="T52" s="8"/>
-    </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U52" s="8"/>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="4"/>
+      <c r="D53" s="9"/>
       <c r="E53" s="4"/>
-      <c r="G53" s="8"/>
+      <c r="F53" s="4"/>
       <c r="H53" s="8"/>
-      <c r="J53" s="8"/>
+      <c r="I53" s="9"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
@@ -3396,15 +3501,16 @@
       <c r="R53" s="8"/>
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
-    </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U53" s="8"/>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="4"/>
+      <c r="D54" s="9"/>
       <c r="E54" s="4"/>
-      <c r="G54" s="8"/>
+      <c r="F54" s="4"/>
       <c r="H54" s="8"/>
-      <c r="J54" s="8"/>
+      <c r="I54" s="9"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
@@ -3415,15 +3521,16 @@
       <c r="R54" s="8"/>
       <c r="S54" s="8"/>
       <c r="T54" s="8"/>
-    </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U54" s="8"/>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="4"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="4"/>
-      <c r="G55" s="8"/>
+      <c r="F55" s="4"/>
       <c r="H55" s="8"/>
-      <c r="J55" s="8"/>
+      <c r="I55" s="9"/>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
@@ -3434,15 +3541,16 @@
       <c r="R55" s="8"/>
       <c r="S55" s="8"/>
       <c r="T55" s="8"/>
-    </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U55" s="8"/>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="4"/>
+      <c r="D56" s="9"/>
       <c r="E56" s="4"/>
-      <c r="G56" s="8"/>
+      <c r="F56" s="4"/>
       <c r="H56" s="8"/>
-      <c r="J56" s="8"/>
+      <c r="I56" s="9"/>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
@@ -3453,15 +3561,16 @@
       <c r="R56" s="8"/>
       <c r="S56" s="8"/>
       <c r="T56" s="8"/>
-    </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U56" s="8"/>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="4"/>
+      <c r="D57" s="9"/>
       <c r="E57" s="4"/>
-      <c r="G57" s="8"/>
+      <c r="F57" s="4"/>
       <c r="H57" s="8"/>
-      <c r="J57" s="8"/>
+      <c r="I57" s="9"/>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
@@ -3472,15 +3581,16 @@
       <c r="R57" s="8"/>
       <c r="S57" s="8"/>
       <c r="T57" s="8"/>
-    </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U57" s="8"/>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="4"/>
+      <c r="D58" s="9"/>
       <c r="E58" s="4"/>
-      <c r="G58" s="8"/>
+      <c r="F58" s="4"/>
       <c r="H58" s="8"/>
-      <c r="J58" s="8"/>
+      <c r="I58" s="9"/>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
@@ -3491,15 +3601,16 @@
       <c r="R58" s="8"/>
       <c r="S58" s="8"/>
       <c r="T58" s="8"/>
-    </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U58" s="8"/>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="4"/>
+      <c r="D59" s="9"/>
       <c r="E59" s="4"/>
-      <c r="G59" s="8"/>
+      <c r="F59" s="4"/>
       <c r="H59" s="8"/>
-      <c r="J59" s="8"/>
+      <c r="I59" s="9"/>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
@@ -3510,15 +3621,16 @@
       <c r="R59" s="8"/>
       <c r="S59" s="8"/>
       <c r="T59" s="8"/>
-    </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U59" s="8"/>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="4"/>
+      <c r="D60" s="9"/>
       <c r="E60" s="4"/>
-      <c r="G60" s="8"/>
+      <c r="F60" s="4"/>
       <c r="H60" s="8"/>
-      <c r="J60" s="8"/>
+      <c r="I60" s="9"/>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
@@ -3529,15 +3641,16 @@
       <c r="R60" s="8"/>
       <c r="S60" s="8"/>
       <c r="T60" s="8"/>
-    </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U60" s="8"/>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="4"/>
+      <c r="D61" s="9"/>
       <c r="E61" s="4"/>
-      <c r="G61" s="8"/>
+      <c r="F61" s="4"/>
       <c r="H61" s="8"/>
-      <c r="J61" s="8"/>
+      <c r="I61" s="9"/>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
@@ -3548,15 +3661,16 @@
       <c r="R61" s="8"/>
       <c r="S61" s="8"/>
       <c r="T61" s="8"/>
-    </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U61" s="8"/>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="4"/>
+      <c r="D62" s="9"/>
       <c r="E62" s="4"/>
-      <c r="G62" s="8"/>
+      <c r="F62" s="4"/>
       <c r="H62" s="8"/>
-      <c r="J62" s="8"/>
+      <c r="I62" s="9"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
@@ -3567,15 +3681,16 @@
       <c r="R62" s="8"/>
       <c r="S62" s="8"/>
       <c r="T62" s="8"/>
-    </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U62" s="8"/>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="4"/>
+      <c r="D63" s="9"/>
       <c r="E63" s="4"/>
-      <c r="G63" s="8"/>
+      <c r="F63" s="4"/>
       <c r="H63" s="8"/>
-      <c r="J63" s="8"/>
+      <c r="I63" s="9"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
@@ -3586,15 +3701,16 @@
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
       <c r="T63" s="8"/>
-    </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U63" s="8"/>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
-      <c r="D64" s="4"/>
+      <c r="D64" s="9"/>
       <c r="E64" s="4"/>
-      <c r="G64" s="8"/>
+      <c r="F64" s="4"/>
       <c r="H64" s="8"/>
-      <c r="J64" s="8"/>
+      <c r="I64" s="9"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
@@ -3605,15 +3721,16 @@
       <c r="R64" s="8"/>
       <c r="S64" s="8"/>
       <c r="T64" s="8"/>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U64" s="8"/>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
-      <c r="D65" s="4"/>
+      <c r="D65" s="9"/>
       <c r="E65" s="4"/>
-      <c r="G65" s="8"/>
+      <c r="F65" s="4"/>
       <c r="H65" s="8"/>
-      <c r="J65" s="8"/>
+      <c r="I65" s="9"/>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
@@ -3624,15 +3741,16 @@
       <c r="R65" s="8"/>
       <c r="S65" s="8"/>
       <c r="T65" s="8"/>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U65" s="8"/>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
-      <c r="D66" s="4"/>
+      <c r="D66" s="9"/>
       <c r="E66" s="4"/>
-      <c r="G66" s="8"/>
+      <c r="F66" s="4"/>
       <c r="H66" s="8"/>
-      <c r="J66" s="8"/>
+      <c r="I66" s="9"/>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
@@ -3643,15 +3761,16 @@
       <c r="R66" s="8"/>
       <c r="S66" s="8"/>
       <c r="T66" s="8"/>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U66" s="8"/>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
-      <c r="D67" s="4"/>
+      <c r="D67" s="9"/>
       <c r="E67" s="4"/>
-      <c r="G67" s="8"/>
+      <c r="F67" s="4"/>
       <c r="H67" s="8"/>
-      <c r="J67" s="8"/>
+      <c r="I67" s="9"/>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
       <c r="M67" s="8"/>
@@ -3662,15 +3781,16 @@
       <c r="R67" s="8"/>
       <c r="S67" s="8"/>
       <c r="T67" s="8"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U67" s="8"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
-      <c r="D68" s="4"/>
+      <c r="D68" s="9"/>
       <c r="E68" s="4"/>
-      <c r="G68" s="8"/>
+      <c r="F68" s="4"/>
       <c r="H68" s="8"/>
-      <c r="J68" s="8"/>
+      <c r="I68" s="9"/>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
@@ -3681,15 +3801,16 @@
       <c r="R68" s="8"/>
       <c r="S68" s="8"/>
       <c r="T68" s="8"/>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U68" s="8"/>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
-      <c r="D69" s="4"/>
+      <c r="D69" s="9"/>
       <c r="E69" s="4"/>
-      <c r="G69" s="8"/>
+      <c r="F69" s="4"/>
       <c r="H69" s="8"/>
-      <c r="J69" s="8"/>
+      <c r="I69" s="9"/>
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
       <c r="M69" s="8"/>
@@ -3700,15 +3821,16 @@
       <c r="R69" s="8"/>
       <c r="S69" s="8"/>
       <c r="T69" s="8"/>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U69" s="8"/>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
-      <c r="D70" s="4"/>
+      <c r="D70" s="9"/>
       <c r="E70" s="4"/>
-      <c r="G70" s="8"/>
+      <c r="F70" s="4"/>
       <c r="H70" s="8"/>
-      <c r="J70" s="8"/>
+      <c r="I70" s="9"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="8"/>
@@ -3719,15 +3841,16 @@
       <c r="R70" s="8"/>
       <c r="S70" s="8"/>
       <c r="T70" s="8"/>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U70" s="8"/>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
-      <c r="D71" s="4"/>
+      <c r="D71" s="9"/>
       <c r="E71" s="4"/>
-      <c r="G71" s="8"/>
+      <c r="F71" s="4"/>
       <c r="H71" s="8"/>
-      <c r="J71" s="8"/>
+      <c r="I71" s="9"/>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="M71" s="8"/>
@@ -3738,15 +3861,16 @@
       <c r="R71" s="8"/>
       <c r="S71" s="8"/>
       <c r="T71" s="8"/>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U71" s="8"/>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
-      <c r="D72" s="4"/>
+      <c r="D72" s="9"/>
       <c r="E72" s="4"/>
-      <c r="G72" s="8"/>
+      <c r="F72" s="4"/>
       <c r="H72" s="8"/>
-      <c r="J72" s="8"/>
+      <c r="I72" s="9"/>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="8"/>
@@ -3757,15 +3881,16 @@
       <c r="R72" s="8"/>
       <c r="S72" s="8"/>
       <c r="T72" s="8"/>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U72" s="8"/>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
-      <c r="D73" s="4"/>
+      <c r="D73" s="9"/>
       <c r="E73" s="4"/>
-      <c r="G73" s="8"/>
+      <c r="F73" s="4"/>
       <c r="H73" s="8"/>
-      <c r="J73" s="8"/>
+      <c r="I73" s="9"/>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
@@ -3776,15 +3901,16 @@
       <c r="R73" s="8"/>
       <c r="S73" s="8"/>
       <c r="T73" s="8"/>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U73" s="8"/>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
-      <c r="D74" s="4"/>
+      <c r="D74" s="9"/>
       <c r="E74" s="4"/>
-      <c r="G74" s="8"/>
+      <c r="F74" s="4"/>
       <c r="H74" s="8"/>
-      <c r="J74" s="8"/>
+      <c r="I74" s="9"/>
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
@@ -3795,15 +3921,16 @@
       <c r="R74" s="8"/>
       <c r="S74" s="8"/>
       <c r="T74" s="8"/>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U74" s="8"/>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
-      <c r="D75" s="4"/>
+      <c r="D75" s="9"/>
       <c r="E75" s="4"/>
-      <c r="G75" s="8"/>
+      <c r="F75" s="4"/>
       <c r="H75" s="8"/>
-      <c r="J75" s="8"/>
+      <c r="I75" s="9"/>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
       <c r="M75" s="8"/>
@@ -3814,15 +3941,16 @@
       <c r="R75" s="8"/>
       <c r="S75" s="8"/>
       <c r="T75" s="8"/>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U75" s="8"/>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
-      <c r="D76" s="4"/>
+      <c r="D76" s="9"/>
       <c r="E76" s="4"/>
-      <c r="G76" s="8"/>
+      <c r="F76" s="4"/>
       <c r="H76" s="8"/>
-      <c r="J76" s="8"/>
+      <c r="I76" s="9"/>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
       <c r="M76" s="8"/>
@@ -3833,15 +3961,16 @@
       <c r="R76" s="8"/>
       <c r="S76" s="8"/>
       <c r="T76" s="8"/>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U76" s="8"/>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
-      <c r="D77" s="4"/>
+      <c r="D77" s="9"/>
       <c r="E77" s="4"/>
-      <c r="G77" s="8"/>
+      <c r="F77" s="4"/>
       <c r="H77" s="8"/>
-      <c r="J77" s="8"/>
+      <c r="I77" s="9"/>
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
       <c r="M77" s="8"/>
@@ -3852,15 +3981,16 @@
       <c r="R77" s="8"/>
       <c r="S77" s="8"/>
       <c r="T77" s="8"/>
-    </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U77" s="8"/>
+    </row>
+    <row r="78" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
-      <c r="D78" s="4"/>
+      <c r="D78" s="9"/>
       <c r="E78" s="4"/>
-      <c r="G78" s="8"/>
+      <c r="F78" s="4"/>
       <c r="H78" s="8"/>
-      <c r="J78" s="8"/>
+      <c r="I78" s="9"/>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="M78" s="8"/>
@@ -3871,15 +4001,16 @@
       <c r="R78" s="8"/>
       <c r="S78" s="8"/>
       <c r="T78" s="8"/>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U78" s="8"/>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
-      <c r="D79" s="4"/>
+      <c r="D79" s="9"/>
       <c r="E79" s="4"/>
-      <c r="G79" s="8"/>
+      <c r="F79" s="4"/>
       <c r="H79" s="8"/>
-      <c r="J79" s="8"/>
+      <c r="I79" s="9"/>
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
       <c r="M79" s="8"/>
@@ -3890,15 +4021,16 @@
       <c r="R79" s="8"/>
       <c r="S79" s="8"/>
       <c r="T79" s="8"/>
-    </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U79" s="8"/>
+    </row>
+    <row r="80" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
-      <c r="D80" s="4"/>
+      <c r="D80" s="9"/>
       <c r="E80" s="4"/>
-      <c r="G80" s="8"/>
+      <c r="F80" s="4"/>
       <c r="H80" s="8"/>
-      <c r="J80" s="8"/>
+      <c r="I80" s="9"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
@@ -3909,15 +4041,16 @@
       <c r="R80" s="8"/>
       <c r="S80" s="8"/>
       <c r="T80" s="8"/>
-    </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U80" s="8"/>
+    </row>
+    <row r="81" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
-      <c r="D81" s="4"/>
+      <c r="D81" s="9"/>
       <c r="E81" s="4"/>
-      <c r="G81" s="8"/>
+      <c r="F81" s="4"/>
       <c r="H81" s="8"/>
-      <c r="J81" s="8"/>
+      <c r="I81" s="9"/>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
       <c r="M81" s="8"/>
@@ -3928,15 +4061,16 @@
       <c r="R81" s="8"/>
       <c r="S81" s="8"/>
       <c r="T81" s="8"/>
-    </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U81" s="8"/>
+    </row>
+    <row r="82" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
-      <c r="D82" s="4"/>
+      <c r="D82" s="9"/>
       <c r="E82" s="4"/>
-      <c r="G82" s="8"/>
+      <c r="F82" s="4"/>
       <c r="H82" s="8"/>
-      <c r="J82" s="8"/>
+      <c r="I82" s="9"/>
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
@@ -3947,15 +4081,16 @@
       <c r="R82" s="8"/>
       <c r="S82" s="8"/>
       <c r="T82" s="8"/>
-    </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U82" s="8"/>
+    </row>
+    <row r="83" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
-      <c r="D83" s="4"/>
+      <c r="D83" s="9"/>
       <c r="E83" s="4"/>
-      <c r="G83" s="8"/>
+      <c r="F83" s="4"/>
       <c r="H83" s="8"/>
-      <c r="J83" s="8"/>
+      <c r="I83" s="9"/>
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
       <c r="M83" s="8"/>
@@ -3966,15 +4101,16 @@
       <c r="R83" s="8"/>
       <c r="S83" s="8"/>
       <c r="T83" s="8"/>
-    </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U83" s="8"/>
+    </row>
+    <row r="84" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
-      <c r="D84" s="4"/>
+      <c r="D84" s="9"/>
       <c r="E84" s="4"/>
-      <c r="G84" s="8"/>
+      <c r="F84" s="4"/>
       <c r="H84" s="8"/>
-      <c r="J84" s="8"/>
+      <c r="I84" s="9"/>
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
       <c r="M84" s="8"/>
@@ -3985,15 +4121,16 @@
       <c r="R84" s="8"/>
       <c r="S84" s="8"/>
       <c r="T84" s="8"/>
-    </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U84" s="8"/>
+    </row>
+    <row r="85" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
-      <c r="D85" s="4"/>
+      <c r="D85" s="9"/>
       <c r="E85" s="4"/>
-      <c r="G85" s="8"/>
+      <c r="F85" s="4"/>
       <c r="H85" s="8"/>
-      <c r="J85" s="8"/>
+      <c r="I85" s="9"/>
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
       <c r="M85" s="8"/>
@@ -4004,15 +4141,16 @@
       <c r="R85" s="8"/>
       <c r="S85" s="8"/>
       <c r="T85" s="8"/>
-    </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U85" s="8"/>
+    </row>
+    <row r="86" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
-      <c r="D86" s="4"/>
+      <c r="D86" s="9"/>
       <c r="E86" s="4"/>
-      <c r="G86" s="8"/>
+      <c r="F86" s="4"/>
       <c r="H86" s="8"/>
-      <c r="J86" s="8"/>
+      <c r="I86" s="9"/>
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
       <c r="M86" s="8"/>
@@ -4023,15 +4161,16 @@
       <c r="R86" s="8"/>
       <c r="S86" s="8"/>
       <c r="T86" s="8"/>
-    </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U86" s="8"/>
+    </row>
+    <row r="87" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
-      <c r="D87" s="4"/>
+      <c r="D87" s="9"/>
       <c r="E87" s="4"/>
-      <c r="G87" s="8"/>
+      <c r="F87" s="4"/>
       <c r="H87" s="8"/>
-      <c r="J87" s="8"/>
+      <c r="I87" s="9"/>
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
       <c r="M87" s="8"/>
@@ -4042,15 +4181,16 @@
       <c r="R87" s="8"/>
       <c r="S87" s="8"/>
       <c r="T87" s="8"/>
-    </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U87" s="8"/>
+    </row>
+    <row r="88" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
-      <c r="D88" s="4"/>
+      <c r="D88" s="9"/>
       <c r="E88" s="4"/>
-      <c r="G88" s="8"/>
+      <c r="F88" s="4"/>
       <c r="H88" s="8"/>
-      <c r="J88" s="8"/>
+      <c r="I88" s="9"/>
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
       <c r="M88" s="8"/>
@@ -4061,15 +4201,16 @@
       <c r="R88" s="8"/>
       <c r="S88" s="8"/>
       <c r="T88" s="8"/>
-    </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U88" s="8"/>
+    </row>
+    <row r="89" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
-      <c r="D89" s="4"/>
+      <c r="D89" s="9"/>
       <c r="E89" s="4"/>
-      <c r="G89" s="8"/>
+      <c r="F89" s="4"/>
       <c r="H89" s="8"/>
-      <c r="J89" s="8"/>
+      <c r="I89" s="9"/>
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
       <c r="M89" s="8"/>
@@ -4080,15 +4221,16 @@
       <c r="R89" s="8"/>
       <c r="S89" s="8"/>
       <c r="T89" s="8"/>
-    </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U89" s="8"/>
+    </row>
+    <row r="90" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
-      <c r="D90" s="4"/>
+      <c r="D90" s="9"/>
       <c r="E90" s="4"/>
-      <c r="G90" s="8"/>
+      <c r="F90" s="4"/>
       <c r="H90" s="8"/>
-      <c r="J90" s="8"/>
+      <c r="I90" s="9"/>
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
       <c r="M90" s="8"/>
@@ -4099,15 +4241,16 @@
       <c r="R90" s="8"/>
       <c r="S90" s="8"/>
       <c r="T90" s="8"/>
-    </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U90" s="8"/>
+    </row>
+    <row r="91" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
-      <c r="D91" s="4"/>
+      <c r="D91" s="9"/>
       <c r="E91" s="4"/>
-      <c r="G91" s="8"/>
+      <c r="F91" s="4"/>
       <c r="H91" s="8"/>
-      <c r="J91" s="8"/>
+      <c r="I91" s="9"/>
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
       <c r="M91" s="8"/>
@@ -4118,15 +4261,16 @@
       <c r="R91" s="8"/>
       <c r="S91" s="8"/>
       <c r="T91" s="8"/>
-    </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U91" s="8"/>
+    </row>
+    <row r="92" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
-      <c r="D92" s="4"/>
+      <c r="D92" s="9"/>
       <c r="E92" s="4"/>
-      <c r="G92" s="8"/>
+      <c r="F92" s="4"/>
       <c r="H92" s="8"/>
-      <c r="J92" s="8"/>
+      <c r="I92" s="9"/>
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
       <c r="M92" s="8"/>
@@ -4137,15 +4281,16 @@
       <c r="R92" s="8"/>
       <c r="S92" s="8"/>
       <c r="T92" s="8"/>
-    </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U92" s="8"/>
+    </row>
+    <row r="93" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
-      <c r="D93" s="4"/>
+      <c r="D93" s="9"/>
       <c r="E93" s="4"/>
-      <c r="G93" s="8"/>
+      <c r="F93" s="4"/>
       <c r="H93" s="8"/>
-      <c r="J93" s="8"/>
+      <c r="I93" s="9"/>
       <c r="K93" s="8"/>
       <c r="L93" s="8"/>
       <c r="M93" s="8"/>
@@ -4156,15 +4301,16 @@
       <c r="R93" s="8"/>
       <c r="S93" s="8"/>
       <c r="T93" s="8"/>
-    </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U93" s="8"/>
+    </row>
+    <row r="94" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
-      <c r="D94" s="4"/>
+      <c r="D94" s="9"/>
       <c r="E94" s="4"/>
-      <c r="G94" s="8"/>
+      <c r="F94" s="4"/>
       <c r="H94" s="8"/>
-      <c r="J94" s="8"/>
+      <c r="I94" s="9"/>
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
       <c r="M94" s="8"/>
@@ -4175,15 +4321,16 @@
       <c r="R94" s="8"/>
       <c r="S94" s="8"/>
       <c r="T94" s="8"/>
-    </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U94" s="8"/>
+    </row>
+    <row r="95" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
-      <c r="D95" s="4"/>
+      <c r="D95" s="9"/>
       <c r="E95" s="4"/>
-      <c r="G95" s="8"/>
+      <c r="F95" s="4"/>
       <c r="H95" s="8"/>
-      <c r="J95" s="8"/>
+      <c r="I95" s="9"/>
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
       <c r="M95" s="8"/>
@@ -4194,15 +4341,16 @@
       <c r="R95" s="8"/>
       <c r="S95" s="8"/>
       <c r="T95" s="8"/>
-    </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U95" s="8"/>
+    </row>
+    <row r="96" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
-      <c r="D96" s="4"/>
+      <c r="D96" s="9"/>
       <c r="E96" s="4"/>
-      <c r="G96" s="8"/>
+      <c r="F96" s="4"/>
       <c r="H96" s="8"/>
-      <c r="J96" s="8"/>
+      <c r="I96" s="9"/>
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
       <c r="M96" s="8"/>
@@ -4213,15 +4361,16 @@
       <c r="R96" s="8"/>
       <c r="S96" s="8"/>
       <c r="T96" s="8"/>
-    </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U96" s="8"/>
+    </row>
+    <row r="97" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
-      <c r="D97" s="4"/>
+      <c r="D97" s="9"/>
       <c r="E97" s="4"/>
-      <c r="G97" s="8"/>
+      <c r="F97" s="4"/>
       <c r="H97" s="8"/>
-      <c r="J97" s="8"/>
+      <c r="I97" s="9"/>
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
       <c r="M97" s="8"/>
@@ -4232,15 +4381,16 @@
       <c r="R97" s="8"/>
       <c r="S97" s="8"/>
       <c r="T97" s="8"/>
-    </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U97" s="8"/>
+    </row>
+    <row r="98" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
-      <c r="D98" s="4"/>
+      <c r="D98" s="9"/>
       <c r="E98" s="4"/>
-      <c r="G98" s="8"/>
+      <c r="F98" s="4"/>
       <c r="H98" s="8"/>
-      <c r="J98" s="8"/>
+      <c r="I98" s="9"/>
       <c r="K98" s="8"/>
       <c r="L98" s="8"/>
       <c r="M98" s="8"/>
@@ -4251,15 +4401,16 @@
       <c r="R98" s="8"/>
       <c r="S98" s="8"/>
       <c r="T98" s="8"/>
-    </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U98" s="8"/>
+    </row>
+    <row r="99" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
-      <c r="D99" s="4"/>
+      <c r="D99" s="9"/>
       <c r="E99" s="4"/>
-      <c r="G99" s="8"/>
+      <c r="F99" s="4"/>
       <c r="H99" s="8"/>
-      <c r="J99" s="8"/>
+      <c r="I99" s="9"/>
       <c r="K99" s="8"/>
       <c r="L99" s="8"/>
       <c r="M99" s="8"/>
@@ -4270,15 +4421,16 @@
       <c r="R99" s="8"/>
       <c r="S99" s="8"/>
       <c r="T99" s="8"/>
-    </row>
-    <row r="100" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U99" s="8"/>
+    </row>
+    <row r="100" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
-      <c r="D100" s="4"/>
+      <c r="D100" s="9"/>
       <c r="E100" s="4"/>
-      <c r="G100" s="8"/>
+      <c r="F100" s="4"/>
       <c r="H100" s="8"/>
-      <c r="J100" s="8"/>
+      <c r="I100" s="9"/>
       <c r="K100" s="8"/>
       <c r="L100" s="8"/>
       <c r="M100" s="8"/>
@@ -4289,15 +4441,16 @@
       <c r="R100" s="8"/>
       <c r="S100" s="8"/>
       <c r="T100" s="8"/>
-    </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U100" s="8"/>
+    </row>
+    <row r="101" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
-      <c r="D101" s="4"/>
+      <c r="D101" s="9"/>
       <c r="E101" s="4"/>
-      <c r="G101" s="8"/>
+      <c r="F101" s="4"/>
       <c r="H101" s="8"/>
-      <c r="J101" s="8"/>
+      <c r="I101" s="9"/>
       <c r="K101" s="8"/>
       <c r="L101" s="8"/>
       <c r="M101" s="8"/>
@@ -4308,15 +4461,16 @@
       <c r="R101" s="8"/>
       <c r="S101" s="8"/>
       <c r="T101" s="8"/>
-    </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U101" s="8"/>
+    </row>
+    <row r="102" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
-      <c r="D102" s="4"/>
+      <c r="D102" s="9"/>
       <c r="E102" s="4"/>
-      <c r="G102" s="8"/>
+      <c r="F102" s="4"/>
       <c r="H102" s="8"/>
-      <c r="J102" s="8"/>
+      <c r="I102" s="9"/>
       <c r="K102" s="8"/>
       <c r="L102" s="8"/>
       <c r="M102" s="8"/>
@@ -4327,15 +4481,16 @@
       <c r="R102" s="8"/>
       <c r="S102" s="8"/>
       <c r="T102" s="8"/>
-    </row>
-    <row r="103" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U102" s="8"/>
+    </row>
+    <row r="103" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
-      <c r="D103" s="4"/>
+      <c r="D103" s="9"/>
       <c r="E103" s="4"/>
-      <c r="G103" s="8"/>
+      <c r="F103" s="4"/>
       <c r="H103" s="8"/>
-      <c r="J103" s="8"/>
+      <c r="I103" s="9"/>
       <c r="K103" s="8"/>
       <c r="L103" s="8"/>
       <c r="M103" s="8"/>
@@ -4346,15 +4501,16 @@
       <c r="R103" s="8"/>
       <c r="S103" s="8"/>
       <c r="T103" s="8"/>
-    </row>
-    <row r="104" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U103" s="8"/>
+    </row>
+    <row r="104" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
-      <c r="D104" s="4"/>
+      <c r="D104" s="9"/>
       <c r="E104" s="4"/>
-      <c r="G104" s="8"/>
+      <c r="F104" s="4"/>
       <c r="H104" s="8"/>
-      <c r="J104" s="8"/>
+      <c r="I104" s="9"/>
       <c r="K104" s="8"/>
       <c r="L104" s="8"/>
       <c r="M104" s="8"/>
@@ -4365,15 +4521,16 @@
       <c r="R104" s="8"/>
       <c r="S104" s="8"/>
       <c r="T104" s="8"/>
-    </row>
-    <row r="105" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U104" s="8"/>
+    </row>
+    <row r="105" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
-      <c r="D105" s="4"/>
+      <c r="D105" s="9"/>
       <c r="E105" s="4"/>
-      <c r="G105" s="8"/>
+      <c r="F105" s="4"/>
       <c r="H105" s="8"/>
-      <c r="J105" s="8"/>
+      <c r="I105" s="9"/>
       <c r="K105" s="8"/>
       <c r="L105" s="8"/>
       <c r="M105" s="8"/>
@@ -4384,15 +4541,16 @@
       <c r="R105" s="8"/>
       <c r="S105" s="8"/>
       <c r="T105" s="8"/>
-    </row>
-    <row r="106" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U105" s="8"/>
+    </row>
+    <row r="106" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
-      <c r="D106" s="4"/>
+      <c r="D106" s="9"/>
       <c r="E106" s="4"/>
-      <c r="G106" s="8"/>
+      <c r="F106" s="4"/>
       <c r="H106" s="8"/>
-      <c r="J106" s="8"/>
+      <c r="I106" s="9"/>
       <c r="K106" s="8"/>
       <c r="L106" s="8"/>
       <c r="M106" s="8"/>
@@ -4403,15 +4561,16 @@
       <c r="R106" s="8"/>
       <c r="S106" s="8"/>
       <c r="T106" s="8"/>
-    </row>
-    <row r="107" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U106" s="8"/>
+    </row>
+    <row r="107" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
-      <c r="D107" s="4"/>
+      <c r="D107" s="9"/>
       <c r="E107" s="4"/>
-      <c r="G107" s="8"/>
+      <c r="F107" s="4"/>
       <c r="H107" s="8"/>
-      <c r="J107" s="8"/>
+      <c r="I107" s="9"/>
       <c r="K107" s="8"/>
       <c r="L107" s="8"/>
       <c r="M107" s="8"/>
@@ -4422,15 +4581,16 @@
       <c r="R107" s="8"/>
       <c r="S107" s="8"/>
       <c r="T107" s="8"/>
-    </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U107" s="8"/>
+    </row>
+    <row r="108" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
-      <c r="D108" s="4"/>
+      <c r="D108" s="9"/>
       <c r="E108" s="4"/>
-      <c r="G108" s="8"/>
+      <c r="F108" s="4"/>
       <c r="H108" s="8"/>
-      <c r="J108" s="8"/>
+      <c r="I108" s="9"/>
       <c r="K108" s="8"/>
       <c r="L108" s="8"/>
       <c r="M108" s="8"/>
@@ -4441,15 +4601,16 @@
       <c r="R108" s="8"/>
       <c r="S108" s="8"/>
       <c r="T108" s="8"/>
-    </row>
-    <row r="109" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U108" s="8"/>
+    </row>
+    <row r="109" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
-      <c r="D109" s="4"/>
+      <c r="D109" s="9"/>
       <c r="E109" s="4"/>
-      <c r="G109" s="8"/>
+      <c r="F109" s="4"/>
       <c r="H109" s="8"/>
-      <c r="J109" s="8"/>
+      <c r="I109" s="9"/>
       <c r="K109" s="8"/>
       <c r="L109" s="8"/>
       <c r="M109" s="8"/>
@@ -4460,15 +4621,16 @@
       <c r="R109" s="8"/>
       <c r="S109" s="8"/>
       <c r="T109" s="8"/>
-    </row>
-    <row r="110" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U109" s="8"/>
+    </row>
+    <row r="110" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
-      <c r="D110" s="4"/>
+      <c r="D110" s="9"/>
       <c r="E110" s="4"/>
-      <c r="G110" s="8"/>
+      <c r="F110" s="4"/>
       <c r="H110" s="8"/>
-      <c r="J110" s="8"/>
+      <c r="I110" s="9"/>
       <c r="K110" s="8"/>
       <c r="L110" s="8"/>
       <c r="M110" s="8"/>
@@ -4479,15 +4641,16 @@
       <c r="R110" s="8"/>
       <c r="S110" s="8"/>
       <c r="T110" s="8"/>
-    </row>
-    <row r="111" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U110" s="8"/>
+    </row>
+    <row r="111" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
-      <c r="D111" s="4"/>
+      <c r="D111" s="9"/>
       <c r="E111" s="4"/>
-      <c r="G111" s="8"/>
+      <c r="F111" s="4"/>
       <c r="H111" s="8"/>
-      <c r="J111" s="8"/>
+      <c r="I111" s="9"/>
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
       <c r="M111" s="8"/>
@@ -4498,15 +4661,16 @@
       <c r="R111" s="8"/>
       <c r="S111" s="8"/>
       <c r="T111" s="8"/>
-    </row>
-    <row r="112" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U111" s="8"/>
+    </row>
+    <row r="112" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
-      <c r="D112" s="4"/>
+      <c r="D112" s="9"/>
       <c r="E112" s="4"/>
-      <c r="G112" s="8"/>
+      <c r="F112" s="4"/>
       <c r="H112" s="8"/>
-      <c r="J112" s="8"/>
+      <c r="I112" s="9"/>
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
       <c r="M112" s="8"/>
@@ -4517,15 +4681,16 @@
       <c r="R112" s="8"/>
       <c r="S112" s="8"/>
       <c r="T112" s="8"/>
-    </row>
-    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U112" s="8"/>
+    </row>
+    <row r="113" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
-      <c r="D113" s="4"/>
+      <c r="D113" s="9"/>
       <c r="E113" s="4"/>
-      <c r="G113" s="8"/>
+      <c r="F113" s="4"/>
       <c r="H113" s="8"/>
-      <c r="J113" s="8"/>
+      <c r="I113" s="9"/>
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
       <c r="M113" s="8"/>
@@ -4536,15 +4701,16 @@
       <c r="R113" s="8"/>
       <c r="S113" s="8"/>
       <c r="T113" s="8"/>
-    </row>
-    <row r="114" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U113" s="8"/>
+    </row>
+    <row r="114" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
-      <c r="D114" s="4"/>
+      <c r="D114" s="9"/>
       <c r="E114" s="4"/>
-      <c r="G114" s="8"/>
+      <c r="F114" s="4"/>
       <c r="H114" s="8"/>
-      <c r="J114" s="8"/>
+      <c r="I114" s="9"/>
       <c r="K114" s="8"/>
       <c r="L114" s="8"/>
       <c r="M114" s="8"/>
@@ -4555,15 +4721,16 @@
       <c r="R114" s="8"/>
       <c r="S114" s="8"/>
       <c r="T114" s="8"/>
-    </row>
-    <row r="115" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U114" s="8"/>
+    </row>
+    <row r="115" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
-      <c r="D115" s="4"/>
+      <c r="D115" s="9"/>
       <c r="E115" s="4"/>
-      <c r="G115" s="8"/>
+      <c r="F115" s="4"/>
       <c r="H115" s="8"/>
-      <c r="J115" s="8"/>
+      <c r="I115" s="9"/>
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
       <c r="M115" s="8"/>
@@ -4574,15 +4741,16 @@
       <c r="R115" s="8"/>
       <c r="S115" s="8"/>
       <c r="T115" s="8"/>
-    </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U115" s="8"/>
+    </row>
+    <row r="116" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
-      <c r="D116" s="4"/>
+      <c r="D116" s="9"/>
       <c r="E116" s="4"/>
-      <c r="G116" s="8"/>
+      <c r="F116" s="4"/>
       <c r="H116" s="8"/>
-      <c r="J116" s="8"/>
+      <c r="I116" s="9"/>
       <c r="K116" s="8"/>
       <c r="L116" s="8"/>
       <c r="M116" s="8"/>
@@ -4593,15 +4761,16 @@
       <c r="R116" s="8"/>
       <c r="S116" s="8"/>
       <c r="T116" s="8"/>
-    </row>
-    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U116" s="8"/>
+    </row>
+    <row r="117" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
-      <c r="D117" s="4"/>
+      <c r="D117" s="9"/>
       <c r="E117" s="4"/>
-      <c r="G117" s="8"/>
+      <c r="F117" s="4"/>
       <c r="H117" s="8"/>
-      <c r="J117" s="8"/>
+      <c r="I117" s="9"/>
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
       <c r="M117" s="8"/>
@@ -4612,15 +4781,16 @@
       <c r="R117" s="8"/>
       <c r="S117" s="8"/>
       <c r="T117" s="8"/>
-    </row>
-    <row r="118" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U117" s="8"/>
+    </row>
+    <row r="118" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
-      <c r="D118" s="4"/>
+      <c r="D118" s="9"/>
       <c r="E118" s="4"/>
-      <c r="G118" s="8"/>
+      <c r="F118" s="4"/>
       <c r="H118" s="8"/>
-      <c r="J118" s="8"/>
+      <c r="I118" s="9"/>
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
       <c r="M118" s="8"/>
@@ -4631,15 +4801,16 @@
       <c r="R118" s="8"/>
       <c r="S118" s="8"/>
       <c r="T118" s="8"/>
-    </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U118" s="8"/>
+    </row>
+    <row r="119" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
-      <c r="D119" s="4"/>
+      <c r="D119" s="9"/>
       <c r="E119" s="4"/>
-      <c r="G119" s="8"/>
+      <c r="F119" s="4"/>
       <c r="H119" s="8"/>
-      <c r="J119" s="8"/>
+      <c r="I119" s="9"/>
       <c r="K119" s="8"/>
       <c r="L119" s="8"/>
       <c r="M119" s="8"/>
@@ -4650,15 +4821,16 @@
       <c r="R119" s="8"/>
       <c r="S119" s="8"/>
       <c r="T119" s="8"/>
-    </row>
-    <row r="120" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U119" s="8"/>
+    </row>
+    <row r="120" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
-      <c r="D120" s="4"/>
+      <c r="D120" s="9"/>
       <c r="E120" s="4"/>
-      <c r="G120" s="8"/>
+      <c r="F120" s="4"/>
       <c r="H120" s="8"/>
-      <c r="J120" s="8"/>
+      <c r="I120" s="9"/>
       <c r="K120" s="8"/>
       <c r="L120" s="8"/>
       <c r="M120" s="8"/>
@@ -4669,15 +4841,16 @@
       <c r="R120" s="8"/>
       <c r="S120" s="8"/>
       <c r="T120" s="8"/>
-    </row>
-    <row r="121" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U120" s="8"/>
+    </row>
+    <row r="121" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
-      <c r="D121" s="4"/>
+      <c r="D121" s="9"/>
       <c r="E121" s="4"/>
-      <c r="G121" s="8"/>
+      <c r="F121" s="4"/>
       <c r="H121" s="8"/>
-      <c r="J121" s="8"/>
+      <c r="I121" s="9"/>
       <c r="K121" s="8"/>
       <c r="L121" s="8"/>
       <c r="M121" s="8"/>
@@ -4688,15 +4861,16 @@
       <c r="R121" s="8"/>
       <c r="S121" s="8"/>
       <c r="T121" s="8"/>
-    </row>
-    <row r="122" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U121" s="8"/>
+    </row>
+    <row r="122" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
-      <c r="D122" s="4"/>
+      <c r="D122" s="9"/>
       <c r="E122" s="4"/>
-      <c r="G122" s="8"/>
+      <c r="F122" s="4"/>
       <c r="H122" s="8"/>
-      <c r="J122" s="8"/>
+      <c r="I122" s="9"/>
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
       <c r="M122" s="8"/>
@@ -4707,15 +4881,16 @@
       <c r="R122" s="8"/>
       <c r="S122" s="8"/>
       <c r="T122" s="8"/>
-    </row>
-    <row r="123" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U122" s="8"/>
+    </row>
+    <row r="123" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
-      <c r="D123" s="4"/>
+      <c r="D123" s="9"/>
       <c r="E123" s="4"/>
-      <c r="G123" s="8"/>
+      <c r="F123" s="4"/>
       <c r="H123" s="8"/>
-      <c r="J123" s="8"/>
+      <c r="I123" s="9"/>
       <c r="K123" s="8"/>
       <c r="L123" s="8"/>
       <c r="M123" s="8"/>
@@ -4726,15 +4901,16 @@
       <c r="R123" s="8"/>
       <c r="S123" s="8"/>
       <c r="T123" s="8"/>
-    </row>
-    <row r="124" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U123" s="8"/>
+    </row>
+    <row r="124" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
-      <c r="D124" s="4"/>
+      <c r="D124" s="9"/>
       <c r="E124" s="4"/>
-      <c r="G124" s="8"/>
+      <c r="F124" s="4"/>
       <c r="H124" s="8"/>
-      <c r="J124" s="8"/>
+      <c r="I124" s="9"/>
       <c r="K124" s="8"/>
       <c r="L124" s="8"/>
       <c r="M124" s="8"/>
@@ -4745,15 +4921,16 @@
       <c r="R124" s="8"/>
       <c r="S124" s="8"/>
       <c r="T124" s="8"/>
-    </row>
-    <row r="125" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U124" s="8"/>
+    </row>
+    <row r="125" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
-      <c r="D125" s="4"/>
+      <c r="D125" s="9"/>
       <c r="E125" s="4"/>
-      <c r="G125" s="8"/>
+      <c r="F125" s="4"/>
       <c r="H125" s="8"/>
-      <c r="J125" s="8"/>
+      <c r="I125" s="9"/>
       <c r="K125" s="8"/>
       <c r="L125" s="8"/>
       <c r="M125" s="8"/>
@@ -4764,15 +4941,16 @@
       <c r="R125" s="8"/>
       <c r="S125" s="8"/>
       <c r="T125" s="8"/>
-    </row>
-    <row r="126" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U125" s="8"/>
+    </row>
+    <row r="126" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
-      <c r="D126" s="4"/>
+      <c r="D126" s="9"/>
       <c r="E126" s="4"/>
-      <c r="G126" s="8"/>
+      <c r="F126" s="4"/>
       <c r="H126" s="8"/>
-      <c r="J126" s="8"/>
+      <c r="I126" s="9"/>
       <c r="K126" s="8"/>
       <c r="L126" s="8"/>
       <c r="M126" s="8"/>
@@ -4783,15 +4961,16 @@
       <c r="R126" s="8"/>
       <c r="S126" s="8"/>
       <c r="T126" s="8"/>
-    </row>
-    <row r="127" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U126" s="8"/>
+    </row>
+    <row r="127" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
-      <c r="D127" s="4"/>
+      <c r="D127" s="9"/>
       <c r="E127" s="4"/>
-      <c r="G127" s="8"/>
+      <c r="F127" s="4"/>
       <c r="H127" s="8"/>
-      <c r="J127" s="8"/>
+      <c r="I127" s="9"/>
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
       <c r="M127" s="8"/>
@@ -4802,15 +4981,16 @@
       <c r="R127" s="8"/>
       <c r="S127" s="8"/>
       <c r="T127" s="8"/>
-    </row>
-    <row r="128" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U127" s="8"/>
+    </row>
+    <row r="128" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
-      <c r="D128" s="4"/>
+      <c r="D128" s="9"/>
       <c r="E128" s="4"/>
-      <c r="G128" s="8"/>
+      <c r="F128" s="4"/>
       <c r="H128" s="8"/>
-      <c r="J128" s="8"/>
+      <c r="I128" s="9"/>
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
       <c r="M128" s="8"/>
@@ -4821,15 +5001,16 @@
       <c r="R128" s="8"/>
       <c r="S128" s="8"/>
       <c r="T128" s="8"/>
-    </row>
-    <row r="129" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U128" s="8"/>
+    </row>
+    <row r="129" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
-      <c r="D129" s="4"/>
+      <c r="D129" s="9"/>
       <c r="E129" s="4"/>
-      <c r="G129" s="8"/>
+      <c r="F129" s="4"/>
       <c r="H129" s="8"/>
-      <c r="J129" s="8"/>
+      <c r="I129" s="9"/>
       <c r="K129" s="8"/>
       <c r="L129" s="8"/>
       <c r="M129" s="8"/>
@@ -4840,15 +5021,16 @@
       <c r="R129" s="8"/>
       <c r="S129" s="8"/>
       <c r="T129" s="8"/>
-    </row>
-    <row r="130" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U129" s="8"/>
+    </row>
+    <row r="130" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
-      <c r="D130" s="4"/>
+      <c r="D130" s="9"/>
       <c r="E130" s="4"/>
-      <c r="G130" s="8"/>
+      <c r="F130" s="4"/>
       <c r="H130" s="8"/>
-      <c r="J130" s="8"/>
+      <c r="I130" s="9"/>
       <c r="K130" s="8"/>
       <c r="L130" s="8"/>
       <c r="M130" s="8"/>
@@ -4859,15 +5041,16 @@
       <c r="R130" s="8"/>
       <c r="S130" s="8"/>
       <c r="T130" s="8"/>
-    </row>
-    <row r="131" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U130" s="8"/>
+    </row>
+    <row r="131" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
-      <c r="D131" s="4"/>
+      <c r="D131" s="9"/>
       <c r="E131" s="4"/>
-      <c r="G131" s="8"/>
+      <c r="F131" s="4"/>
       <c r="H131" s="8"/>
-      <c r="J131" s="8"/>
+      <c r="I131" s="9"/>
       <c r="K131" s="8"/>
       <c r="L131" s="8"/>
       <c r="M131" s="8"/>
@@ -4878,15 +5061,16 @@
       <c r="R131" s="8"/>
       <c r="S131" s="8"/>
       <c r="T131" s="8"/>
-    </row>
-    <row r="132" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U131" s="8"/>
+    </row>
+    <row r="132" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
-      <c r="D132" s="4"/>
+      <c r="D132" s="9"/>
       <c r="E132" s="4"/>
-      <c r="G132" s="8"/>
+      <c r="F132" s="4"/>
       <c r="H132" s="8"/>
-      <c r="J132" s="8"/>
+      <c r="I132" s="9"/>
       <c r="K132" s="8"/>
       <c r="L132" s="8"/>
       <c r="M132" s="8"/>
@@ -4897,15 +5081,16 @@
       <c r="R132" s="8"/>
       <c r="S132" s="8"/>
       <c r="T132" s="8"/>
-    </row>
-    <row r="133" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U132" s="8"/>
+    </row>
+    <row r="133" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
-      <c r="D133" s="4"/>
+      <c r="D133" s="9"/>
       <c r="E133" s="4"/>
-      <c r="G133" s="8"/>
+      <c r="F133" s="4"/>
       <c r="H133" s="8"/>
-      <c r="J133" s="8"/>
+      <c r="I133" s="9"/>
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
       <c r="M133" s="8"/>
@@ -4916,15 +5101,16 @@
       <c r="R133" s="8"/>
       <c r="S133" s="8"/>
       <c r="T133" s="8"/>
-    </row>
-    <row r="134" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U133" s="8"/>
+    </row>
+    <row r="134" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
-      <c r="D134" s="4"/>
+      <c r="D134" s="9"/>
       <c r="E134" s="4"/>
-      <c r="G134" s="8"/>
+      <c r="F134" s="4"/>
       <c r="H134" s="8"/>
-      <c r="J134" s="8"/>
+      <c r="I134" s="9"/>
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
       <c r="M134" s="8"/>
@@ -4935,15 +5121,16 @@
       <c r="R134" s="8"/>
       <c r="S134" s="8"/>
       <c r="T134" s="8"/>
-    </row>
-    <row r="135" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U134" s="8"/>
+    </row>
+    <row r="135" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
-      <c r="D135" s="4"/>
+      <c r="D135" s="9"/>
       <c r="E135" s="4"/>
-      <c r="G135" s="8"/>
+      <c r="F135" s="4"/>
       <c r="H135" s="8"/>
-      <c r="J135" s="8"/>
+      <c r="I135" s="9"/>
       <c r="K135" s="8"/>
       <c r="L135" s="8"/>
       <c r="M135" s="8"/>
@@ -4954,15 +5141,16 @@
       <c r="R135" s="8"/>
       <c r="S135" s="8"/>
       <c r="T135" s="8"/>
-    </row>
-    <row r="136" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U135" s="8"/>
+    </row>
+    <row r="136" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
-      <c r="D136" s="4"/>
+      <c r="D136" s="9"/>
       <c r="E136" s="4"/>
-      <c r="G136" s="8"/>
+      <c r="F136" s="4"/>
       <c r="H136" s="8"/>
-      <c r="J136" s="8"/>
+      <c r="I136" s="9"/>
       <c r="K136" s="8"/>
       <c r="L136" s="8"/>
       <c r="M136" s="8"/>
@@ -4973,15 +5161,16 @@
       <c r="R136" s="8"/>
       <c r="S136" s="8"/>
       <c r="T136" s="8"/>
-    </row>
-    <row r="137" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U136" s="8"/>
+    </row>
+    <row r="137" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
-      <c r="D137" s="4"/>
+      <c r="D137" s="9"/>
       <c r="E137" s="4"/>
-      <c r="G137" s="8"/>
+      <c r="F137" s="4"/>
       <c r="H137" s="8"/>
-      <c r="J137" s="8"/>
+      <c r="I137" s="9"/>
       <c r="K137" s="8"/>
       <c r="L137" s="8"/>
       <c r="M137" s="8"/>
@@ -4992,15 +5181,16 @@
       <c r="R137" s="8"/>
       <c r="S137" s="8"/>
       <c r="T137" s="8"/>
-    </row>
-    <row r="138" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U137" s="8"/>
+    </row>
+    <row r="138" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
-      <c r="D138" s="4"/>
+      <c r="D138" s="9"/>
       <c r="E138" s="4"/>
-      <c r="G138" s="8"/>
+      <c r="F138" s="4"/>
       <c r="H138" s="8"/>
-      <c r="J138" s="8"/>
+      <c r="I138" s="9"/>
       <c r="K138" s="8"/>
       <c r="L138" s="8"/>
       <c r="M138" s="8"/>
@@ -5011,15 +5201,16 @@
       <c r="R138" s="8"/>
       <c r="S138" s="8"/>
       <c r="T138" s="8"/>
-    </row>
-    <row r="139" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U138" s="8"/>
+    </row>
+    <row r="139" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
-      <c r="D139" s="4"/>
+      <c r="D139" s="9"/>
       <c r="E139" s="4"/>
-      <c r="G139" s="8"/>
+      <c r="F139" s="4"/>
       <c r="H139" s="8"/>
-      <c r="J139" s="8"/>
+      <c r="I139" s="9"/>
       <c r="K139" s="8"/>
       <c r="L139" s="8"/>
       <c r="M139" s="8"/>
@@ -5030,15 +5221,16 @@
       <c r="R139" s="8"/>
       <c r="S139" s="8"/>
       <c r="T139" s="8"/>
-    </row>
-    <row r="140" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U139" s="8"/>
+    </row>
+    <row r="140" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
-      <c r="D140" s="4"/>
+      <c r="D140" s="9"/>
       <c r="E140" s="4"/>
-      <c r="G140" s="8"/>
+      <c r="F140" s="4"/>
       <c r="H140" s="8"/>
-      <c r="J140" s="8"/>
+      <c r="I140" s="9"/>
       <c r="K140" s="8"/>
       <c r="L140" s="8"/>
       <c r="M140" s="8"/>
@@ -5049,15 +5241,16 @@
       <c r="R140" s="8"/>
       <c r="S140" s="8"/>
       <c r="T140" s="8"/>
-    </row>
-    <row r="141" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U140" s="8"/>
+    </row>
+    <row r="141" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
-      <c r="D141" s="4"/>
+      <c r="D141" s="9"/>
       <c r="E141" s="4"/>
-      <c r="G141" s="8"/>
+      <c r="F141" s="4"/>
       <c r="H141" s="8"/>
-      <c r="J141" s="8"/>
+      <c r="I141" s="9"/>
       <c r="K141" s="8"/>
       <c r="L141" s="8"/>
       <c r="M141" s="8"/>
@@ -5068,15 +5261,16 @@
       <c r="R141" s="8"/>
       <c r="S141" s="8"/>
       <c r="T141" s="8"/>
-    </row>
-    <row r="142" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U141" s="8"/>
+    </row>
+    <row r="142" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
-      <c r="D142" s="4"/>
+      <c r="D142" s="9"/>
       <c r="E142" s="4"/>
-      <c r="G142" s="8"/>
+      <c r="F142" s="4"/>
       <c r="H142" s="8"/>
-      <c r="J142" s="8"/>
+      <c r="I142" s="9"/>
       <c r="K142" s="8"/>
       <c r="L142" s="8"/>
       <c r="M142" s="8"/>
@@ -5087,15 +5281,16 @@
       <c r="R142" s="8"/>
       <c r="S142" s="8"/>
       <c r="T142" s="8"/>
-    </row>
-    <row r="143" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U142" s="8"/>
+    </row>
+    <row r="143" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
-      <c r="D143" s="4"/>
+      <c r="D143" s="9"/>
       <c r="E143" s="4"/>
-      <c r="G143" s="8"/>
+      <c r="F143" s="4"/>
       <c r="H143" s="8"/>
-      <c r="J143" s="8"/>
+      <c r="I143" s="9"/>
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
       <c r="M143" s="8"/>
@@ -5106,15 +5301,16 @@
       <c r="R143" s="8"/>
       <c r="S143" s="8"/>
       <c r="T143" s="8"/>
-    </row>
-    <row r="144" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U143" s="8"/>
+    </row>
+    <row r="144" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
-      <c r="D144" s="4"/>
+      <c r="D144" s="9"/>
       <c r="E144" s="4"/>
-      <c r="G144" s="8"/>
+      <c r="F144" s="4"/>
       <c r="H144" s="8"/>
-      <c r="J144" s="8"/>
+      <c r="I144" s="9"/>
       <c r="K144" s="8"/>
       <c r="L144" s="8"/>
       <c r="M144" s="8"/>
@@ -5125,15 +5321,16 @@
       <c r="R144" s="8"/>
       <c r="S144" s="8"/>
       <c r="T144" s="8"/>
-    </row>
-    <row r="145" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U144" s="8"/>
+    </row>
+    <row r="145" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
-      <c r="D145" s="4"/>
+      <c r="D145" s="9"/>
       <c r="E145" s="4"/>
-      <c r="G145" s="8"/>
+      <c r="F145" s="4"/>
       <c r="H145" s="8"/>
-      <c r="J145" s="8"/>
+      <c r="I145" s="9"/>
       <c r="K145" s="8"/>
       <c r="L145" s="8"/>
       <c r="M145" s="8"/>
@@ -5144,15 +5341,16 @@
       <c r="R145" s="8"/>
       <c r="S145" s="8"/>
       <c r="T145" s="8"/>
-    </row>
-    <row r="146" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U145" s="8"/>
+    </row>
+    <row r="146" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
-      <c r="D146" s="4"/>
+      <c r="D146" s="9"/>
       <c r="E146" s="4"/>
-      <c r="G146" s="8"/>
+      <c r="F146" s="4"/>
       <c r="H146" s="8"/>
-      <c r="J146" s="8"/>
+      <c r="I146" s="9"/>
       <c r="K146" s="8"/>
       <c r="L146" s="8"/>
       <c r="M146" s="8"/>
@@ -5163,15 +5361,16 @@
       <c r="R146" s="8"/>
       <c r="S146" s="8"/>
       <c r="T146" s="8"/>
-    </row>
-    <row r="147" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U146" s="8"/>
+    </row>
+    <row r="147" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
-      <c r="D147" s="4"/>
+      <c r="D147" s="9"/>
       <c r="E147" s="4"/>
-      <c r="G147" s="8"/>
+      <c r="F147" s="4"/>
       <c r="H147" s="8"/>
-      <c r="J147" s="8"/>
+      <c r="I147" s="9"/>
       <c r="K147" s="8"/>
       <c r="L147" s="8"/>
       <c r="M147" s="8"/>
@@ -5182,15 +5381,16 @@
       <c r="R147" s="8"/>
       <c r="S147" s="8"/>
       <c r="T147" s="8"/>
-    </row>
-    <row r="148" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U147" s="8"/>
+    </row>
+    <row r="148" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
-      <c r="D148" s="4"/>
+      <c r="D148" s="9"/>
       <c r="E148" s="4"/>
-      <c r="G148" s="8"/>
+      <c r="F148" s="4"/>
       <c r="H148" s="8"/>
-      <c r="J148" s="8"/>
+      <c r="I148" s="9"/>
       <c r="K148" s="8"/>
       <c r="L148" s="8"/>
       <c r="M148" s="8"/>
@@ -5201,15 +5401,16 @@
       <c r="R148" s="8"/>
       <c r="S148" s="8"/>
       <c r="T148" s="8"/>
-    </row>
-    <row r="149" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U148" s="8"/>
+    </row>
+    <row r="149" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
-      <c r="D149" s="4"/>
+      <c r="D149" s="9"/>
       <c r="E149" s="4"/>
-      <c r="G149" s="8"/>
+      <c r="F149" s="4"/>
       <c r="H149" s="8"/>
-      <c r="J149" s="8"/>
+      <c r="I149" s="9"/>
       <c r="K149" s="8"/>
       <c r="L149" s="8"/>
       <c r="M149" s="8"/>
@@ -5220,15 +5421,16 @@
       <c r="R149" s="8"/>
       <c r="S149" s="8"/>
       <c r="T149" s="8"/>
-    </row>
-    <row r="150" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U149" s="8"/>
+    </row>
+    <row r="150" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
-      <c r="D150" s="4"/>
+      <c r="D150" s="9"/>
       <c r="E150" s="4"/>
-      <c r="G150" s="8"/>
+      <c r="F150" s="4"/>
       <c r="H150" s="8"/>
-      <c r="J150" s="8"/>
+      <c r="I150" s="9"/>
       <c r="K150" s="8"/>
       <c r="L150" s="8"/>
       <c r="M150" s="8"/>
@@ -5239,15 +5441,16 @@
       <c r="R150" s="8"/>
       <c r="S150" s="8"/>
       <c r="T150" s="8"/>
-    </row>
-    <row r="151" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U150" s="8"/>
+    </row>
+    <row r="151" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
-      <c r="D151" s="4"/>
+      <c r="D151" s="9"/>
       <c r="E151" s="4"/>
-      <c r="G151" s="8"/>
+      <c r="F151" s="4"/>
       <c r="H151" s="8"/>
-      <c r="J151" s="8"/>
+      <c r="I151" s="9"/>
       <c r="K151" s="8"/>
       <c r="L151" s="8"/>
       <c r="M151" s="8"/>
@@ -5258,15 +5461,16 @@
       <c r="R151" s="8"/>
       <c r="S151" s="8"/>
       <c r="T151" s="8"/>
-    </row>
-    <row r="152" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U151" s="8"/>
+    </row>
+    <row r="152" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
-      <c r="D152" s="4"/>
+      <c r="D152" s="9"/>
       <c r="E152" s="4"/>
-      <c r="G152" s="8"/>
+      <c r="F152" s="4"/>
       <c r="H152" s="8"/>
-      <c r="J152" s="8"/>
+      <c r="I152" s="9"/>
       <c r="K152" s="8"/>
       <c r="L152" s="8"/>
       <c r="M152" s="8"/>
@@ -5277,15 +5481,16 @@
       <c r="R152" s="8"/>
       <c r="S152" s="8"/>
       <c r="T152" s="8"/>
-    </row>
-    <row r="153" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U152" s="8"/>
+    </row>
+    <row r="153" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
-      <c r="D153" s="4"/>
+      <c r="D153" s="9"/>
       <c r="E153" s="4"/>
-      <c r="G153" s="8"/>
+      <c r="F153" s="4"/>
       <c r="H153" s="8"/>
-      <c r="J153" s="8"/>
+      <c r="I153" s="9"/>
       <c r="K153" s="8"/>
       <c r="L153" s="8"/>
       <c r="M153" s="8"/>
@@ -5296,15 +5501,16 @@
       <c r="R153" s="8"/>
       <c r="S153" s="8"/>
       <c r="T153" s="8"/>
-    </row>
-    <row r="154" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U153" s="8"/>
+    </row>
+    <row r="154" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
-      <c r="D154" s="4"/>
+      <c r="D154" s="9"/>
       <c r="E154" s="4"/>
-      <c r="G154" s="8"/>
+      <c r="F154" s="4"/>
       <c r="H154" s="8"/>
-      <c r="J154" s="8"/>
+      <c r="I154" s="9"/>
       <c r="K154" s="8"/>
       <c r="L154" s="8"/>
       <c r="M154" s="8"/>
@@ -5315,15 +5521,16 @@
       <c r="R154" s="8"/>
       <c r="S154" s="8"/>
       <c r="T154" s="8"/>
-    </row>
-    <row r="155" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U154" s="8"/>
+    </row>
+    <row r="155" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
-      <c r="D155" s="4"/>
+      <c r="D155" s="9"/>
       <c r="E155" s="4"/>
-      <c r="G155" s="8"/>
+      <c r="F155" s="4"/>
       <c r="H155" s="8"/>
-      <c r="J155" s="8"/>
+      <c r="I155" s="9"/>
       <c r="K155" s="8"/>
       <c r="L155" s="8"/>
       <c r="M155" s="8"/>
@@ -5334,15 +5541,16 @@
       <c r="R155" s="8"/>
       <c r="S155" s="8"/>
       <c r="T155" s="8"/>
-    </row>
-    <row r="156" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U155" s="8"/>
+    </row>
+    <row r="156" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
-      <c r="D156" s="4"/>
+      <c r="D156" s="9"/>
       <c r="E156" s="4"/>
-      <c r="G156" s="8"/>
+      <c r="F156" s="4"/>
       <c r="H156" s="8"/>
-      <c r="J156" s="8"/>
+      <c r="I156" s="9"/>
       <c r="K156" s="8"/>
       <c r="L156" s="8"/>
       <c r="M156" s="8"/>
@@ -5353,15 +5561,16 @@
       <c r="R156" s="8"/>
       <c r="S156" s="8"/>
       <c r="T156" s="8"/>
-    </row>
-    <row r="157" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U156" s="8"/>
+    </row>
+    <row r="157" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
-      <c r="D157" s="4"/>
+      <c r="D157" s="9"/>
       <c r="E157" s="4"/>
-      <c r="G157" s="8"/>
+      <c r="F157" s="4"/>
       <c r="H157" s="8"/>
-      <c r="J157" s="8"/>
+      <c r="I157" s="9"/>
       <c r="K157" s="8"/>
       <c r="L157" s="8"/>
       <c r="M157" s="8"/>
@@ -5372,15 +5581,16 @@
       <c r="R157" s="8"/>
       <c r="S157" s="8"/>
       <c r="T157" s="8"/>
-    </row>
-    <row r="158" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U157" s="8"/>
+    </row>
+    <row r="158" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
-      <c r="D158" s="4"/>
+      <c r="D158" s="9"/>
       <c r="E158" s="4"/>
-      <c r="G158" s="8"/>
+      <c r="F158" s="4"/>
       <c r="H158" s="8"/>
-      <c r="J158" s="8"/>
+      <c r="I158" s="9"/>
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
       <c r="M158" s="8"/>
@@ -5391,15 +5601,16 @@
       <c r="R158" s="8"/>
       <c r="S158" s="8"/>
       <c r="T158" s="8"/>
-    </row>
-    <row r="159" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U158" s="8"/>
+    </row>
+    <row r="159" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
-      <c r="D159" s="4"/>
+      <c r="D159" s="9"/>
       <c r="E159" s="4"/>
-      <c r="G159" s="8"/>
+      <c r="F159" s="4"/>
       <c r="H159" s="8"/>
-      <c r="J159" s="8"/>
+      <c r="I159" s="9"/>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
       <c r="M159" s="8"/>
@@ -5410,372 +5621,454 @@
       <c r="R159" s="8"/>
       <c r="S159" s="8"/>
       <c r="T159" s="8"/>
-    </row>
-    <row r="160" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U159" s="8"/>
+    </row>
+    <row r="160" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
-      <c r="D160" s="4"/>
+      <c r="D160" s="9"/>
       <c r="E160" s="4"/>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F160" s="4"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="9"/>
+      <c r="K160" s="8"/>
+      <c r="L160" s="8"/>
+      <c r="M160" s="8"/>
+      <c r="N160" s="8"/>
+      <c r="O160" s="8"/>
+      <c r="P160" s="8"/>
+      <c r="Q160" s="8"/>
+      <c r="R160" s="8"/>
+      <c r="S160" s="8"/>
+      <c r="T160" s="8"/>
+      <c r="U160" s="8"/>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
-      <c r="D161" s="4"/>
+      <c r="D161" s="9"/>
       <c r="E161" s="4"/>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F161" s="4"/>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
-      <c r="D162" s="4"/>
+      <c r="D162" s="9"/>
       <c r="E162" s="4"/>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F162" s="4"/>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
-      <c r="D163" s="4"/>
+      <c r="D163" s="9"/>
       <c r="E163" s="4"/>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F163" s="4"/>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
-      <c r="D164" s="4"/>
+      <c r="D164" s="9"/>
       <c r="E164" s="4"/>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F164" s="4"/>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
-      <c r="D165" s="4"/>
+      <c r="D165" s="9"/>
       <c r="E165" s="4"/>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F165" s="4"/>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
-      <c r="D166" s="4"/>
+      <c r="D166" s="9"/>
       <c r="E166" s="4"/>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F166" s="4"/>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
-      <c r="D167" s="4"/>
+      <c r="D167" s="9"/>
       <c r="E167" s="4"/>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F167" s="4"/>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
-      <c r="D168" s="4"/>
+      <c r="D168" s="9"/>
       <c r="E168" s="4"/>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F168" s="4"/>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
-      <c r="D169" s="4"/>
+      <c r="D169" s="9"/>
       <c r="E169" s="4"/>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F169" s="4"/>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
-      <c r="D170" s="4"/>
+      <c r="D170" s="9"/>
       <c r="E170" s="4"/>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F170" s="4"/>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
-      <c r="D171" s="4"/>
+      <c r="D171" s="9"/>
       <c r="E171" s="4"/>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F171" s="4"/>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
-      <c r="D172" s="4"/>
+      <c r="D172" s="9"/>
       <c r="E172" s="4"/>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F172" s="4"/>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
-      <c r="D173" s="4"/>
+      <c r="D173" s="9"/>
       <c r="E173" s="4"/>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F173" s="4"/>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
-      <c r="D174" s="4"/>
+      <c r="D174" s="9"/>
       <c r="E174" s="4"/>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F174" s="4"/>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
-      <c r="D175" s="4"/>
+      <c r="D175" s="9"/>
       <c r="E175" s="4"/>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F175" s="4"/>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
-      <c r="D176" s="4"/>
+      <c r="D176" s="9"/>
       <c r="E176" s="4"/>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F176" s="4"/>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
-      <c r="D177" s="4"/>
+      <c r="D177" s="9"/>
       <c r="E177" s="4"/>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F177" s="4"/>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
-      <c r="D178" s="4"/>
+      <c r="D178" s="9"/>
       <c r="E178" s="4"/>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F178" s="4"/>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
-      <c r="D179" s="4"/>
+      <c r="D179" s="9"/>
       <c r="E179" s="4"/>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F179" s="4"/>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
-      <c r="D180" s="4"/>
+      <c r="D180" s="9"/>
       <c r="E180" s="4"/>
-    </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F180" s="4"/>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
-      <c r="D181" s="4"/>
+      <c r="D181" s="9"/>
       <c r="E181" s="4"/>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F181" s="4"/>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
-      <c r="D182" s="4"/>
+      <c r="D182" s="9"/>
       <c r="E182" s="4"/>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F182" s="4"/>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
-      <c r="D183" s="4"/>
+      <c r="D183" s="9"/>
       <c r="E183" s="4"/>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F183" s="4"/>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
-      <c r="D184" s="4"/>
+      <c r="D184" s="9"/>
       <c r="E184" s="4"/>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F184" s="4"/>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
-      <c r="D185" s="4"/>
+      <c r="D185" s="9"/>
       <c r="E185" s="4"/>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F185" s="4"/>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
-      <c r="D186" s="4"/>
+      <c r="D186" s="9"/>
       <c r="E186" s="4"/>
-    </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F186" s="4"/>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
-      <c r="D187" s="4"/>
+      <c r="D187" s="9"/>
       <c r="E187" s="4"/>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F187" s="4"/>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
-      <c r="D188" s="4"/>
+      <c r="D188" s="9"/>
       <c r="E188" s="4"/>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F188" s="4"/>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
-      <c r="D189" s="4"/>
+      <c r="D189" s="9"/>
       <c r="E189" s="4"/>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F189" s="4"/>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
-      <c r="D190" s="4"/>
+      <c r="D190" s="9"/>
       <c r="E190" s="4"/>
-    </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F190" s="4"/>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
-      <c r="D191" s="4"/>
+      <c r="D191" s="9"/>
       <c r="E191" s="4"/>
-    </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F191" s="4"/>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
-      <c r="D192" s="4"/>
+      <c r="D192" s="9"/>
       <c r="E192" s="4"/>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F192" s="4"/>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
-      <c r="D193" s="4"/>
+      <c r="D193" s="9"/>
       <c r="E193" s="4"/>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F193" s="4"/>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
-      <c r="D194" s="4"/>
+      <c r="D194" s="9"/>
       <c r="E194" s="4"/>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F194" s="4"/>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
-      <c r="D195" s="4"/>
+      <c r="D195" s="9"/>
       <c r="E195" s="4"/>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F195" s="4"/>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
-      <c r="D196" s="4"/>
+      <c r="D196" s="9"/>
       <c r="E196" s="4"/>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F196" s="4"/>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
-      <c r="D197" s="4"/>
+      <c r="D197" s="9"/>
       <c r="E197" s="4"/>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F197" s="4"/>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
-      <c r="D198" s="4"/>
+      <c r="D198" s="9"/>
       <c r="E198" s="4"/>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F198" s="4"/>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
-      <c r="D199" s="4"/>
+      <c r="D199" s="9"/>
       <c r="E199" s="4"/>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F199" s="4"/>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
-      <c r="D200" s="4"/>
+      <c r="D200" s="9"/>
       <c r="E200" s="4"/>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F200" s="4"/>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
-      <c r="D201" s="4"/>
+      <c r="D201" s="9"/>
       <c r="E201" s="4"/>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F201" s="4"/>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
-      <c r="D202" s="4"/>
+      <c r="D202" s="9"/>
       <c r="E202" s="4"/>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F202" s="4"/>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
-      <c r="D203" s="4"/>
+      <c r="D203" s="9"/>
       <c r="E203" s="4"/>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F203" s="4"/>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
-      <c r="D204" s="4"/>
+      <c r="D204" s="9"/>
       <c r="E204" s="4"/>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F204" s="4"/>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
-      <c r="D205" s="4"/>
+      <c r="D205" s="9"/>
       <c r="E205" s="4"/>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F205" s="4"/>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
-      <c r="D206" s="4"/>
+      <c r="D206" s="9"/>
       <c r="E206" s="4"/>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F206" s="4"/>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
-      <c r="D207" s="4"/>
+      <c r="D207" s="9"/>
       <c r="E207" s="4"/>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F207" s="4"/>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
-      <c r="D208" s="4"/>
+      <c r="D208" s="9"/>
       <c r="E208" s="4"/>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F208" s="4"/>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
-      <c r="D209" s="4"/>
+      <c r="D209" s="9"/>
       <c r="E209" s="4"/>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F209" s="4"/>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
-      <c r="D210" s="4"/>
+      <c r="D210" s="9"/>
       <c r="E210" s="4"/>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F210" s="4"/>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
-      <c r="D211" s="4"/>
+      <c r="D211" s="9"/>
       <c r="E211" s="4"/>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F211" s="4"/>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
-      <c r="D212" s="4"/>
+      <c r="D212" s="9"/>
       <c r="E212" s="4"/>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F212" s="4"/>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
-      <c r="D213" s="4"/>
+      <c r="D213" s="9"/>
       <c r="E213" s="4"/>
-    </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F213" s="4"/>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
-      <c r="D214" s="4"/>
+      <c r="D214" s="9"/>
       <c r="E214" s="4"/>
-    </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F214" s="4"/>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
-      <c r="D215" s="4"/>
+      <c r="D215" s="9"/>
       <c r="E215" s="4"/>
-    </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F215" s="4"/>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
-      <c r="D216" s="4"/>
+      <c r="D216" s="9"/>
       <c r="E216" s="4"/>
-    </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F216" s="4"/>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
-      <c r="D217" s="4"/>
+      <c r="D217" s="9"/>
       <c r="E217" s="4"/>
-    </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F217" s="4"/>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
-      <c r="D218" s="4"/>
+      <c r="D218" s="9"/>
       <c r="E218" s="4"/>
-    </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F218" s="4"/>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
-      <c r="D219" s="4"/>
+      <c r="D219" s="9"/>
       <c r="E219" s="4"/>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F219" s="4"/>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
-      <c r="D220" s="4"/>
+      <c r="D220" s="9"/>
       <c r="E220" s="4"/>
+      <c r="F220" s="4"/>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B221" s="8"/>
+      <c r="C221" s="8"/>
+      <c r="D221" s="9"/>
+      <c r="E221" s="4"/>
+      <c r="F221" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -210,13 +210,19 @@
     <t>Поколение</t>
   </si>
   <si>
-    <t>МультиТрендер-1</t>
-  </si>
-  <si>
-    <t>Торговля по тренду разных таймфремов</t>
-  </si>
-  <si>
     <t>Абстракт-1</t>
+  </si>
+  <si>
+    <t>ПрофитныйТрейдер-1</t>
+  </si>
+  <si>
+    <t>Торговля по лимитам разных таймфремов с применением полос Боллинджера</t>
+  </si>
+  <si>
+    <t>Тест</t>
+  </si>
+  <si>
+    <t>Действует</t>
   </si>
 </sst>
 </file>
@@ -273,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -316,6 +322,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2108,7 +2117,7 @@
   <dimension ref="A1:U221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2127,7 +2136,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45497.62455763889</v>
+        <v>45499.781634490741</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2167,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2341,7 +2350,7 @@
         <v>45480</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" ref="G7:G13" si="0">ROUND(IF(F7,F7-E7,$F$1-E7),0)</f>
+        <f t="shared" ref="G7:G14" si="0">ROUND(IF(F7,F7-E7,$F$1-E7),0)</f>
         <v>23</v>
       </c>
       <c r="H7" s="11" t="s">
@@ -2600,9 +2609,11 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H13" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>68</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="14"/>
       <c r="K13" s="8"/>
@@ -2617,22 +2628,30 @@
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
     </row>
-    <row r="14" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" s="8">
         <v>4.5</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="E14" s="10">
+        <v>45499</v>
+      </c>
       <c r="F14" s="4"/>
-      <c r="H14" s="8"/>
+      <c r="G14" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="I14" s="9"/>
       <c r="J14" s="14"/>
       <c r="K14" s="8"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -223,6 +223,15 @@
   </si>
   <si>
     <t>Действует</t>
+  </si>
+  <si>
+    <t>Редкие сделки, небольшая прибыль. Пропуск основных движений. Но в целом бот работает в плюс</t>
+  </si>
+  <si>
+    <t>УспешныйТрейдер-1</t>
+  </si>
+  <si>
+    <t>Торговля по последнему контексту с учетом зон продаж</t>
   </si>
 </sst>
 </file>
@@ -2117,7 +2126,7 @@
   <dimension ref="A1:U221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2136,7 +2145,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45499.781634490741</v>
+        <v>45505.640597569443</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2350,7 +2359,7 @@
         <v>45480</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" ref="G7:G14" si="0">ROUND(IF(F7,F7-E7,$F$1-E7),0)</f>
+        <f t="shared" ref="G7:G15" si="0">ROUND(IF(F7,F7-E7,$F$1-E7),0)</f>
         <v>23</v>
       </c>
       <c r="H7" s="11" t="s">
@@ -2609,7 +2618,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>68</v>
@@ -2647,13 +2656,17 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="14"/>
+      <c r="I14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="14">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
@@ -2666,16 +2679,30 @@
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="8">
+        <v>5</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="10">
+        <v>45505</v>
+      </c>
       <c r="F15" s="4"/>
-      <c r="H15" s="8"/>
+      <c r="G15" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="I15" s="9"/>
       <c r="J15" s="14"/>
       <c r="K15" s="8"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -232,6 +232,15 @@
   </si>
   <si>
     <t>Торговля по последнему контексту с учетом зон продаж</t>
+  </si>
+  <si>
+    <t>ПрофитныйУспешныйТрейдер-1</t>
+  </si>
+  <si>
+    <t>УспешныйТрейдер-2</t>
+  </si>
+  <si>
+    <t>Разработка</t>
   </si>
 </sst>
 </file>
@@ -2125,13 +2134,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" style="15" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="3" customWidth="1"/>
@@ -2145,7 +2154,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45505.640597569443</v>
+        <v>45508.03648263889</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2618,7 +2627,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>68</v>
@@ -2656,7 +2665,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>67</v>
@@ -2698,7 +2707,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>67</v>
@@ -2721,12 +2730,18 @@
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="8">
+        <v>5</v>
+      </c>
       <c r="D16" s="9"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="I16" s="9"/>
       <c r="J16" s="14"/>
       <c r="K16" s="8"/>
@@ -2745,12 +2760,18 @@
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="8">
+        <v>5</v>
+      </c>
       <c r="D17" s="9"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="I17" s="9"/>
       <c r="J17" s="14"/>
       <c r="K17" s="8"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -241,6 +241,15 @@
   </si>
   <si>
     <t>Разработка</t>
+  </si>
+  <si>
+    <t>УспешныйТрейдер-3</t>
+  </si>
+  <si>
+    <t>Идея ST1 + ProSveT</t>
+  </si>
+  <si>
+    <t>Идея ST1 с фиксом некоторых проблем и двойным боллинджером</t>
   </si>
 </sst>
 </file>
@@ -2135,7 +2144,7 @@
   <dimension ref="A1:U221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2154,7 +2163,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45508.03648263889</v>
+        <v>45509.123768634257</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2368,7 +2377,7 @@
         <v>45480</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" ref="G7:G15" si="0">ROUND(IF(F7,F7-E7,$F$1-E7),0)</f>
+        <f t="shared" ref="G7:G18" si="0">ROUND(IF(F7,F7-E7,$F$1-E7),0)</f>
         <v>23</v>
       </c>
       <c r="H7" s="11" t="s">
@@ -2627,7 +2636,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>68</v>
@@ -2665,7 +2674,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>67</v>
@@ -2707,7 +2716,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>67</v>
@@ -2739,6 +2748,10 @@
       <c r="D16" s="9"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
+      <c r="G16" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45509</v>
+      </c>
       <c r="H16" s="8" t="s">
         <v>74</v>
       </c>
@@ -2766,9 +2779,15 @@
       <c r="C17" s="8">
         <v>5</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
+      <c r="G17" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45509</v>
+      </c>
       <c r="H17" s="8" t="s">
         <v>74</v>
       </c>
@@ -2786,16 +2805,30 @@
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="4"/>
+      <c r="B18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="8">
+        <v>5</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="10">
+        <v>45509</v>
+      </c>
       <c r="F18" s="4"/>
-      <c r="H18" s="8"/>
+      <c r="G18" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="I18" s="9"/>
       <c r="J18" s="14"/>
       <c r="K18" s="8"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -10,13 +10,14 @@
     <sheet name="План" sheetId="1" r:id="rId1"/>
     <sheet name="Таск" sheetId="2" r:id="rId2"/>
     <sheet name="Боты" sheetId="3" r:id="rId3"/>
+    <sheet name="Поколения" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="97">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -250,6 +251,63 @@
   </si>
   <si>
     <t>Идея ST1 с фиксом некоторых проблем и двойным боллинджером</t>
+  </si>
+  <si>
+    <t>ПрофитныйТрейдер-2</t>
+  </si>
+  <si>
+    <t>УспешныйТрейдер-4</t>
+  </si>
+  <si>
+    <t>УспешныйТрейдер-1а</t>
+  </si>
+  <si>
+    <t>УспешныйТрейдер-3а</t>
+  </si>
+  <si>
+    <t>Попытка добавить торговлю боковика</t>
+  </si>
+  <si>
+    <t>Модификая ST1</t>
+  </si>
+  <si>
+    <t>Модификая ST3</t>
+  </si>
+  <si>
+    <t>Идеи ST3 + Торговля боковика по зонам ProSveT. Облегченный вход и выход из сделки с помощью локов</t>
+  </si>
+  <si>
+    <t>Отстутвие стопа</t>
+  </si>
+  <si>
+    <t>Работает хуже чем ST1</t>
+  </si>
+  <si>
+    <t>Поздний вход, сложный выход</t>
+  </si>
+  <si>
+    <t>Конфликтная работа</t>
+  </si>
+  <si>
+    <t>Остутсвие стопа</t>
+  </si>
+  <si>
+    <t>Работал только по стакану</t>
+  </si>
+  <si>
+    <t>Работал с графиком, но только с относительным положением по y. Без поиска баров</t>
+  </si>
+  <si>
+    <t>Работа с графиком, но только с точками, без их обработки</t>
+  </si>
+  <si>
+    <t>Работа с точками, но с обработкой с помощбю линейной регрессии</t>
+  </si>
+  <si>
+    <t>Работа по барам с помощью линейной регрессии</t>
+  </si>
+  <si>
+    <t>Использование баров</t>
   </si>
 </sst>
 </file>
@@ -2143,8 +2201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,7 +2221,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45509.123768634257</v>
+        <v>45510.773454861112</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2377,7 +2435,7 @@
         <v>45480</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" ref="G7:G18" si="0">ROUND(IF(F7,F7-E7,$F$1-E7),0)</f>
+        <f t="shared" ref="G7:G22" si="0">ROUND(IF(F7,F7-E7,$F$1-E7),0)</f>
         <v>23</v>
       </c>
       <c r="H7" s="11" t="s">
@@ -2636,7 +2694,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>68</v>
@@ -2671,13 +2729,15 @@
       <c r="E14" s="10">
         <v>45499</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="10">
+        <v>45510</v>
+      </c>
       <c r="G14" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>69</v>
@@ -2713,16 +2773,22 @@
       <c r="E15" s="10">
         <v>45505</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="10">
+        <v>45510</v>
+      </c>
       <c r="G15" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="14"/>
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="14">
+        <v>5</v>
+      </c>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
@@ -2746,11 +2812,11 @@
         <v>5</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45509</v>
+        <v>45511</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>74</v>
@@ -2782,17 +2848,25 @@
       <c r="D17" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="E17" s="10">
+        <v>45508</v>
+      </c>
+      <c r="F17" s="10">
+        <v>45510</v>
+      </c>
       <c r="G17" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>45509</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="14"/>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="14">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
@@ -2821,16 +2895,22 @@
       <c r="E18" s="10">
         <v>45509</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="10">
+        <v>45510</v>
+      </c>
       <c r="G18" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="14"/>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="14">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -2843,18 +2923,38 @@
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="14"/>
+      <c r="B19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="8">
+        <v>5</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="10">
+        <v>45509</v>
+      </c>
+      <c r="F19" s="10">
+        <v>45510</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="14">
+        <v>4.2</v>
+      </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -2871,14 +2971,34 @@
       <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="14"/>
+      <c r="B20" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="8">
+        <v>5</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="10">
+        <v>45509</v>
+      </c>
+      <c r="F20" s="10">
+        <v>45510</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="14">
+        <v>4.8</v>
+      </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -2895,14 +3015,34 @@
       <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="14"/>
+      <c r="B21" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="8">
+        <v>5</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="10">
+        <v>45509</v>
+      </c>
+      <c r="F21" s="10">
+        <v>45510</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="14">
+        <v>4.8</v>
+      </c>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
@@ -2915,16 +3055,30 @@
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="4"/>
+      <c r="B22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="8">
+        <v>5</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="10">
+        <v>45510</v>
+      </c>
       <c r="F22" s="4"/>
-      <c r="H22" s="8"/>
+      <c r="G22" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="14"/>
       <c r="K22" s="8"/>
@@ -6173,4 +6327,70 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4.5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="99">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -308,6 +308,12 @@
   </si>
   <si>
     <t>Использование баров</t>
+  </si>
+  <si>
+    <t>ОдинХорошийТрейдер-1</t>
+  </si>
+  <si>
+    <t>Торговля по VSA</t>
   </si>
 </sst>
 </file>
@@ -2202,7 +2208,7 @@
   <dimension ref="A1:U221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2221,7 +2227,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45510.773454861112</v>
+        <v>45513.501745601854</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2435,7 +2441,7 @@
         <v>45480</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" ref="G7:G22" si="0">ROUND(IF(F7,F7-E7,$F$1-E7),0)</f>
+        <f t="shared" ref="G7:G23" si="0">ROUND(IF(F7,F7-E7,$F$1-E7),0)</f>
         <v>23</v>
       </c>
       <c r="H7" s="11" t="s">
@@ -2694,7 +2700,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>68</v>
@@ -2816,7 +2822,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>74</v>
@@ -3074,7 +3080,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>67</v>
@@ -3097,12 +3103,26 @@
       <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="4"/>
+      <c r="B23" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="8">
+        <v>5</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="10">
+        <v>45513</v>
+      </c>
       <c r="F23" s="4"/>
-      <c r="H23" s="8"/>
+      <c r="G23" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="14"/>
       <c r="K23" s="8"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -220,9 +220,6 @@
     <t>Торговля по лимитам разных таймфремов с применением полос Боллинджера</t>
   </si>
   <si>
-    <t>Тест</t>
-  </si>
-  <si>
     <t>Действует</t>
   </si>
   <si>
@@ -314,6 +311,24 @@
   </si>
   <si>
     <t>Торговля по VSA</t>
+  </si>
+  <si>
+    <t>ПрофитныйТрейдер-3</t>
+  </si>
+  <si>
+    <t>УспешныйТрейдер-5</t>
+  </si>
+  <si>
+    <t>Торговля по спред каналу</t>
+  </si>
+  <si>
+    <t>Добработка PT2</t>
+  </si>
+  <si>
+    <t>Торговля по ProSvet</t>
+  </si>
+  <si>
+    <t>Сложность системы, позние входы, поздние выходы</t>
   </si>
 </sst>
 </file>
@@ -2208,7 +2223,7 @@
   <dimension ref="A1:U221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2227,7 +2242,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45513.501745601854</v>
+        <v>45514.818115277776</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2441,7 +2456,7 @@
         <v>45480</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" ref="G7:G23" si="0">ROUND(IF(F7,F7-E7,$F$1-E7),0)</f>
+        <f t="shared" ref="G7:G25" si="0">ROUND(IF(F7,F7-E7,$F$1-E7),0)</f>
         <v>23</v>
       </c>
       <c r="H7" s="11" t="s">
@@ -2700,10 +2715,10 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="14"/>
@@ -2746,7 +2761,7 @@
         <v>30</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J14" s="14">
         <v>5.0999999999999996</v>
@@ -2768,13 +2783,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="8">
         <v>5</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="10">
         <v>45505</v>
@@ -2790,7 +2805,7 @@
         <v>30</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J15" s="14">
         <v>5</v>
@@ -2812,20 +2827,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="8">
         <v>5</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="E16" s="10"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
+        <v>45515</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="14"/>
@@ -2846,13 +2863,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="8">
         <v>5</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="10">
         <v>45508</v>
@@ -2868,7 +2885,7 @@
         <v>30</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J17" s="14">
         <v>4.4000000000000004</v>
@@ -2890,13 +2907,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="8">
         <v>5</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="10">
         <v>45509</v>
@@ -2912,7 +2929,7 @@
         <v>30</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J18" s="14">
         <v>4.9000000000000004</v>
@@ -2934,13 +2951,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="8">
         <v>5</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" s="10">
         <v>45509</v>
@@ -2956,7 +2973,7 @@
         <v>30</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J19" s="14">
         <v>4.2</v>
@@ -2978,13 +2995,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="8">
         <v>5</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" s="10">
         <v>45509</v>
@@ -3000,7 +3017,7 @@
         <v>30</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J20" s="14">
         <v>4.8</v>
@@ -3022,13 +3039,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="8">
         <v>5</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="10">
         <v>45509</v>
@@ -3044,7 +3061,7 @@
         <v>30</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J21" s="14">
         <v>4.8</v>
@@ -3066,13 +3083,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="8">
         <v>5</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="10">
         <v>45510</v>
@@ -3080,13 +3097,17 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J22" s="14">
+        <v>5</v>
+      </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
@@ -3104,13 +3125,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="8">
         <v>5</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E23" s="10">
         <v>45513</v>
@@ -3118,10 +3139,10 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="14"/>
@@ -3141,12 +3162,26 @@
       <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="4"/>
+      <c r="B24" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="8">
+        <v>5</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="10">
+        <v>45514</v>
+      </c>
       <c r="F24" s="4"/>
-      <c r="H24" s="8"/>
+      <c r="G24" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="14"/>
       <c r="K24" s="8"/>
@@ -3165,12 +3200,26 @@
       <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="4"/>
+      <c r="B25" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="8">
+        <v>5</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="10">
+        <v>45514</v>
+      </c>
       <c r="F25" s="4"/>
-      <c r="H25" s="8"/>
+      <c r="G25" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="14"/>
       <c r="K25" s="8"/>
@@ -6367,7 +6416,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6375,7 +6424,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6383,7 +6432,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6391,7 +6440,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6399,7 +6448,7 @@
         <v>4.5</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6407,7 +6456,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="108">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -329,6 +329,18 @@
   </si>
   <si>
     <t>Сложность системы, позние входы, поздние выходы</t>
+  </si>
+  <si>
+    <t>УспешныйТрейдер-6</t>
+  </si>
+  <si>
+    <t>УспешныйТрейдер-7</t>
+  </si>
+  <si>
+    <t>АнтиСтоп по волатильности</t>
+  </si>
+  <si>
+    <t>Торговля по боллинджеру со стопом</t>
   </si>
 </sst>
 </file>
@@ -2222,8 +2234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2242,7 +2254,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45514.818115277776</v>
+        <v>45515.020050810184</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2456,7 +2468,7 @@
         <v>45480</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" ref="G7:G25" si="0">ROUND(IF(F7,F7-E7,$F$1-E7),0)</f>
+        <f t="shared" ref="G7:G27" si="0">ROUND(IF(F7,F7-E7,$F$1-E7),0)</f>
         <v>23</v>
       </c>
       <c r="H7" s="11" t="s">
@@ -3238,12 +3250,26 @@
       <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="4"/>
+      <c r="B26" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="8">
+        <v>5</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="10">
+        <v>45514</v>
+      </c>
       <c r="F26" s="4"/>
-      <c r="H26" s="8"/>
+      <c r="G26" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="14"/>
       <c r="K26" s="8"/>
@@ -3258,16 +3284,30 @@
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="4"/>
+      <c r="B27" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="8">
+        <v>5</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="10">
+        <v>45515</v>
+      </c>
       <c r="F27" s="4"/>
-      <c r="H27" s="8"/>
+      <c r="G27" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="14"/>
       <c r="K27" s="8"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="112">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -341,6 +341,18 @@
   </si>
   <si>
     <t>Торговля по боллинджеру со стопом</t>
+  </si>
+  <si>
+    <t>УспешныйТрейдер-8</t>
+  </si>
+  <si>
+    <t>УспешныйТрейдер-9</t>
+  </si>
+  <si>
+    <t>Идея ST1 со стопами</t>
+  </si>
+  <si>
+    <t>КонтрИмпульс</t>
   </si>
 </sst>
 </file>
@@ -2234,8 +2246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,7 +2266,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45515.020050810184</v>
+        <v>45515.74150034722</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2727,7 +2739,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>67</v>
@@ -2847,11 +2859,13 @@
       <c r="D16" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="10">
+        <v>45515</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45515</v>
+        <v>1</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>73</v>
@@ -3109,7 +3123,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>30</v>
@@ -3151,7 +3165,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>73</v>
@@ -3189,7 +3203,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>73</v>
@@ -3227,7 +3241,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>73</v>
@@ -3265,7 +3279,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>73</v>
@@ -3303,7 +3317,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>73</v>
@@ -3326,12 +3340,25 @@
       <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="4"/>
+      <c r="B28" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="8">
+        <v>5</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="10">
+        <v>45515</v>
+      </c>
       <c r="F28" s="4"/>
-      <c r="H28" s="8"/>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="14"/>
       <c r="K28" s="8"/>
@@ -3350,12 +3377,25 @@
       <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="4"/>
+      <c r="B29" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="8">
+        <v>5</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="10">
+        <v>45515</v>
+      </c>
       <c r="F29" s="4"/>
-      <c r="H29" s="8"/>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="I29" s="9"/>
       <c r="J29" s="14"/>
       <c r="K29" s="8"/>
@@ -3467,6 +3507,9 @@
       <c r="U33" s="8"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
@@ -3487,6 +3530,9 @@
       <c r="U34" s="8"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
@@ -3507,6 +3553,9 @@
       <c r="U35" s="8"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
@@ -3527,6 +3576,9 @@
       <c r="U36" s="8"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
@@ -3547,6 +3599,9 @@
       <c r="U37" s="8"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
@@ -3567,6 +3622,9 @@
       <c r="U38" s="8"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
@@ -3587,6 +3645,9 @@
       <c r="U39" s="8"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
@@ -3607,6 +3668,9 @@
       <c r="U40" s="8"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
@@ -3627,6 +3691,9 @@
       <c r="U41" s="8"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
@@ -3647,6 +3714,9 @@
       <c r="U42" s="8"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
@@ -3667,6 +3737,9 @@
       <c r="U43" s="8"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
@@ -3687,6 +3760,9 @@
       <c r="U44" s="8"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
@@ -3707,6 +3783,9 @@
       <c r="U45" s="8"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
@@ -3727,6 +3806,9 @@
       <c r="U46" s="8"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
@@ -3747,6 +3829,9 @@
       <c r="U47" s="8"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="9"/>
@@ -3766,7 +3851,10 @@
       <c r="T48" s="8"/>
       <c r="U48" s="8"/>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
@@ -3786,7 +3874,10 @@
       <c r="T49" s="8"/>
       <c r="U49" s="8"/>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>48</v>
+      </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="9"/>
@@ -3806,7 +3897,10 @@
       <c r="T50" s="8"/>
       <c r="U50" s="8"/>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>49</v>
+      </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
@@ -3826,7 +3920,10 @@
       <c r="T51" s="8"/>
       <c r="U51" s="8"/>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>50</v>
+      </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="9"/>
@@ -3846,7 +3943,10 @@
       <c r="T52" s="8"/>
       <c r="U52" s="8"/>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>51</v>
+      </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="9"/>
@@ -3866,7 +3966,10 @@
       <c r="T53" s="8"/>
       <c r="U53" s="8"/>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>52</v>
+      </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="9"/>
@@ -3886,7 +3989,10 @@
       <c r="T54" s="8"/>
       <c r="U54" s="8"/>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>53</v>
+      </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="9"/>
@@ -3906,7 +4012,10 @@
       <c r="T55" s="8"/>
       <c r="U55" s="8"/>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>54</v>
+      </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
@@ -3926,7 +4035,10 @@
       <c r="T56" s="8"/>
       <c r="U56" s="8"/>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>55</v>
+      </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="9"/>
@@ -3946,7 +4058,10 @@
       <c r="T57" s="8"/>
       <c r="U57" s="8"/>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>56</v>
+      </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="9"/>
@@ -3966,7 +4081,10 @@
       <c r="T58" s="8"/>
       <c r="U58" s="8"/>
     </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>57</v>
+      </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="9"/>
@@ -3986,7 +4104,10 @@
       <c r="T59" s="8"/>
       <c r="U59" s="8"/>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>58</v>
+      </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
@@ -4006,7 +4127,10 @@
       <c r="T60" s="8"/>
       <c r="U60" s="8"/>
     </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>59</v>
+      </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="9"/>
@@ -4026,7 +4150,10 @@
       <c r="T61" s="8"/>
       <c r="U61" s="8"/>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>60</v>
+      </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="9"/>
@@ -4046,7 +4173,10 @@
       <c r="T62" s="8"/>
       <c r="U62" s="8"/>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>61</v>
+      </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="9"/>
@@ -4066,7 +4196,10 @@
       <c r="T63" s="8"/>
       <c r="U63" s="8"/>
     </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>62</v>
+      </c>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
@@ -4086,7 +4219,10 @@
       <c r="T64" s="8"/>
       <c r="U64" s="8"/>
     </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>63</v>
+      </c>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="9"/>
@@ -4106,7 +4242,10 @@
       <c r="T65" s="8"/>
       <c r="U65" s="8"/>
     </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>64</v>
+      </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="9"/>
@@ -4126,7 +4265,10 @@
       <c r="T66" s="8"/>
       <c r="U66" s="8"/>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>65</v>
+      </c>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="9"/>
@@ -4146,7 +4288,10 @@
       <c r="T67" s="8"/>
       <c r="U67" s="8"/>
     </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>66</v>
+      </c>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="9"/>
@@ -4166,7 +4311,10 @@
       <c r="T68" s="8"/>
       <c r="U68" s="8"/>
     </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>67</v>
+      </c>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="9"/>
@@ -4186,7 +4334,10 @@
       <c r="T69" s="8"/>
       <c r="U69" s="8"/>
     </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>68</v>
+      </c>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="9"/>
@@ -4206,7 +4357,10 @@
       <c r="T70" s="8"/>
       <c r="U70" s="8"/>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>69</v>
+      </c>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="9"/>
@@ -4226,7 +4380,10 @@
       <c r="T71" s="8"/>
       <c r="U71" s="8"/>
     </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>70</v>
+      </c>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="9"/>
@@ -4246,7 +4403,10 @@
       <c r="T72" s="8"/>
       <c r="U72" s="8"/>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>71</v>
+      </c>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="9"/>
@@ -4266,7 +4426,10 @@
       <c r="T73" s="8"/>
       <c r="U73" s="8"/>
     </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>72</v>
+      </c>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="9"/>
@@ -4286,7 +4449,10 @@
       <c r="T74" s="8"/>
       <c r="U74" s="8"/>
     </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>73</v>
+      </c>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="9"/>
@@ -4306,7 +4472,10 @@
       <c r="T75" s="8"/>
       <c r="U75" s="8"/>
     </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>74</v>
+      </c>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="9"/>
@@ -4326,7 +4495,10 @@
       <c r="T76" s="8"/>
       <c r="U76" s="8"/>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>75</v>
+      </c>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="9"/>
@@ -4346,7 +4518,10 @@
       <c r="T77" s="8"/>
       <c r="U77" s="8"/>
     </row>
-    <row r="78" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>76</v>
+      </c>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="9"/>
@@ -4366,7 +4541,10 @@
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
     </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>77</v>
+      </c>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="9"/>
@@ -4386,7 +4564,10 @@
       <c r="T79" s="8"/>
       <c r="U79" s="8"/>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>78</v>
+      </c>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="9"/>
@@ -4406,7 +4587,10 @@
       <c r="T80" s="8"/>
       <c r="U80" s="8"/>
     </row>
-    <row r="81" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>79</v>
+      </c>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="9"/>
@@ -4426,7 +4610,10 @@
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
     </row>
-    <row r="82" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>80</v>
+      </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="9"/>
@@ -4446,7 +4633,10 @@
       <c r="T82" s="8"/>
       <c r="U82" s="8"/>
     </row>
-    <row r="83" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>81</v>
+      </c>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
       <c r="D83" s="9"/>
@@ -4466,7 +4656,10 @@
       <c r="T83" s="8"/>
       <c r="U83" s="8"/>
     </row>
-    <row r="84" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>82</v>
+      </c>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="9"/>
@@ -4486,7 +4679,10 @@
       <c r="T84" s="8"/>
       <c r="U84" s="8"/>
     </row>
-    <row r="85" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>83</v>
+      </c>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="9"/>
@@ -4506,7 +4702,10 @@
       <c r="T85" s="8"/>
       <c r="U85" s="8"/>
     </row>
-    <row r="86" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>84</v>
+      </c>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="9"/>
@@ -4526,7 +4725,10 @@
       <c r="T86" s="8"/>
       <c r="U86" s="8"/>
     </row>
-    <row r="87" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>85</v>
+      </c>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="9"/>
@@ -4546,7 +4748,10 @@
       <c r="T87" s="8"/>
       <c r="U87" s="8"/>
     </row>
-    <row r="88" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>86</v>
+      </c>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="9"/>
@@ -4566,7 +4771,10 @@
       <c r="T88" s="8"/>
       <c r="U88" s="8"/>
     </row>
-    <row r="89" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>87</v>
+      </c>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="9"/>
@@ -4586,7 +4794,10 @@
       <c r="T89" s="8"/>
       <c r="U89" s="8"/>
     </row>
-    <row r="90" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>88</v>
+      </c>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="9"/>
@@ -4606,7 +4817,10 @@
       <c r="T90" s="8"/>
       <c r="U90" s="8"/>
     </row>
-    <row r="91" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>89</v>
+      </c>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="9"/>
@@ -4626,7 +4840,10 @@
       <c r="T91" s="8"/>
       <c r="U91" s="8"/>
     </row>
-    <row r="92" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>90</v>
+      </c>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="D92" s="9"/>
@@ -4646,7 +4863,10 @@
       <c r="T92" s="8"/>
       <c r="U92" s="8"/>
     </row>
-    <row r="93" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>91</v>
+      </c>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="9"/>
@@ -4666,7 +4886,10 @@
       <c r="T93" s="8"/>
       <c r="U93" s="8"/>
     </row>
-    <row r="94" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>92</v>
+      </c>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="9"/>
@@ -4686,7 +4909,10 @@
       <c r="T94" s="8"/>
       <c r="U94" s="8"/>
     </row>
-    <row r="95" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>93</v>
+      </c>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="9"/>
@@ -4706,7 +4932,10 @@
       <c r="T95" s="8"/>
       <c r="U95" s="8"/>
     </row>
-    <row r="96" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>94</v>
+      </c>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="9"/>
@@ -4726,7 +4955,10 @@
       <c r="T96" s="8"/>
       <c r="U96" s="8"/>
     </row>
-    <row r="97" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>95</v>
+      </c>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
       <c r="D97" s="9"/>
@@ -4746,7 +4978,10 @@
       <c r="T97" s="8"/>
       <c r="U97" s="8"/>
     </row>
-    <row r="98" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>96</v>
+      </c>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
       <c r="D98" s="9"/>
@@ -4766,7 +5001,10 @@
       <c r="T98" s="8"/>
       <c r="U98" s="8"/>
     </row>
-    <row r="99" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>97</v>
+      </c>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="9"/>
@@ -4786,7 +5024,10 @@
       <c r="T99" s="8"/>
       <c r="U99" s="8"/>
     </row>
-    <row r="100" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>98</v>
+      </c>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="9"/>
@@ -4806,7 +5047,10 @@
       <c r="T100" s="8"/>
       <c r="U100" s="8"/>
     </row>
-    <row r="101" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>99</v>
+      </c>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="9"/>
@@ -4826,7 +5070,10 @@
       <c r="T101" s="8"/>
       <c r="U101" s="8"/>
     </row>
-    <row r="102" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>100</v>
+      </c>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="D102" s="9"/>
@@ -4846,7 +5093,10 @@
       <c r="T102" s="8"/>
       <c r="U102" s="8"/>
     </row>
-    <row r="103" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>101</v>
+      </c>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
       <c r="D103" s="9"/>
@@ -4866,7 +5116,10 @@
       <c r="T103" s="8"/>
       <c r="U103" s="8"/>
     </row>
-    <row r="104" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>102</v>
+      </c>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
       <c r="D104" s="9"/>
@@ -4886,7 +5139,10 @@
       <c r="T104" s="8"/>
       <c r="U104" s="8"/>
     </row>
-    <row r="105" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>103</v>
+      </c>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="D105" s="9"/>
@@ -4906,7 +5162,10 @@
       <c r="T105" s="8"/>
       <c r="U105" s="8"/>
     </row>
-    <row r="106" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>104</v>
+      </c>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="9"/>
@@ -4926,7 +5185,10 @@
       <c r="T106" s="8"/>
       <c r="U106" s="8"/>
     </row>
-    <row r="107" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>105</v>
+      </c>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
       <c r="D107" s="9"/>
@@ -4946,7 +5208,10 @@
       <c r="T107" s="8"/>
       <c r="U107" s="8"/>
     </row>
-    <row r="108" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>106</v>
+      </c>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
       <c r="D108" s="9"/>
@@ -4966,7 +5231,10 @@
       <c r="T108" s="8"/>
       <c r="U108" s="8"/>
     </row>
-    <row r="109" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>107</v>
+      </c>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="9"/>
@@ -4986,7 +5254,10 @@
       <c r="T109" s="8"/>
       <c r="U109" s="8"/>
     </row>
-    <row r="110" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>108</v>
+      </c>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="D110" s="9"/>
@@ -5006,7 +5277,10 @@
       <c r="T110" s="8"/>
       <c r="U110" s="8"/>
     </row>
-    <row r="111" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>109</v>
+      </c>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="9"/>
@@ -5026,7 +5300,10 @@
       <c r="T111" s="8"/>
       <c r="U111" s="8"/>
     </row>
-    <row r="112" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>110</v>
+      </c>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="9"/>
@@ -5046,7 +5323,10 @@
       <c r="T112" s="8"/>
       <c r="U112" s="8"/>
     </row>
-    <row r="113" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>111</v>
+      </c>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="9"/>
@@ -5066,7 +5346,10 @@
       <c r="T113" s="8"/>
       <c r="U113" s="8"/>
     </row>
-    <row r="114" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>112</v>
+      </c>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="9"/>
@@ -5086,7 +5369,10 @@
       <c r="T114" s="8"/>
       <c r="U114" s="8"/>
     </row>
-    <row r="115" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>113</v>
+      </c>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="9"/>
@@ -5106,7 +5392,10 @@
       <c r="T115" s="8"/>
       <c r="U115" s="8"/>
     </row>
-    <row r="116" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>114</v>
+      </c>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
       <c r="D116" s="9"/>
@@ -5126,7 +5415,10 @@
       <c r="T116" s="8"/>
       <c r="U116" s="8"/>
     </row>
-    <row r="117" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>115</v>
+      </c>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="9"/>
@@ -5146,7 +5438,10 @@
       <c r="T117" s="8"/>
       <c r="U117" s="8"/>
     </row>
-    <row r="118" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>116</v>
+      </c>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
       <c r="D118" s="9"/>
@@ -5166,7 +5461,10 @@
       <c r="T118" s="8"/>
       <c r="U118" s="8"/>
     </row>
-    <row r="119" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>117</v>
+      </c>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="9"/>
@@ -5186,7 +5484,10 @@
       <c r="T119" s="8"/>
       <c r="U119" s="8"/>
     </row>
-    <row r="120" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>118</v>
+      </c>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
       <c r="D120" s="9"/>
@@ -5206,7 +5507,10 @@
       <c r="T120" s="8"/>
       <c r="U120" s="8"/>
     </row>
-    <row r="121" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>119</v>
+      </c>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="9"/>
@@ -5226,7 +5530,10 @@
       <c r="T121" s="8"/>
       <c r="U121" s="8"/>
     </row>
-    <row r="122" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>120</v>
+      </c>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="9"/>
@@ -5246,7 +5553,10 @@
       <c r="T122" s="8"/>
       <c r="U122" s="8"/>
     </row>
-    <row r="123" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>121</v>
+      </c>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="9"/>
@@ -5266,7 +5576,10 @@
       <c r="T123" s="8"/>
       <c r="U123" s="8"/>
     </row>
-    <row r="124" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>122</v>
+      </c>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="9"/>
@@ -5286,7 +5599,10 @@
       <c r="T124" s="8"/>
       <c r="U124" s="8"/>
     </row>
-    <row r="125" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>123</v>
+      </c>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="9"/>
@@ -5306,7 +5622,10 @@
       <c r="T125" s="8"/>
       <c r="U125" s="8"/>
     </row>
-    <row r="126" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>124</v>
+      </c>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="9"/>
@@ -5326,7 +5645,10 @@
       <c r="T126" s="8"/>
       <c r="U126" s="8"/>
     </row>
-    <row r="127" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>125</v>
+      </c>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="9"/>
@@ -5346,7 +5668,10 @@
       <c r="T127" s="8"/>
       <c r="U127" s="8"/>
     </row>
-    <row r="128" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>126</v>
+      </c>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="9"/>
@@ -5366,7 +5691,10 @@
       <c r="T128" s="8"/>
       <c r="U128" s="8"/>
     </row>
-    <row r="129" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>127</v>
+      </c>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="9"/>
@@ -5386,7 +5714,10 @@
       <c r="T129" s="8"/>
       <c r="U129" s="8"/>
     </row>
-    <row r="130" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>128</v>
+      </c>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="9"/>
@@ -5406,7 +5737,10 @@
       <c r="T130" s="8"/>
       <c r="U130" s="8"/>
     </row>
-    <row r="131" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>129</v>
+      </c>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="9"/>
@@ -5426,7 +5760,10 @@
       <c r="T131" s="8"/>
       <c r="U131" s="8"/>
     </row>
-    <row r="132" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>130</v>
+      </c>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
       <c r="D132" s="9"/>
@@ -5446,7 +5783,7 @@
       <c r="T132" s="8"/>
       <c r="U132" s="8"/>
     </row>
-    <row r="133" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
       <c r="D133" s="9"/>
@@ -5466,7 +5803,7 @@
       <c r="T133" s="8"/>
       <c r="U133" s="8"/>
     </row>
-    <row r="134" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
       <c r="D134" s="9"/>
@@ -5486,7 +5823,7 @@
       <c r="T134" s="8"/>
       <c r="U134" s="8"/>
     </row>
-    <row r="135" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
       <c r="D135" s="9"/>
@@ -5506,7 +5843,7 @@
       <c r="T135" s="8"/>
       <c r="U135" s="8"/>
     </row>
-    <row r="136" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
       <c r="D136" s="9"/>
@@ -5526,7 +5863,7 @@
       <c r="T136" s="8"/>
       <c r="U136" s="8"/>
     </row>
-    <row r="137" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
       <c r="D137" s="9"/>
@@ -5546,7 +5883,7 @@
       <c r="T137" s="8"/>
       <c r="U137" s="8"/>
     </row>
-    <row r="138" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
       <c r="D138" s="9"/>
@@ -5566,7 +5903,7 @@
       <c r="T138" s="8"/>
       <c r="U138" s="8"/>
     </row>
-    <row r="139" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
       <c r="D139" s="9"/>
@@ -5586,7 +5923,7 @@
       <c r="T139" s="8"/>
       <c r="U139" s="8"/>
     </row>
-    <row r="140" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
       <c r="D140" s="9"/>
@@ -5606,7 +5943,7 @@
       <c r="T140" s="8"/>
       <c r="U140" s="8"/>
     </row>
-    <row r="141" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
       <c r="D141" s="9"/>
@@ -5626,7 +5963,7 @@
       <c r="T141" s="8"/>
       <c r="U141" s="8"/>
     </row>
-    <row r="142" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
       <c r="D142" s="9"/>
@@ -5646,7 +5983,7 @@
       <c r="T142" s="8"/>
       <c r="U142" s="8"/>
     </row>
-    <row r="143" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
       <c r="D143" s="9"/>
@@ -5666,7 +6003,7 @@
       <c r="T143" s="8"/>
       <c r="U143" s="8"/>
     </row>
-    <row r="144" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
       <c r="D144" s="9"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="116">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -353,6 +353,18 @@
   </si>
   <si>
     <t>КонтрИмпульс</t>
+  </si>
+  <si>
+    <t>Тест</t>
+  </si>
+  <si>
+    <t>Странная работа</t>
+  </si>
+  <si>
+    <t>Сильные движения убивают</t>
+  </si>
+  <si>
+    <t>Убытки меньше, чем PT2, но и прибыль тоже</t>
   </si>
 </sst>
 </file>
@@ -2247,7 +2259,7 @@
   <dimension ref="A1:U221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2266,7 +2278,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45515.74150034722</v>
+        <v>45515.912059259259</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2868,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="14"/>
@@ -3120,10 +3132,12 @@
       <c r="E22" s="10">
         <v>45510</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="10">
+        <v>45515</v>
+      </c>
       <c r="G22" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>30</v>
@@ -3162,16 +3176,22 @@
       <c r="E23" s="10">
         <v>45513</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="10">
+        <v>45515</v>
+      </c>
       <c r="G23" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="14"/>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23" s="14">
+        <v>4.3</v>
+      </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -3200,16 +3220,20 @@
       <c r="E24" s="10">
         <v>45514</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="14"/>
+        <v>112</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J24" s="14">
+        <v>4.5</v>
+      </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
@@ -3222,7 +3246,7 @@
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -3238,16 +3262,22 @@
       <c r="E25" s="10">
         <v>45514</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="10">
+        <v>45515</v>
+      </c>
       <c r="G25" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="14"/>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J25" s="14">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -3276,16 +3306,22 @@
       <c r="E26" s="10">
         <v>45514</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="10">
+        <v>45515</v>
+      </c>
       <c r="G26" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="14"/>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J26" s="14">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -3314,16 +3350,20 @@
       <c r="E27" s="10">
         <v>45515</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="14"/>
+        <v>112</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" s="14">
+        <v>4.2</v>
+      </c>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -3357,7 +3397,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="14"/>
@@ -3396,7 +3436,9 @@
       <c r="H29" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I29" s="9"/>
+      <c r="I29" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="J29" s="14"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="127">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -238,133 +238,166 @@
     <t>УспешныйТрейдер-2</t>
   </si>
   <si>
+    <t>УспешныйТрейдер-3</t>
+  </si>
+  <si>
+    <t>Идея ST1 + ProSveT</t>
+  </si>
+  <si>
+    <t>Идея ST1 с фиксом некоторых проблем и двойным боллинджером</t>
+  </si>
+  <si>
+    <t>ПрофитныйТрейдер-2</t>
+  </si>
+  <si>
+    <t>УспешныйТрейдер-4</t>
+  </si>
+  <si>
+    <t>УспешныйТрейдер-1а</t>
+  </si>
+  <si>
+    <t>УспешныйТрейдер-3а</t>
+  </si>
+  <si>
+    <t>Попытка добавить торговлю боковика</t>
+  </si>
+  <si>
+    <t>Модификая ST1</t>
+  </si>
+  <si>
+    <t>Модификая ST3</t>
+  </si>
+  <si>
+    <t>Идеи ST3 + Торговля боковика по зонам ProSveT. Облегченный вход и выход из сделки с помощью локов</t>
+  </si>
+  <si>
+    <t>Отстутвие стопа</t>
+  </si>
+  <si>
+    <t>Работает хуже чем ST1</t>
+  </si>
+  <si>
+    <t>Поздний вход, сложный выход</t>
+  </si>
+  <si>
+    <t>Конфликтная работа</t>
+  </si>
+  <si>
+    <t>Остутсвие стопа</t>
+  </si>
+  <si>
+    <t>Работал только по стакану</t>
+  </si>
+  <si>
+    <t>Работал с графиком, но только с относительным положением по y. Без поиска баров</t>
+  </si>
+  <si>
+    <t>Работа с графиком, но только с точками, без их обработки</t>
+  </si>
+  <si>
+    <t>Работа с точками, но с обработкой с помощбю линейной регрессии</t>
+  </si>
+  <si>
+    <t>Работа по барам с помощью линейной регрессии</t>
+  </si>
+  <si>
+    <t>Использование баров</t>
+  </si>
+  <si>
+    <t>ОдинХорошийТрейдер-1</t>
+  </si>
+  <si>
+    <t>Торговля по VSA</t>
+  </si>
+  <si>
+    <t>ПрофитныйТрейдер-3</t>
+  </si>
+  <si>
+    <t>УспешныйТрейдер-5</t>
+  </si>
+  <si>
+    <t>Торговля по спред каналу</t>
+  </si>
+  <si>
+    <t>Добработка PT2</t>
+  </si>
+  <si>
+    <t>Торговля по ProSvet</t>
+  </si>
+  <si>
+    <t>Сложность системы, позние входы, поздние выходы</t>
+  </si>
+  <si>
+    <t>УспешныйТрейдер-6</t>
+  </si>
+  <si>
+    <t>УспешныйТрейдер-7</t>
+  </si>
+  <si>
+    <t>АнтиСтоп по волатильности</t>
+  </si>
+  <si>
+    <t>Торговля по боллинджеру со стопом</t>
+  </si>
+  <si>
+    <t>УспешныйТрейдер-8</t>
+  </si>
+  <si>
+    <t>УспешныйТрейдер-9</t>
+  </si>
+  <si>
+    <t>Идея ST1 со стопами</t>
+  </si>
+  <si>
+    <t>КонтрИмпульс</t>
+  </si>
+  <si>
+    <t>Тест</t>
+  </si>
+  <si>
+    <t>Странная работа</t>
+  </si>
+  <si>
+    <t>Сильные движения убивают</t>
+  </si>
+  <si>
+    <t>Убытки меньше, чем PT2, но и прибыль тоже</t>
+  </si>
+  <si>
+    <t>УспешныйТрейдер-5а</t>
+  </si>
+  <si>
+    <t>ST5 c изменненым стопом</t>
+  </si>
+  <si>
+    <t>ПрофитныйУспешныйТрейдер-1а</t>
+  </si>
+  <si>
+    <t>PST1 c изменным стопом</t>
+  </si>
+  <si>
+    <t>Хорошо работает на стабильном тренде, умирает на смене тренда</t>
+  </si>
+  <si>
+    <t>Хорошо работает на стабильном тренде. Фиксит проблемы смерта на смене тренда, но чаще выбивает рано. По результатам PST1 обычно лучше</t>
+  </si>
+  <si>
+    <t>Частая смена краткострочного тренда убивает</t>
+  </si>
+  <si>
+    <t>Работает</t>
+  </si>
+  <si>
+    <t>ОдинХорошийТрейдер-2</t>
+  </si>
+  <si>
+    <t>УспешныйТрейдер-10</t>
+  </si>
+  <si>
+    <t>Работа с быстрым боллинджером</t>
+  </si>
+  <si>
     <t>Разработка</t>
-  </si>
-  <si>
-    <t>УспешныйТрейдер-3</t>
-  </si>
-  <si>
-    <t>Идея ST1 + ProSveT</t>
-  </si>
-  <si>
-    <t>Идея ST1 с фиксом некоторых проблем и двойным боллинджером</t>
-  </si>
-  <si>
-    <t>ПрофитныйТрейдер-2</t>
-  </si>
-  <si>
-    <t>УспешныйТрейдер-4</t>
-  </si>
-  <si>
-    <t>УспешныйТрейдер-1а</t>
-  </si>
-  <si>
-    <t>УспешныйТрейдер-3а</t>
-  </si>
-  <si>
-    <t>Попытка добавить торговлю боковика</t>
-  </si>
-  <si>
-    <t>Модификая ST1</t>
-  </si>
-  <si>
-    <t>Модификая ST3</t>
-  </si>
-  <si>
-    <t>Идеи ST3 + Торговля боковика по зонам ProSveT. Облегченный вход и выход из сделки с помощью локов</t>
-  </si>
-  <si>
-    <t>Отстутвие стопа</t>
-  </si>
-  <si>
-    <t>Работает хуже чем ST1</t>
-  </si>
-  <si>
-    <t>Поздний вход, сложный выход</t>
-  </si>
-  <si>
-    <t>Конфликтная работа</t>
-  </si>
-  <si>
-    <t>Остутсвие стопа</t>
-  </si>
-  <si>
-    <t>Работал только по стакану</t>
-  </si>
-  <si>
-    <t>Работал с графиком, но только с относительным положением по y. Без поиска баров</t>
-  </si>
-  <si>
-    <t>Работа с графиком, но только с точками, без их обработки</t>
-  </si>
-  <si>
-    <t>Работа с точками, но с обработкой с помощбю линейной регрессии</t>
-  </si>
-  <si>
-    <t>Работа по барам с помощью линейной регрессии</t>
-  </si>
-  <si>
-    <t>Использование баров</t>
-  </si>
-  <si>
-    <t>ОдинХорошийТрейдер-1</t>
-  </si>
-  <si>
-    <t>Торговля по VSA</t>
-  </si>
-  <si>
-    <t>ПрофитныйТрейдер-3</t>
-  </si>
-  <si>
-    <t>УспешныйТрейдер-5</t>
-  </si>
-  <si>
-    <t>Торговля по спред каналу</t>
-  </si>
-  <si>
-    <t>Добработка PT2</t>
-  </si>
-  <si>
-    <t>Торговля по ProSvet</t>
-  </si>
-  <si>
-    <t>Сложность системы, позние входы, поздние выходы</t>
-  </si>
-  <si>
-    <t>УспешныйТрейдер-6</t>
-  </si>
-  <si>
-    <t>УспешныйТрейдер-7</t>
-  </si>
-  <si>
-    <t>АнтиСтоп по волатильности</t>
-  </si>
-  <si>
-    <t>Торговля по боллинджеру со стопом</t>
-  </si>
-  <si>
-    <t>УспешныйТрейдер-8</t>
-  </si>
-  <si>
-    <t>УспешныйТрейдер-9</t>
-  </si>
-  <si>
-    <t>Идея ST1 со стопами</t>
-  </si>
-  <si>
-    <t>КонтрИмпульс</t>
-  </si>
-  <si>
-    <t>Тест</t>
-  </si>
-  <si>
-    <t>Странная работа</t>
-  </si>
-  <si>
-    <t>Сильные движения убивают</t>
-  </si>
-  <si>
-    <t>Убытки меньше, чем PT2, но и прибыль тоже</t>
   </si>
 </sst>
 </file>
@@ -421,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -466,6 +499,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2258,15 +2294,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.140625" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="9" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="17.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="4" customWidth="1"/>
@@ -2278,7 +2314,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45515.912059259259</v>
+        <v>45524.51039722222</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2291,7 +2327,7 @@
       <c r="C2" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -2751,7 +2787,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>67</v>
@@ -2841,7 +2877,7 @@
         <v>30</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J15" s="14">
         <v>5</v>
@@ -2858,7 +2894,7 @@
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -2869,7 +2905,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="10">
         <v>45515</v>
@@ -2877,13 +2913,17 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="14"/>
+        <v>10</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" s="14">
+        <v>5.3</v>
+      </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
@@ -2907,7 +2947,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="10">
         <v>45508</v>
@@ -2923,7 +2963,7 @@
         <v>30</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J17" s="14">
         <v>4.4000000000000004</v>
@@ -2945,13 +2985,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="8">
         <v>5</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="10">
         <v>45509</v>
@@ -2967,7 +3007,7 @@
         <v>30</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J18" s="14">
         <v>4.9000000000000004</v>
@@ -2989,13 +3029,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="8">
         <v>5</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>81</v>
+      <c r="D19" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="E19" s="10">
         <v>45509</v>
@@ -3011,7 +3051,7 @@
         <v>30</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J19" s="14">
         <v>4.2</v>
@@ -3033,13 +3073,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="8">
         <v>5</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" s="10">
         <v>45509</v>
@@ -3055,7 +3095,7 @@
         <v>30</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J20" s="14">
         <v>4.8</v>
@@ -3077,13 +3117,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="8">
         <v>5</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" s="10">
         <v>45509</v>
@@ -3099,7 +3139,7 @@
         <v>30</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J21" s="14">
         <v>4.8</v>
@@ -3121,13 +3161,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="8">
         <v>5</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" s="10">
         <v>45510</v>
@@ -3143,7 +3183,7 @@
         <v>30</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J22" s="14">
         <v>5</v>
@@ -3165,13 +3205,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="8">
         <v>5</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" s="10">
         <v>45513</v>
@@ -3187,7 +3227,7 @@
         <v>30</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J23" s="14">
         <v>4.3</v>
@@ -3204,18 +3244,18 @@
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24" s="8">
         <v>5</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E24" s="10">
         <v>45514</v>
@@ -3223,16 +3263,16 @@
       <c r="F24" s="10"/>
       <c r="G24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="J24" s="14">
-        <v>4.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
@@ -3251,13 +3291,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="8">
         <v>5</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E25" s="10">
         <v>45514</v>
@@ -3273,7 +3313,7 @@
         <v>30</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J25" s="14">
         <v>4.9000000000000004</v>
@@ -3295,13 +3335,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="8">
         <v>5</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E26" s="10">
         <v>45514</v>
@@ -3317,7 +3357,7 @@
         <v>30</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J26" s="14">
         <v>4.5999999999999996</v>
@@ -3339,13 +3379,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="8">
         <v>5</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E27" s="10">
         <v>45515</v>
@@ -3353,10 +3393,10 @@
       <c r="F27" s="10"/>
       <c r="G27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>112</v>
+        <v>10</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>58</v>
@@ -3376,18 +3416,18 @@
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" s="8">
         <v>5</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E28" s="10">
         <v>45515</v>
@@ -3397,10 +3437,14 @@
         <v>1</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="14"/>
+        <v>111</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J28" s="14">
+        <v>4.8</v>
+      </c>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
@@ -3418,13 +3462,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="8">
         <v>5</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" s="10">
         <v>45515</v>
@@ -3433,13 +3477,15 @@
       <c r="G29" s="4">
         <v>1</v>
       </c>
-      <c r="H29" s="8" t="s">
-        <v>73</v>
+      <c r="H29" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="J29" s="14"/>
+        <v>113</v>
+      </c>
+      <c r="J29" s="14">
+        <v>4.7</v>
+      </c>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -3452,18 +3498,35 @@
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="4"/>
+      <c r="B30" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="8">
+        <v>5</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="10">
+        <v>45516</v>
+      </c>
       <c r="F30" s="4"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="14"/>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J30" s="14">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
@@ -3476,18 +3539,35 @@
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="4"/>
+      <c r="B31" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="8">
+        <v>5</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="10">
+        <v>45516</v>
+      </c>
       <c r="F31" s="4"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="14"/>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J31" s="14">
+        <v>5</v>
+      </c>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
@@ -3504,13 +3584,17 @@
       <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="8">
+        <v>5</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="9"/>
+      <c r="H32" s="8" t="s">
+        <v>126</v>
+      </c>
       <c r="J32" s="14"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -3524,16 +3608,24 @@
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="8">
+        <v>5</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="H33" s="8"/>
+      <c r="H33" s="8" t="s">
+        <v>126</v>
+      </c>
       <c r="I33" s="9"/>
       <c r="J33" s="14"/>
       <c r="K33" s="8"/>
@@ -3554,7 +3646,6 @@
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="H34" s="8"/>
@@ -3577,7 +3668,6 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="H35" s="8"/>
@@ -3600,7 +3690,6 @@
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="H36" s="8"/>
@@ -3623,7 +3712,6 @@
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="H37" s="8"/>
@@ -3646,7 +3734,6 @@
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="H38" s="8"/>
@@ -3669,7 +3756,6 @@
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="H39" s="8"/>
@@ -3692,7 +3778,6 @@
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="H40" s="8"/>
@@ -3715,7 +3800,6 @@
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="H41" s="8"/>
@@ -3738,7 +3822,6 @@
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="9"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="H42" s="8"/>
@@ -3761,7 +3844,6 @@
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="9"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="H43" s="8"/>
@@ -3784,7 +3866,6 @@
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="H44" s="8"/>
@@ -3807,7 +3888,6 @@
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="9"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="H45" s="8"/>
@@ -3830,7 +3910,6 @@
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="9"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="H46" s="8"/>
@@ -3853,7 +3932,6 @@
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="9"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="H47" s="8"/>
@@ -3876,7 +3954,6 @@
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="9"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="H48" s="8"/>
@@ -3899,7 +3976,6 @@
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="9"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="H49" s="8"/>
@@ -3922,7 +3998,6 @@
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="9"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="H50" s="8"/>
@@ -3945,7 +4020,6 @@
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="9"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="H51" s="8"/>
@@ -3968,7 +4042,6 @@
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="9"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="H52" s="8"/>
@@ -3991,7 +4064,6 @@
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="9"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="H53" s="8"/>
@@ -4014,7 +4086,6 @@
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="9"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="H54" s="8"/>
@@ -4037,7 +4108,6 @@
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="9"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="H55" s="8"/>
@@ -4060,7 +4130,6 @@
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="9"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="H56" s="8"/>
@@ -4083,7 +4152,6 @@
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="9"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="H57" s="8"/>
@@ -4106,7 +4174,6 @@
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="9"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="H58" s="8"/>
@@ -4129,7 +4196,6 @@
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="9"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="H59" s="8"/>
@@ -4152,7 +4218,6 @@
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="9"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="H60" s="8"/>
@@ -4175,7 +4240,6 @@
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="9"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="H61" s="8"/>
@@ -4198,7 +4262,6 @@
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="9"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="H62" s="8"/>
@@ -4221,7 +4284,6 @@
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="9"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="H63" s="8"/>
@@ -4244,7 +4306,6 @@
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
-      <c r="D64" s="9"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="H64" s="8"/>
@@ -4267,7 +4328,6 @@
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
-      <c r="D65" s="9"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="H65" s="8"/>
@@ -4290,7 +4350,6 @@
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
-      <c r="D66" s="9"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="H66" s="8"/>
@@ -4313,7 +4372,6 @@
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
-      <c r="D67" s="9"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="H67" s="8"/>
@@ -4336,7 +4394,6 @@
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
-      <c r="D68" s="9"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="H68" s="8"/>
@@ -4359,7 +4416,6 @@
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
-      <c r="D69" s="9"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="H69" s="8"/>
@@ -4382,7 +4438,6 @@
       </c>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
-      <c r="D70" s="9"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="H70" s="8"/>
@@ -4405,7 +4460,6 @@
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
-      <c r="D71" s="9"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="H71" s="8"/>
@@ -4428,7 +4482,6 @@
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
-      <c r="D72" s="9"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="H72" s="8"/>
@@ -4451,7 +4504,6 @@
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
-      <c r="D73" s="9"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="H73" s="8"/>
@@ -4474,7 +4526,6 @@
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
-      <c r="D74" s="9"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="H74" s="8"/>
@@ -4497,7 +4548,6 @@
       </c>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
-      <c r="D75" s="9"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="H75" s="8"/>
@@ -4520,7 +4570,6 @@
       </c>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
-      <c r="D76" s="9"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="H76" s="8"/>
@@ -4543,7 +4592,6 @@
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
-      <c r="D77" s="9"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="H77" s="8"/>
@@ -4566,7 +4614,6 @@
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
-      <c r="D78" s="9"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="H78" s="8"/>
@@ -4589,7 +4636,6 @@
       </c>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
-      <c r="D79" s="9"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="H79" s="8"/>
@@ -4612,7 +4658,6 @@
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
-      <c r="D80" s="9"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="H80" s="8"/>
@@ -4635,7 +4680,6 @@
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
-      <c r="D81" s="9"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="H81" s="8"/>
@@ -4658,7 +4702,6 @@
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
-      <c r="D82" s="9"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="H82" s="8"/>
@@ -4681,7 +4724,6 @@
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
-      <c r="D83" s="9"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="H83" s="8"/>
@@ -4704,7 +4746,6 @@
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
-      <c r="D84" s="9"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="H84" s="8"/>
@@ -4727,7 +4768,6 @@
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
-      <c r="D85" s="9"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="H85" s="8"/>
@@ -4750,7 +4790,6 @@
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
-      <c r="D86" s="9"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="H86" s="8"/>
@@ -4773,7 +4812,6 @@
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
-      <c r="D87" s="9"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="H87" s="8"/>
@@ -4796,7 +4834,6 @@
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
-      <c r="D88" s="9"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="H88" s="8"/>
@@ -4819,7 +4856,6 @@
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
-      <c r="D89" s="9"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="H89" s="8"/>
@@ -4842,7 +4878,6 @@
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
-      <c r="D90" s="9"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="H90" s="8"/>
@@ -4865,7 +4900,6 @@
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
-      <c r="D91" s="9"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="H91" s="8"/>
@@ -4888,7 +4922,6 @@
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
-      <c r="D92" s="9"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="H92" s="8"/>
@@ -4911,7 +4944,6 @@
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
-      <c r="D93" s="9"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="H93" s="8"/>
@@ -4934,7 +4966,6 @@
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
-      <c r="D94" s="9"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="H94" s="8"/>
@@ -4957,7 +4988,6 @@
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
-      <c r="D95" s="9"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="H95" s="8"/>
@@ -4980,7 +5010,6 @@
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
-      <c r="D96" s="9"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="H96" s="8"/>
@@ -5003,7 +5032,6 @@
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
-      <c r="D97" s="9"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="H97" s="8"/>
@@ -5026,7 +5054,6 @@
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
-      <c r="D98" s="9"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="H98" s="8"/>
@@ -5049,7 +5076,6 @@
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
-      <c r="D99" s="9"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="H99" s="8"/>
@@ -5072,7 +5098,6 @@
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
-      <c r="D100" s="9"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="H100" s="8"/>
@@ -5095,7 +5120,6 @@
       </c>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
-      <c r="D101" s="9"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="H101" s="8"/>
@@ -5118,7 +5142,6 @@
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
-      <c r="D102" s="9"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="H102" s="8"/>
@@ -5141,7 +5164,6 @@
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
-      <c r="D103" s="9"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="H103" s="8"/>
@@ -5164,7 +5186,6 @@
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
-      <c r="D104" s="9"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="H104" s="8"/>
@@ -5187,7 +5208,6 @@
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
-      <c r="D105" s="9"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="H105" s="8"/>
@@ -5210,7 +5230,6 @@
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
-      <c r="D106" s="9"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="H106" s="8"/>
@@ -5233,7 +5252,6 @@
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
-      <c r="D107" s="9"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="H107" s="8"/>
@@ -5256,7 +5274,6 @@
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
-      <c r="D108" s="9"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="H108" s="8"/>
@@ -5279,7 +5296,6 @@
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
-      <c r="D109" s="9"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="H109" s="8"/>
@@ -5302,7 +5318,6 @@
       </c>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
-      <c r="D110" s="9"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="H110" s="8"/>
@@ -5325,7 +5340,6 @@
       </c>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
-      <c r="D111" s="9"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="H111" s="8"/>
@@ -5348,7 +5362,6 @@
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
-      <c r="D112" s="9"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="H112" s="8"/>
@@ -5371,7 +5384,6 @@
       </c>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
-      <c r="D113" s="9"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="H113" s="8"/>
@@ -5394,7 +5406,6 @@
       </c>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
-      <c r="D114" s="9"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="H114" s="8"/>
@@ -5417,7 +5428,6 @@
       </c>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
-      <c r="D115" s="9"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="H115" s="8"/>
@@ -5440,7 +5450,6 @@
       </c>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
-      <c r="D116" s="9"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="H116" s="8"/>
@@ -5463,7 +5472,6 @@
       </c>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
-      <c r="D117" s="9"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="H117" s="8"/>
@@ -5486,7 +5494,6 @@
       </c>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
-      <c r="D118" s="9"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="H118" s="8"/>
@@ -5509,7 +5516,6 @@
       </c>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
-      <c r="D119" s="9"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="H119" s="8"/>
@@ -5532,7 +5538,6 @@
       </c>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
-      <c r="D120" s="9"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="H120" s="8"/>
@@ -5555,7 +5560,6 @@
       </c>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
-      <c r="D121" s="9"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="H121" s="8"/>
@@ -5578,7 +5582,6 @@
       </c>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
-      <c r="D122" s="9"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="H122" s="8"/>
@@ -5601,7 +5604,6 @@
       </c>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
-      <c r="D123" s="9"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="H123" s="8"/>
@@ -5624,7 +5626,6 @@
       </c>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
-      <c r="D124" s="9"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="H124" s="8"/>
@@ -5647,7 +5648,6 @@
       </c>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
-      <c r="D125" s="9"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="H125" s="8"/>
@@ -5670,7 +5670,6 @@
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
-      <c r="D126" s="9"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="H126" s="8"/>
@@ -5693,7 +5692,6 @@
       </c>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
-      <c r="D127" s="9"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="H127" s="8"/>
@@ -5716,7 +5714,6 @@
       </c>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
-      <c r="D128" s="9"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="H128" s="8"/>
@@ -5739,7 +5736,6 @@
       </c>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
-      <c r="D129" s="9"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
       <c r="H129" s="8"/>
@@ -5762,7 +5758,6 @@
       </c>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
-      <c r="D130" s="9"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="H130" s="8"/>
@@ -5785,7 +5780,6 @@
       </c>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
-      <c r="D131" s="9"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="H131" s="8"/>
@@ -5808,7 +5802,6 @@
       </c>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
-      <c r="D132" s="9"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="H132" s="8"/>
@@ -5828,7 +5821,6 @@
     <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
-      <c r="D133" s="9"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="H133" s="8"/>
@@ -5848,7 +5840,6 @@
     <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
-      <c r="D134" s="9"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="H134" s="8"/>
@@ -5868,7 +5859,6 @@
     <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
-      <c r="D135" s="9"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="H135" s="8"/>
@@ -5888,7 +5878,6 @@
     <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
-      <c r="D136" s="9"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
       <c r="H136" s="8"/>
@@ -5908,7 +5897,6 @@
     <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
-      <c r="D137" s="9"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
       <c r="H137" s="8"/>
@@ -5928,7 +5916,6 @@
     <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
-      <c r="D138" s="9"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
       <c r="H138" s="8"/>
@@ -5948,7 +5935,6 @@
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
-      <c r="D139" s="9"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
       <c r="H139" s="8"/>
@@ -5968,7 +5954,6 @@
     <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
-      <c r="D140" s="9"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="H140" s="8"/>
@@ -5988,7 +5973,6 @@
     <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
-      <c r="D141" s="9"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="H141" s="8"/>
@@ -6008,7 +5992,6 @@
     <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
-      <c r="D142" s="9"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
       <c r="H142" s="8"/>
@@ -6028,7 +6011,6 @@
     <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
-      <c r="D143" s="9"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
       <c r="H143" s="8"/>
@@ -6048,7 +6030,6 @@
     <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
-      <c r="D144" s="9"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
       <c r="H144" s="8"/>
@@ -6068,7 +6049,6 @@
     <row r="145" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
-      <c r="D145" s="9"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="H145" s="8"/>
@@ -6088,7 +6068,6 @@
     <row r="146" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
-      <c r="D146" s="9"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="H146" s="8"/>
@@ -6108,7 +6087,6 @@
     <row r="147" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
-      <c r="D147" s="9"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="H147" s="8"/>
@@ -6128,7 +6106,6 @@
     <row r="148" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
-      <c r="D148" s="9"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="H148" s="8"/>
@@ -6148,7 +6125,6 @@
     <row r="149" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
-      <c r="D149" s="9"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="H149" s="8"/>
@@ -6168,7 +6144,6 @@
     <row r="150" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
-      <c r="D150" s="9"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="H150" s="8"/>
@@ -6188,7 +6163,6 @@
     <row r="151" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
-      <c r="D151" s="9"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="H151" s="8"/>
@@ -6208,7 +6182,6 @@
     <row r="152" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
-      <c r="D152" s="9"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="H152" s="8"/>
@@ -6228,7 +6201,6 @@
     <row r="153" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
-      <c r="D153" s="9"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="H153" s="8"/>
@@ -6248,7 +6220,6 @@
     <row r="154" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
-      <c r="D154" s="9"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="H154" s="8"/>
@@ -6268,7 +6239,6 @@
     <row r="155" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
-      <c r="D155" s="9"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
       <c r="H155" s="8"/>
@@ -6288,7 +6258,6 @@
     <row r="156" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
-      <c r="D156" s="9"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="H156" s="8"/>
@@ -6308,7 +6277,6 @@
     <row r="157" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
-      <c r="D157" s="9"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="H157" s="8"/>
@@ -6328,7 +6296,6 @@
     <row r="158" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
-      <c r="D158" s="9"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
       <c r="H158" s="8"/>
@@ -6348,7 +6315,6 @@
     <row r="159" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
-      <c r="D159" s="9"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
       <c r="H159" s="8"/>
@@ -6368,7 +6334,6 @@
     <row r="160" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
-      <c r="D160" s="9"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="H160" s="8"/>
@@ -6388,427 +6353,366 @@
     <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
-      <c r="D161" s="9"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
-      <c r="D162" s="9"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
-      <c r="D163" s="9"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
-      <c r="D164" s="9"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
-      <c r="D165" s="9"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
-      <c r="D166" s="9"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
-      <c r="D167" s="9"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
-      <c r="D168" s="9"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
-      <c r="D169" s="9"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
-      <c r="D170" s="9"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
-      <c r="D171" s="9"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
-      <c r="D172" s="9"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
-      <c r="D173" s="9"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
-      <c r="D174" s="9"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
-      <c r="D175" s="9"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
-      <c r="D176" s="9"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
-      <c r="D177" s="9"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
-      <c r="D178" s="9"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
-      <c r="D179" s="9"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
-      <c r="D180" s="9"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
-      <c r="D181" s="9"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
-      <c r="D182" s="9"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
-      <c r="D183" s="9"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
-      <c r="D184" s="9"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
-      <c r="D185" s="9"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
-      <c r="D186" s="9"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
-      <c r="D187" s="9"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
-      <c r="D188" s="9"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
-      <c r="D189" s="9"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
-      <c r="D190" s="9"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
-      <c r="D191" s="9"/>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
-      <c r="D192" s="9"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
-      <c r="D193" s="9"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
-      <c r="D194" s="9"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
-      <c r="D195" s="9"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
-      <c r="D196" s="9"/>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
-      <c r="D197" s="9"/>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
-      <c r="D198" s="9"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
-      <c r="D199" s="9"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
-      <c r="D200" s="9"/>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
-      <c r="D201" s="9"/>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
-      <c r="D202" s="9"/>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
-      <c r="D203" s="9"/>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
-      <c r="D204" s="9"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
-      <c r="D205" s="9"/>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
-      <c r="D206" s="9"/>
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
-      <c r="D207" s="9"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
-      <c r="D208" s="9"/>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
-      <c r="D209" s="9"/>
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
-      <c r="D210" s="9"/>
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
-      <c r="D211" s="9"/>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
-      <c r="D212" s="9"/>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
-      <c r="D213" s="9"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
-      <c r="D214" s="9"/>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
-      <c r="D215" s="9"/>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
-      <c r="D216" s="9"/>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
-      <c r="D217" s="9"/>
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
-      <c r="D218" s="9"/>
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
-      <c r="D219" s="9"/>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
-      <c r="D220" s="9"/>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B221" s="8"/>
       <c r="C221" s="8"/>
-      <c r="D221" s="9"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
     </row>
@@ -6835,7 +6739,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6843,7 +6747,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6851,7 +6755,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6859,7 +6763,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6867,7 +6771,7 @@
         <v>4.5</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6875,7 +6779,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="125">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -352,9 +352,6 @@
     <t>КонтрИмпульс</t>
   </si>
   <si>
-    <t>Тест</t>
-  </si>
-  <si>
     <t>Странная работа</t>
   </si>
   <si>
@@ -383,9 +380,6 @@
   </si>
   <si>
     <t>Частая смена краткострочного тренда убивает</t>
-  </si>
-  <si>
-    <t>Работает</t>
   </si>
   <si>
     <t>ОдинХорошийТрейдер-2</t>
@@ -454,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -499,9 +493,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2294,8 +2285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,7 +2305,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45524.51039722222</v>
+        <v>45535.524720601854</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2528,7 +2519,7 @@
         <v>45480</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" ref="G7:G27" si="0">ROUND(IF(F7,F7-E7,$F$1-E7),0)</f>
+        <f t="shared" ref="G7:G51" si="0">ROUND(IF(F7,F7-E7,$F$1-E7),0)</f>
         <v>23</v>
       </c>
       <c r="H7" s="11" t="s">
@@ -2787,7 +2778,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>67</v>
@@ -2910,16 +2901,18 @@
       <c r="E16" s="10">
         <v>45515</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="10">
+        <v>45535</v>
+      </c>
       <c r="G16" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>122</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J16" s="14">
         <v>5.3</v>
@@ -3227,7 +3220,7 @@
         <v>30</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J23" s="14">
         <v>4.3</v>
@@ -3260,16 +3253,18 @@
       <c r="E24" s="10">
         <v>45514</v>
       </c>
-      <c r="F24" s="10"/>
+      <c r="F24" s="10">
+        <v>45535</v>
+      </c>
       <c r="G24" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>111</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J24" s="14">
         <v>4.9000000000000004</v>
@@ -3313,7 +3308,7 @@
         <v>30</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J25" s="14">
         <v>4.9000000000000004</v>
@@ -3357,7 +3352,7 @@
         <v>30</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J26" s="14">
         <v>4.5999999999999996</v>
@@ -3390,10 +3385,12 @@
       <c r="E27" s="10">
         <v>45515</v>
       </c>
-      <c r="F27" s="10"/>
+      <c r="F27" s="10">
+        <v>45535</v>
+      </c>
       <c r="G27" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="H27" s="11" t="s">
         <v>30</v>
@@ -3432,15 +3429,18 @@
       <c r="E28" s="10">
         <v>45515</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="10">
+        <v>45535</v>
+      </c>
       <c r="G28" s="4">
-        <v>1</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>111</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J28" s="14">
         <v>4.8</v>
@@ -3473,15 +3473,18 @@
       <c r="E29" s="10">
         <v>45515</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="10">
+        <v>45535</v>
+      </c>
       <c r="G29" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>30</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J29" s="14">
         <v>4.7</v>
@@ -3503,26 +3506,29 @@
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" s="8">
         <v>5</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E30" s="10">
         <v>45516</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="10">
+        <v>45535</v>
+      </c>
       <c r="G30" s="4">
-        <v>1</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>111</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J30" s="14">
         <v>5.0999999999999996</v>
@@ -3544,26 +3550,27 @@
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31" s="8">
         <v>5</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E31" s="10">
         <v>45516</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4">
-        <v>1</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>111</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J31" s="14">
         <v>5</v>
@@ -3585,15 +3592,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C32" s="8">
         <v>5</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
+      <c r="G32" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45536</v>
+      </c>
       <c r="H32" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J32" s="14"/>
       <c r="K32" s="8"/>
@@ -3613,18 +3624,22 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C33" s="8">
         <v>5</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
+      <c r="G33" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45536</v>
+      </c>
       <c r="H33" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="14"/>
@@ -3648,6 +3663,10 @@
       <c r="C34" s="8"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
+      <c r="G34" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45536</v>
+      </c>
       <c r="H34" s="8"/>
       <c r="I34" s="9"/>
       <c r="K34" s="8"/>
@@ -3670,6 +3689,10 @@
       <c r="C35" s="8"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
+      <c r="G35" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45536</v>
+      </c>
       <c r="H35" s="8"/>
       <c r="I35" s="9"/>
       <c r="K35" s="8"/>
@@ -3692,6 +3715,10 @@
       <c r="C36" s="8"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
+      <c r="G36" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45536</v>
+      </c>
       <c r="H36" s="8"/>
       <c r="I36" s="9"/>
       <c r="K36" s="8"/>
@@ -3714,6 +3741,10 @@
       <c r="C37" s="8"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
+      <c r="G37" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45536</v>
+      </c>
       <c r="H37" s="8"/>
       <c r="I37" s="9"/>
       <c r="K37" s="8"/>
@@ -3736,6 +3767,10 @@
       <c r="C38" s="8"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
+      <c r="G38" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45536</v>
+      </c>
       <c r="H38" s="8"/>
       <c r="I38" s="9"/>
       <c r="K38" s="8"/>
@@ -3758,6 +3793,10 @@
       <c r="C39" s="8"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
+      <c r="G39" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45536</v>
+      </c>
       <c r="H39" s="8"/>
       <c r="I39" s="9"/>
       <c r="K39" s="8"/>
@@ -3780,6 +3819,10 @@
       <c r="C40" s="8"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
+      <c r="G40" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45536</v>
+      </c>
       <c r="H40" s="8"/>
       <c r="I40" s="9"/>
       <c r="K40" s="8"/>
@@ -3802,6 +3845,10 @@
       <c r="C41" s="8"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
+      <c r="G41" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45536</v>
+      </c>
       <c r="H41" s="8"/>
       <c r="I41" s="9"/>
       <c r="K41" s="8"/>
@@ -3824,6 +3871,10 @@
       <c r="C42" s="8"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
+      <c r="G42" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45536</v>
+      </c>
       <c r="H42" s="8"/>
       <c r="I42" s="9"/>
       <c r="K42" s="8"/>
@@ -3846,6 +3897,10 @@
       <c r="C43" s="8"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
+      <c r="G43" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45536</v>
+      </c>
       <c r="H43" s="8"/>
       <c r="I43" s="9"/>
       <c r="K43" s="8"/>
@@ -3868,6 +3923,10 @@
       <c r="C44" s="8"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
+      <c r="G44" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45536</v>
+      </c>
       <c r="H44" s="8"/>
       <c r="I44" s="9"/>
       <c r="K44" s="8"/>
@@ -3890,6 +3949,10 @@
       <c r="C45" s="8"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
+      <c r="G45" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45536</v>
+      </c>
       <c r="H45" s="8"/>
       <c r="I45" s="9"/>
       <c r="K45" s="8"/>
@@ -3912,6 +3975,10 @@
       <c r="C46" s="8"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
+      <c r="G46" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45536</v>
+      </c>
       <c r="H46" s="8"/>
       <c r="I46" s="9"/>
       <c r="K46" s="8"/>
@@ -3934,6 +4001,10 @@
       <c r="C47" s="8"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
+      <c r="G47" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45536</v>
+      </c>
       <c r="H47" s="8"/>
       <c r="I47" s="9"/>
       <c r="K47" s="8"/>
@@ -3956,6 +4027,10 @@
       <c r="C48" s="8"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
+      <c r="G48" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45536</v>
+      </c>
       <c r="H48" s="8"/>
       <c r="I48" s="9"/>
       <c r="K48" s="8"/>
@@ -3978,6 +4053,10 @@
       <c r="C49" s="8"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
+      <c r="G49" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45536</v>
+      </c>
       <c r="H49" s="8"/>
       <c r="I49" s="9"/>
       <c r="K49" s="8"/>
@@ -4000,6 +4079,10 @@
       <c r="C50" s="8"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
+      <c r="G50" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45536</v>
+      </c>
       <c r="H50" s="8"/>
       <c r="I50" s="9"/>
       <c r="K50" s="8"/>
@@ -4022,6 +4105,10 @@
       <c r="C51" s="8"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
+      <c r="G51" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45536</v>
+      </c>
       <c r="H51" s="8"/>
       <c r="I51" s="9"/>
       <c r="K51" s="8"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="130">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -392,6 +392,21 @@
   </si>
   <si>
     <t>Разработка</t>
+  </si>
+  <si>
+    <t>УспешныйТрейдер-11</t>
+  </si>
+  <si>
+    <t>УспешныйТрейдер-12</t>
+  </si>
+  <si>
+    <t>ПрофитныйУспешныйТрейдер-2</t>
+  </si>
+  <si>
+    <t>ПрофитныйТрейдер-4</t>
+  </si>
+  <si>
+    <t>ОдинХорошийТрейдер-3</t>
   </si>
 </sst>
 </file>
@@ -2285,8 +2300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2305,7 +2320,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45535.524720601854</v>
+        <v>45536.937653819441</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2778,7 +2793,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>67</v>
@@ -3564,7 +3579,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>30</v>
@@ -3601,7 +3616,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45536</v>
+        <v>45537</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>124</v>
@@ -3636,7 +3651,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45536</v>
+        <v>45537</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>124</v>
@@ -3659,13 +3674,19 @@
       <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="E34" s="4"/>
+      <c r="B34" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="8">
+        <v>5</v>
+      </c>
+      <c r="E34" s="10">
+        <v>45535</v>
+      </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45536</v>
+        <v>2</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="9"/>
@@ -3685,13 +3706,19 @@
       <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="E35" s="4"/>
+      <c r="B35" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="8">
+        <v>5</v>
+      </c>
+      <c r="E35" s="10">
+        <v>45536</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45536</v>
+        <v>1</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="9"/>
@@ -3711,13 +3738,15 @@
       <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="B36" s="8"/>
+      <c r="B36" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="C36" s="8"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45536</v>
+        <v>45537</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="9"/>
@@ -3737,13 +3766,15 @@
       <c r="A37" s="4">
         <v>35</v>
       </c>
-      <c r="B37" s="8"/>
+      <c r="B37" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="C37" s="8"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45536</v>
+        <v>45537</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="9"/>
@@ -3763,13 +3794,15 @@
       <c r="A38" s="4">
         <v>36</v>
       </c>
-      <c r="B38" s="8"/>
+      <c r="B38" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="C38" s="8"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45536</v>
+        <v>45537</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="9"/>
@@ -3795,7 +3828,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45536</v>
+        <v>45537</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="9"/>
@@ -3821,7 +3854,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45536</v>
+        <v>45537</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="9"/>
@@ -3847,7 +3880,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45536</v>
+        <v>45537</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="9"/>
@@ -3873,7 +3906,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45536</v>
+        <v>45537</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="9"/>
@@ -3899,7 +3932,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45536</v>
+        <v>45537</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="9"/>
@@ -3925,7 +3958,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45536</v>
+        <v>45537</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="9"/>
@@ -3951,7 +3984,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45536</v>
+        <v>45537</v>
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="9"/>
@@ -3977,7 +4010,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45536</v>
+        <v>45537</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="9"/>
@@ -4003,7 +4036,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45536</v>
+        <v>45537</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="9"/>
@@ -4029,7 +4062,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45536</v>
+        <v>45537</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="9"/>
@@ -4055,7 +4088,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45536</v>
+        <v>45537</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="9"/>
@@ -4081,7 +4114,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45536</v>
+        <v>45537</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="9"/>
@@ -4107,7 +4140,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45536</v>
+        <v>45537</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="9"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="133">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -391,9 +391,6 @@
     <t>Работа с быстрым боллинджером</t>
   </si>
   <si>
-    <t>Разработка</t>
-  </si>
-  <si>
     <t>УспешныйТрейдер-11</t>
   </si>
   <si>
@@ -407,6 +404,18 @@
   </si>
   <si>
     <t>ОдинХорошийТрейдер-3</t>
+  </si>
+  <si>
+    <t>УспешныйТрейдер-13</t>
+  </si>
+  <si>
+    <t>Быстрая LR</t>
+  </si>
+  <si>
+    <t>Быстрая LR + общая LR</t>
+  </si>
+  <si>
+    <t>Большие фракталы + LR</t>
   </si>
 </sst>
 </file>
@@ -2301,7 +2310,7 @@
   <dimension ref="A1:U221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2320,7 +2329,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45536.937653819441</v>
+        <v>45537.54792986111</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2793,7 +2802,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>67</v>
@@ -3576,10 +3585,12 @@
       <c r="E31" s="10">
         <v>45516</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="10">
+        <v>45536</v>
+      </c>
       <c r="G31" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>30</v>
@@ -3612,14 +3623,18 @@
       <c r="C32" s="8">
         <v>5</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="E32" s="10">
+        <v>45535</v>
+      </c>
+      <c r="F32" s="10">
+        <v>45537</v>
+      </c>
       <c r="G32" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>45537</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>124</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="J32" s="14"/>
       <c r="K32" s="8"/>
@@ -3647,14 +3662,18 @@
       <c r="D33" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="E33" s="10">
+        <v>45535</v>
+      </c>
+      <c r="F33" s="10">
+        <v>45538</v>
+      </c>
       <c r="G33" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>45537</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>124</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="14"/>
@@ -3675,10 +3694,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C34" s="8">
         <v>5</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E34" s="10">
         <v>45535</v>
@@ -3686,7 +3708,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="9"/>
@@ -3707,20 +3729,27 @@
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C35" s="8">
         <v>5</v>
       </c>
+      <c r="D35" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="E35" s="10">
         <v>45536</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="F35" s="10">
+        <v>45537</v>
+      </c>
       <c r="G35" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="H35" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="I35" s="9"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
@@ -3739,14 +3768,21 @@
         <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="E36" s="4"/>
+        <v>129</v>
+      </c>
+      <c r="C36" s="8">
+        <v>5</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="10">
+        <v>45537</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45537</v>
+        <v>1</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="9"/>
@@ -3767,14 +3803,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C37" s="8"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45537</v>
+        <v>45538</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="9"/>
@@ -3795,14 +3831,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C38" s="8"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45537</v>
+        <v>45538</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="9"/>
@@ -3822,13 +3858,15 @@
       <c r="A39" s="4">
         <v>37</v>
       </c>
-      <c r="B39" s="8"/>
+      <c r="B39" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="C39" s="8"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45537</v>
+        <v>45538</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="9"/>
@@ -3854,7 +3892,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45537</v>
+        <v>45538</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="9"/>
@@ -3880,7 +3918,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45537</v>
+        <v>45538</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="9"/>
@@ -3906,7 +3944,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45537</v>
+        <v>45538</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="9"/>
@@ -3932,7 +3970,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45537</v>
+        <v>45538</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="9"/>
@@ -3958,7 +3996,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45537</v>
+        <v>45538</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="9"/>
@@ -3984,7 +4022,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45537</v>
+        <v>45538</v>
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="9"/>
@@ -4010,7 +4048,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45537</v>
+        <v>45538</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="9"/>
@@ -4036,7 +4074,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45537</v>
+        <v>45538</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="9"/>
@@ -4062,7 +4100,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45537</v>
+        <v>45538</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="9"/>
@@ -4088,7 +4126,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45537</v>
+        <v>45538</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="9"/>
@@ -4114,7 +4152,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45537</v>
+        <v>45538</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="9"/>
@@ -4140,7 +4178,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45537</v>
+        <v>45538</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="9"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="135">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -416,6 +416,12 @@
   </si>
   <si>
     <t>Большие фракталы + LR</t>
+  </si>
+  <si>
+    <t>Сборщик-1</t>
+  </si>
+  <si>
+    <t>Полуавтоматическая торговля по сбору разницы между криком и айсом</t>
   </si>
 </sst>
 </file>
@@ -2309,8 +2315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,7 +2335,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45537.54792986111</v>
+        <v>45539.742556944446</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2802,7 +2808,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>67</v>
@@ -3708,7 +3714,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="9"/>
@@ -3782,7 +3788,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="9"/>
@@ -3810,7 +3816,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45538</v>
+        <v>45540</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="9"/>
@@ -3838,7 +3844,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45538</v>
+        <v>45540</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="9"/>
@@ -3866,7 +3872,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45538</v>
+        <v>45540</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="9"/>
@@ -3882,17 +3888,26 @@
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>38</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="E40" s="4"/>
+      <c r="B40" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="8">
+        <v>2</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="10">
+        <v>45539</v>
+      </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45538</v>
+        <v>1</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="9"/>
@@ -3918,7 +3933,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45538</v>
+        <v>45540</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="9"/>
@@ -3944,7 +3959,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45538</v>
+        <v>45540</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="9"/>
@@ -3970,7 +3985,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45538</v>
+        <v>45540</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="9"/>
@@ -3996,7 +4011,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45538</v>
+        <v>45540</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="9"/>
@@ -4022,7 +4037,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45538</v>
+        <v>45540</v>
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="9"/>
@@ -4048,7 +4063,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45538</v>
+        <v>45540</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="9"/>
@@ -4074,7 +4089,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45538</v>
+        <v>45540</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="9"/>
@@ -4100,7 +4115,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45538</v>
+        <v>45540</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="9"/>
@@ -4126,7 +4141,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45538</v>
+        <v>45540</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="9"/>
@@ -4152,7 +4167,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45538</v>
+        <v>45540</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="9"/>
@@ -4178,7 +4193,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45538</v>
+        <v>45540</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="9"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="137">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -422,6 +422,12 @@
   </si>
   <si>
     <t>Полуавтоматическая торговля по сбору разницы между криком и айсом</t>
+  </si>
+  <si>
+    <t>Отменен</t>
+  </si>
+  <si>
+    <t>Автоматическая проверка результатов тестирования</t>
   </si>
 </sst>
 </file>
@@ -440,7 +446,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,6 +471,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -478,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -523,6 +535,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1189,7 +1204,7 @@
   <dimension ref="A2:B213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,7 +1296,9 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2315,8 +2332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2335,7 +2352,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45539.742556944446</v>
+        <v>45597.504619444444</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2808,7 +2825,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>67</v>
@@ -3711,12 +3728,16 @@
       <c r="E34" s="10">
         <v>45535</v>
       </c>
-      <c r="F34" s="4"/>
+      <c r="F34" s="10">
+        <v>45537</v>
+      </c>
       <c r="G34" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H34" s="8"/>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="I34" s="9"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
@@ -3785,12 +3806,16 @@
       <c r="E36" s="10">
         <v>45537</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="10">
+        <v>45537</v>
+      </c>
       <c r="G36" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H36" s="8"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="I36" s="9"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -3812,13 +3837,19 @@
         <v>126</v>
       </c>
       <c r="C37" s="8"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="E37" s="10">
+        <v>45537</v>
+      </c>
+      <c r="F37" s="10">
+        <v>45537</v>
+      </c>
       <c r="G37" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>45540</v>
-      </c>
-      <c r="H37" s="8"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="I37" s="9"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -3840,13 +3871,19 @@
         <v>127</v>
       </c>
       <c r="C38" s="8"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="E38" s="10">
+        <v>45537</v>
+      </c>
+      <c r="F38" s="10">
+        <v>45537</v>
+      </c>
       <c r="G38" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>45540</v>
-      </c>
-      <c r="H38" s="8"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="I38" s="9"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
@@ -3868,13 +3905,19 @@
         <v>128</v>
       </c>
       <c r="C39" s="8"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="E39" s="10">
+        <v>45537</v>
+      </c>
+      <c r="F39" s="10">
+        <v>45537</v>
+      </c>
       <c r="G39" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>45540</v>
-      </c>
-      <c r="H39" s="8"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="I39" s="9"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
@@ -3907,7 +3950,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="9"/>
@@ -3933,7 +3976,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45540</v>
+        <v>45598</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="9"/>
@@ -3959,7 +4002,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45540</v>
+        <v>45598</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="9"/>
@@ -3985,7 +4028,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45540</v>
+        <v>45598</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="9"/>
@@ -4011,7 +4054,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45540</v>
+        <v>45598</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="9"/>
@@ -4037,7 +4080,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45540</v>
+        <v>45598</v>
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="9"/>
@@ -4063,7 +4106,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45540</v>
+        <v>45598</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="9"/>
@@ -4089,7 +4132,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45540</v>
+        <v>45598</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="9"/>
@@ -4115,7 +4158,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45540</v>
+        <v>45598</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="9"/>
@@ -4141,7 +4184,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45540</v>
+        <v>45598</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="9"/>
@@ -4167,7 +4210,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45540</v>
+        <v>45598</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="9"/>
@@ -4193,7 +4236,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45540</v>
+        <v>45598</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="9"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="156">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -397,15 +397,9 @@
     <t>УспешныйТрейдер-12</t>
   </si>
   <si>
-    <t>ПрофитныйУспешныйТрейдер-2</t>
-  </si>
-  <si>
     <t>ПрофитныйТрейдер-4</t>
   </si>
   <si>
-    <t>ОдинХорошийТрейдер-3</t>
-  </si>
-  <si>
     <t>УспешныйТрейдер-13</t>
   </si>
   <si>
@@ -424,10 +418,73 @@
     <t>Полуавтоматическая торговля по сбору разницы между криком и айсом</t>
   </si>
   <si>
-    <t>Отменен</t>
-  </si>
-  <si>
     <t>Автоматическая проверка результатов тестирования</t>
+  </si>
+  <si>
+    <t>Абстрак-3</t>
+  </si>
+  <si>
+    <t>Использование внешней стратегии</t>
+  </si>
+  <si>
+    <t>УспешныйТрейдер-14</t>
+  </si>
+  <si>
+    <t>Настролько хорош, что я не помню</t>
+  </si>
+  <si>
+    <t>Исправленны недостатки прошлой версии. Бот стал универсальным, а стратегии используются внешние</t>
+  </si>
+  <si>
+    <t>STA1</t>
+  </si>
+  <si>
+    <t>BaseTA</t>
+  </si>
+  <si>
+    <t>PSTA1</t>
+  </si>
+  <si>
+    <t>PTA1_BDDC</t>
+  </si>
+  <si>
+    <t>PTA1_R_BDDC</t>
+  </si>
+  <si>
+    <t>Абстрактная стратегия</t>
+  </si>
+  <si>
+    <t>Попытка улучшить ST1</t>
+  </si>
+  <si>
+    <t>Попытка улучшить PST1</t>
+  </si>
+  <si>
+    <t>Пробой канала Дончана</t>
+  </si>
+  <si>
+    <t>Отбой канала Дончана</t>
+  </si>
+  <si>
+    <t>PTA1_R2_BDDC</t>
+  </si>
+  <si>
+    <t>PTA1_R3_BDDC</t>
+  </si>
+  <si>
+    <t>PTA1_R4_BDDC</t>
+  </si>
+  <si>
+    <t>Попытка улучшить R_BDDC</t>
+  </si>
+  <si>
+    <t>ПрофитныйТрейдер-2 (СВ)</t>
+  </si>
+  <si>
+    <t>Доработка</t>
+  </si>
+  <si>
+    <t>Тестирование</t>
   </si>
 </sst>
 </file>
@@ -473,7 +530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -535,6 +592,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1297,7 +1357,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2333,7 +2393,7 @@
   <dimension ref="A1:U221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2344,7 +2404,7 @@
     <col min="5" max="5" width="13.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="17.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
     <col min="9" max="9" width="31" style="15" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="4"/>
   </cols>
@@ -2352,7 +2412,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45597.504619444444</v>
+        <v>45603.980694328704</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2566,7 +2626,7 @@
         <v>45480</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" ref="G7:G51" si="0">ROUND(IF(F7,F7-E7,$F$1-E7),0)</f>
+        <f t="shared" ref="G7:G70" si="0">ROUND(IF(F7,F7-E7,$F$1-E7),0)</f>
         <v>23</v>
       </c>
       <c r="H7" s="11" t="s">
@@ -2825,7 +2885,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>67</v>
@@ -3201,7 +3261,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="C22" s="8">
         <v>5</v>
@@ -3212,15 +3272,13 @@
       <c r="E22" s="10">
         <v>45510</v>
       </c>
-      <c r="F22" s="10">
-        <v>45515</v>
-      </c>
+      <c r="F22" s="10"/>
       <c r="G22" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>30</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>102</v>
@@ -3240,38 +3298,34 @@
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C23" s="8">
         <v>5</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E23" s="10">
-        <v>45513</v>
+        <v>45510</v>
       </c>
       <c r="F23" s="10">
         <v>45515</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" ref="G23" si="1">ROUND(IF(F23,F23-E23,$F$1-E23),0)</f>
+        <v>5</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="J23" s="14">
-        <v>4.3</v>
-      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="14"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -3284,37 +3338,37 @@
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
     </row>
-    <row r="24" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C24" s="8">
         <v>5</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E24" s="10">
-        <v>45514</v>
+        <v>45513</v>
       </c>
       <c r="F24" s="10">
-        <v>45535</v>
+        <v>45515</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>30</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="J24" s="14">
-        <v>4.9000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
@@ -3333,29 +3387,29 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C25" s="8">
         <v>5</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E25" s="10">
         <v>45514</v>
       </c>
       <c r="F25" s="10">
-        <v>45515</v>
+        <v>45535</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>30</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="J25" s="14">
         <v>4.9000000000000004</v>
@@ -3372,18 +3426,18 @@
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C26" s="8">
         <v>5</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E26" s="10">
         <v>45514</v>
@@ -3399,10 +3453,10 @@
         <v>30</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J26" s="14">
-        <v>4.5999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
@@ -3416,37 +3470,37 @@
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
     </row>
-    <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="8">
         <v>5</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E27" s="10">
+        <v>45514</v>
+      </c>
+      <c r="F27" s="10">
         <v>45515</v>
-      </c>
-      <c r="F27" s="10">
-        <v>45535</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H27" s="11" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="J27" s="14">
-        <v>4.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
@@ -3465,13 +3519,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C28" s="8">
         <v>5</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E28" s="10">
         <v>45515</v>
@@ -3487,10 +3541,10 @@
         <v>30</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="J28" s="14">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
@@ -3504,18 +3558,18 @@
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C29" s="8">
         <v>5</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E29" s="10">
         <v>45515</v>
@@ -3531,10 +3585,10 @@
         <v>30</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J29" s="14">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
@@ -3548,37 +3602,37 @@
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
     </row>
-    <row r="30" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C30" s="8">
         <v>5</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E30" s="10">
-        <v>45516</v>
+        <v>45515</v>
       </c>
       <c r="F30" s="10">
         <v>45535</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>30</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J30" s="14">
-        <v>5.0999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
@@ -3592,37 +3646,35 @@
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
     </row>
-    <row r="31" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C31" s="8">
         <v>5</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E31" s="10">
         <v>45516</v>
       </c>
-      <c r="F31" s="10">
-        <v>45536</v>
-      </c>
+      <c r="F31" s="10"/>
       <c r="G31" s="4">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>30</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J31" s="14">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
@@ -3636,30 +3688,38 @@
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C32" s="8">
         <v>5</v>
       </c>
+      <c r="D32" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="E32" s="10">
-        <v>45535</v>
+        <v>45516</v>
       </c>
       <c r="F32" s="10">
-        <v>45537</v>
+        <v>45536</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J32" s="14"/>
+      <c r="I32" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J32" s="14">
+        <v>5</v>
+      </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
@@ -3677,28 +3737,27 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C33" s="8">
         <v>5</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E33" s="10">
         <v>45535</v>
       </c>
       <c r="F33" s="10">
-        <v>45538</v>
+        <v>45537</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I33" s="9"/>
       <c r="J33" s="14"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
@@ -3712,33 +3771,34 @@
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C34" s="8">
         <v>5</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E34" s="10">
         <v>45535</v>
       </c>
       <c r="F34" s="10">
-        <v>45537</v>
+        <v>45538</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>30</v>
       </c>
       <c r="I34" s="9"/>
+      <c r="J34" s="14"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
@@ -3756,23 +3816,23 @@
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C35" s="8">
         <v>5</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E35" s="10">
-        <v>45536</v>
+        <v>45535</v>
       </c>
       <c r="F35" s="10">
         <v>45537</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>30</v>
@@ -3795,23 +3855,23 @@
         <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C36" s="8">
         <v>5</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E36" s="10">
-        <v>45537</v>
+        <v>45536</v>
       </c>
       <c r="F36" s="10">
         <v>45537</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>30</v>
@@ -3834,9 +3894,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="8"/>
+        <v>127</v>
+      </c>
+      <c r="C37" s="8">
+        <v>5</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="E37" s="10">
         <v>45537</v>
       </c>
@@ -3847,8 +3912,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H37" s="18" t="s">
-        <v>135</v>
+      <c r="H37" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="K37" s="8"/>
@@ -3863,14 +3928,19 @@
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="C38" s="8">
+        <v>5</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>137</v>
+      </c>
       <c r="E38" s="10">
         <v>45537</v>
       </c>
@@ -3881,8 +3951,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H38" s="18" t="s">
-        <v>135</v>
+      <c r="H38" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="K38" s="8"/>
@@ -3897,14 +3967,19 @@
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" s="8"/>
+        <v>126</v>
+      </c>
+      <c r="C39" s="8">
+        <v>5</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>137</v>
+      </c>
       <c r="E39" s="10">
         <v>45537</v>
       </c>
@@ -3915,8 +3990,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H39" s="18" t="s">
-        <v>135</v>
+      <c r="H39" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="K39" s="8"/>
@@ -3936,13 +4011,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C40" s="8">
         <v>2</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E40" s="10">
         <v>45539</v>
@@ -3950,9 +4025,11 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="H40" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="I40" s="9"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
@@ -3966,19 +4043,30 @@
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>39</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="E41" s="4"/>
+      <c r="B41" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" s="10">
+        <v>45602</v>
+      </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45598</v>
-      </c>
-      <c r="H41" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="I41" s="9"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -3996,15 +4084,26 @@
       <c r="A42" s="4">
         <v>40</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="E42" s="4"/>
+      <c r="B42" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="8">
+        <v>5</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="10">
+        <v>45602</v>
+      </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45598</v>
-      </c>
-      <c r="H42" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="I42" s="9"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
@@ -4022,15 +4121,28 @@
       <c r="A43" s="4">
         <v>41</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="B43" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="8">
+        <v>5</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" s="10">
+        <v>45602</v>
+      </c>
+      <c r="F43" s="10">
+        <v>45603</v>
+      </c>
       <c r="G43" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>45598</v>
-      </c>
-      <c r="H43" s="8"/>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="I43" s="9"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
@@ -4048,15 +4160,26 @@
       <c r="A44" s="4">
         <v>42</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="E44" s="4"/>
+      <c r="B44" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="8">
+        <v>5</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="10">
+        <v>45603</v>
+      </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45598</v>
-      </c>
-      <c r="H44" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>154</v>
+      </c>
       <c r="I44" s="9"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
@@ -4074,15 +4197,28 @@
       <c r="A45" s="4">
         <v>43</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="B45" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="8">
+        <v>5</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="10">
+        <v>45603</v>
+      </c>
+      <c r="F45" s="10">
+        <v>45603</v>
+      </c>
       <c r="G45" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>45598</v>
-      </c>
-      <c r="H45" s="8"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="I45" s="9"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
@@ -4100,15 +4236,26 @@
       <c r="A46" s="4">
         <v>44</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="E46" s="4"/>
+      <c r="B46" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="8">
+        <v>5</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="10">
+        <v>45603</v>
+      </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45598</v>
-      </c>
-      <c r="H46" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>155</v>
+      </c>
       <c r="I46" s="9"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
@@ -4126,15 +4273,28 @@
       <c r="A47" s="4">
         <v>45</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="B47" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="8">
+        <v>5</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" s="10">
+        <v>45603</v>
+      </c>
+      <c r="F47" s="10">
+        <v>45603</v>
+      </c>
       <c r="G47" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>45598</v>
-      </c>
-      <c r="H47" s="8"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="I47" s="9"/>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
@@ -4152,15 +4312,28 @@
       <c r="A48" s="4">
         <v>46</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
+      <c r="B48" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="8">
+        <v>5</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" s="10">
+        <v>45603</v>
+      </c>
+      <c r="F48" s="10">
+        <v>45603</v>
+      </c>
       <c r="G48" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>45598</v>
-      </c>
-      <c r="H48" s="8"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="I48" s="9"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
@@ -4178,15 +4351,28 @@
       <c r="A49" s="4">
         <v>47</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
+      <c r="B49" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="8">
+        <v>5</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" s="10">
+        <v>45603</v>
+      </c>
+      <c r="F49" s="10">
+        <v>45603</v>
+      </c>
       <c r="G49" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>45598</v>
-      </c>
-      <c r="H49" s="8"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="I49" s="9"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
@@ -4210,7 +4396,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45598</v>
+        <v>45604</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="9"/>
@@ -4236,7 +4422,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45598</v>
+        <v>45604</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="9"/>
@@ -4260,6 +4446,10 @@
       <c r="C52" s="8"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
+      <c r="G52" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45604</v>
+      </c>
       <c r="H52" s="8"/>
       <c r="I52" s="9"/>
       <c r="K52" s="8"/>
@@ -4282,6 +4472,10 @@
       <c r="C53" s="8"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
+      <c r="G53" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45604</v>
+      </c>
       <c r="H53" s="8"/>
       <c r="I53" s="9"/>
       <c r="K53" s="8"/>
@@ -4304,6 +4498,10 @@
       <c r="C54" s="8"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
+      <c r="G54" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45604</v>
+      </c>
       <c r="H54" s="8"/>
       <c r="I54" s="9"/>
       <c r="K54" s="8"/>
@@ -4326,6 +4524,10 @@
       <c r="C55" s="8"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
+      <c r="G55" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45604</v>
+      </c>
       <c r="H55" s="8"/>
       <c r="I55" s="9"/>
       <c r="K55" s="8"/>
@@ -4348,6 +4550,10 @@
       <c r="C56" s="8"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
+      <c r="G56" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45604</v>
+      </c>
       <c r="H56" s="8"/>
       <c r="I56" s="9"/>
       <c r="K56" s="8"/>
@@ -4370,6 +4576,10 @@
       <c r="C57" s="8"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
+      <c r="G57" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45604</v>
+      </c>
       <c r="H57" s="8"/>
       <c r="I57" s="9"/>
       <c r="K57" s="8"/>
@@ -4392,6 +4602,10 @@
       <c r="C58" s="8"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
+      <c r="G58" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45604</v>
+      </c>
       <c r="H58" s="8"/>
       <c r="I58" s="9"/>
       <c r="K58" s="8"/>
@@ -4414,6 +4628,10 @@
       <c r="C59" s="8"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
+      <c r="G59" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45604</v>
+      </c>
       <c r="H59" s="8"/>
       <c r="I59" s="9"/>
       <c r="K59" s="8"/>
@@ -4436,6 +4654,10 @@
       <c r="C60" s="8"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
+      <c r="G60" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45604</v>
+      </c>
       <c r="H60" s="8"/>
       <c r="I60" s="9"/>
       <c r="K60" s="8"/>
@@ -4458,6 +4680,10 @@
       <c r="C61" s="8"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
+      <c r="G61" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45604</v>
+      </c>
       <c r="H61" s="8"/>
       <c r="I61" s="9"/>
       <c r="K61" s="8"/>
@@ -4480,6 +4706,10 @@
       <c r="C62" s="8"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
+      <c r="G62" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45604</v>
+      </c>
       <c r="H62" s="8"/>
       <c r="I62" s="9"/>
       <c r="K62" s="8"/>
@@ -4502,6 +4732,10 @@
       <c r="C63" s="8"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
+      <c r="G63" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45604</v>
+      </c>
       <c r="H63" s="8"/>
       <c r="I63" s="9"/>
       <c r="K63" s="8"/>
@@ -4524,6 +4758,10 @@
       <c r="C64" s="8"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
+      <c r="G64" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45604</v>
+      </c>
       <c r="H64" s="8"/>
       <c r="I64" s="9"/>
       <c r="K64" s="8"/>
@@ -4546,6 +4784,10 @@
       <c r="C65" s="8"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
+      <c r="G65" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45604</v>
+      </c>
       <c r="H65" s="8"/>
       <c r="I65" s="9"/>
       <c r="K65" s="8"/>
@@ -4568,6 +4810,10 @@
       <c r="C66" s="8"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
+      <c r="G66" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45604</v>
+      </c>
       <c r="H66" s="8"/>
       <c r="I66" s="9"/>
       <c r="K66" s="8"/>
@@ -4590,6 +4836,10 @@
       <c r="C67" s="8"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
+      <c r="G67" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45604</v>
+      </c>
       <c r="H67" s="8"/>
       <c r="I67" s="9"/>
       <c r="K67" s="8"/>
@@ -4612,6 +4862,10 @@
       <c r="C68" s="8"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
+      <c r="G68" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45604</v>
+      </c>
       <c r="H68" s="8"/>
       <c r="I68" s="9"/>
       <c r="K68" s="8"/>
@@ -4634,6 +4888,10 @@
       <c r="C69" s="8"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
+      <c r="G69" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45604</v>
+      </c>
       <c r="H69" s="8"/>
       <c r="I69" s="9"/>
       <c r="K69" s="8"/>
@@ -4656,6 +4914,10 @@
       <c r="C70" s="8"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
+      <c r="G70" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>45604</v>
+      </c>
       <c r="H70" s="8"/>
       <c r="I70" s="9"/>
       <c r="K70" s="8"/>
@@ -4678,6 +4940,10 @@
       <c r="C71" s="8"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
+      <c r="G71" s="4">
+        <f t="shared" ref="G71:G131" ca="1" si="2">ROUND(IF(F71,F71-E71,$F$1-E71),0)</f>
+        <v>45604</v>
+      </c>
       <c r="H71" s="8"/>
       <c r="I71" s="9"/>
       <c r="K71" s="8"/>
@@ -4700,6 +4966,10 @@
       <c r="C72" s="8"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
+      <c r="G72" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H72" s="8"/>
       <c r="I72" s="9"/>
       <c r="K72" s="8"/>
@@ -4722,6 +4992,10 @@
       <c r="C73" s="8"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
+      <c r="G73" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H73" s="8"/>
       <c r="I73" s="9"/>
       <c r="K73" s="8"/>
@@ -4744,6 +5018,10 @@
       <c r="C74" s="8"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
+      <c r="G74" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H74" s="8"/>
       <c r="I74" s="9"/>
       <c r="K74" s="8"/>
@@ -4766,6 +5044,10 @@
       <c r="C75" s="8"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
+      <c r="G75" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H75" s="8"/>
       <c r="I75" s="9"/>
       <c r="K75" s="8"/>
@@ -4788,6 +5070,10 @@
       <c r="C76" s="8"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
+      <c r="G76" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H76" s="8"/>
       <c r="I76" s="9"/>
       <c r="K76" s="8"/>
@@ -4810,6 +5096,10 @@
       <c r="C77" s="8"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
+      <c r="G77" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H77" s="8"/>
       <c r="I77" s="9"/>
       <c r="K77" s="8"/>
@@ -4832,6 +5122,10 @@
       <c r="C78" s="8"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
+      <c r="G78" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H78" s="8"/>
       <c r="I78" s="9"/>
       <c r="K78" s="8"/>
@@ -4854,6 +5148,10 @@
       <c r="C79" s="8"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
+      <c r="G79" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H79" s="8"/>
       <c r="I79" s="9"/>
       <c r="K79" s="8"/>
@@ -4876,6 +5174,10 @@
       <c r="C80" s="8"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
+      <c r="G80" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H80" s="8"/>
       <c r="I80" s="9"/>
       <c r="K80" s="8"/>
@@ -4898,6 +5200,10 @@
       <c r="C81" s="8"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
+      <c r="G81" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H81" s="8"/>
       <c r="I81" s="9"/>
       <c r="K81" s="8"/>
@@ -4920,6 +5226,10 @@
       <c r="C82" s="8"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
+      <c r="G82" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H82" s="8"/>
       <c r="I82" s="9"/>
       <c r="K82" s="8"/>
@@ -4942,6 +5252,10 @@
       <c r="C83" s="8"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
+      <c r="G83" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H83" s="8"/>
       <c r="I83" s="9"/>
       <c r="K83" s="8"/>
@@ -4964,6 +5278,10 @@
       <c r="C84" s="8"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
+      <c r="G84" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H84" s="8"/>
       <c r="I84" s="9"/>
       <c r="K84" s="8"/>
@@ -4986,6 +5304,10 @@
       <c r="C85" s="8"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
+      <c r="G85" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H85" s="8"/>
       <c r="I85" s="9"/>
       <c r="K85" s="8"/>
@@ -5008,6 +5330,10 @@
       <c r="C86" s="8"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
+      <c r="G86" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H86" s="8"/>
       <c r="I86" s="9"/>
       <c r="K86" s="8"/>
@@ -5030,6 +5356,10 @@
       <c r="C87" s="8"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
+      <c r="G87" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H87" s="8"/>
       <c r="I87" s="9"/>
       <c r="K87" s="8"/>
@@ -5052,6 +5382,10 @@
       <c r="C88" s="8"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
+      <c r="G88" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H88" s="8"/>
       <c r="I88" s="9"/>
       <c r="K88" s="8"/>
@@ -5074,6 +5408,10 @@
       <c r="C89" s="8"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
+      <c r="G89" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H89" s="8"/>
       <c r="I89" s="9"/>
       <c r="K89" s="8"/>
@@ -5096,6 +5434,10 @@
       <c r="C90" s="8"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
+      <c r="G90" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H90" s="8"/>
       <c r="I90" s="9"/>
       <c r="K90" s="8"/>
@@ -5118,6 +5460,10 @@
       <c r="C91" s="8"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
+      <c r="G91" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H91" s="8"/>
       <c r="I91" s="9"/>
       <c r="K91" s="8"/>
@@ -5140,6 +5486,10 @@
       <c r="C92" s="8"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
+      <c r="G92" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H92" s="8"/>
       <c r="I92" s="9"/>
       <c r="K92" s="8"/>
@@ -5162,6 +5512,10 @@
       <c r="C93" s="8"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
+      <c r="G93" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
       <c r="K93" s="8"/>
@@ -5184,6 +5538,10 @@
       <c r="C94" s="8"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
+      <c r="G94" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H94" s="8"/>
       <c r="I94" s="9"/>
       <c r="K94" s="8"/>
@@ -5206,6 +5564,10 @@
       <c r="C95" s="8"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
+      <c r="G95" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H95" s="8"/>
       <c r="I95" s="9"/>
       <c r="K95" s="8"/>
@@ -5228,6 +5590,10 @@
       <c r="C96" s="8"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
+      <c r="G96" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H96" s="8"/>
       <c r="I96" s="9"/>
       <c r="K96" s="8"/>
@@ -5250,6 +5616,10 @@
       <c r="C97" s="8"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
+      <c r="G97" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H97" s="8"/>
       <c r="I97" s="9"/>
       <c r="K97" s="8"/>
@@ -5272,6 +5642,10 @@
       <c r="C98" s="8"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
+      <c r="G98" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H98" s="8"/>
       <c r="I98" s="9"/>
       <c r="K98" s="8"/>
@@ -5294,6 +5668,10 @@
       <c r="C99" s="8"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
+      <c r="G99" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H99" s="8"/>
       <c r="I99" s="9"/>
       <c r="K99" s="8"/>
@@ -5316,6 +5694,10 @@
       <c r="C100" s="8"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
+      <c r="G100" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H100" s="8"/>
       <c r="I100" s="9"/>
       <c r="K100" s="8"/>
@@ -5338,6 +5720,10 @@
       <c r="C101" s="8"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
+      <c r="G101" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H101" s="8"/>
       <c r="I101" s="9"/>
       <c r="K101" s="8"/>
@@ -5360,6 +5746,10 @@
       <c r="C102" s="8"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
+      <c r="G102" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H102" s="8"/>
       <c r="I102" s="9"/>
       <c r="K102" s="8"/>
@@ -5382,6 +5772,10 @@
       <c r="C103" s="8"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
+      <c r="G103" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H103" s="8"/>
       <c r="I103" s="9"/>
       <c r="K103" s="8"/>
@@ -5404,6 +5798,10 @@
       <c r="C104" s="8"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
+      <c r="G104" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H104" s="8"/>
       <c r="I104" s="9"/>
       <c r="K104" s="8"/>
@@ -5426,6 +5824,10 @@
       <c r="C105" s="8"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
+      <c r="G105" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H105" s="8"/>
       <c r="I105" s="9"/>
       <c r="K105" s="8"/>
@@ -5448,6 +5850,10 @@
       <c r="C106" s="8"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
+      <c r="G106" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H106" s="8"/>
       <c r="I106" s="9"/>
       <c r="K106" s="8"/>
@@ -5470,6 +5876,10 @@
       <c r="C107" s="8"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
+      <c r="G107" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H107" s="8"/>
       <c r="I107" s="9"/>
       <c r="K107" s="8"/>
@@ -5492,6 +5902,10 @@
       <c r="C108" s="8"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
+      <c r="G108" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H108" s="8"/>
       <c r="I108" s="9"/>
       <c r="K108" s="8"/>
@@ -5514,6 +5928,10 @@
       <c r="C109" s="8"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
+      <c r="G109" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H109" s="8"/>
       <c r="I109" s="9"/>
       <c r="K109" s="8"/>
@@ -5536,6 +5954,10 @@
       <c r="C110" s="8"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
+      <c r="G110" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H110" s="8"/>
       <c r="I110" s="9"/>
       <c r="K110" s="8"/>
@@ -5558,6 +5980,10 @@
       <c r="C111" s="8"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
+      <c r="G111" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H111" s="8"/>
       <c r="I111" s="9"/>
       <c r="K111" s="8"/>
@@ -5580,6 +6006,10 @@
       <c r="C112" s="8"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
+      <c r="G112" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H112" s="8"/>
       <c r="I112" s="9"/>
       <c r="K112" s="8"/>
@@ -5602,6 +6032,10 @@
       <c r="C113" s="8"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
+      <c r="G113" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H113" s="8"/>
       <c r="I113" s="9"/>
       <c r="K113" s="8"/>
@@ -5624,6 +6058,10 @@
       <c r="C114" s="8"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
+      <c r="G114" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H114" s="8"/>
       <c r="I114" s="9"/>
       <c r="K114" s="8"/>
@@ -5646,6 +6084,10 @@
       <c r="C115" s="8"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
+      <c r="G115" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H115" s="8"/>
       <c r="I115" s="9"/>
       <c r="K115" s="8"/>
@@ -5668,6 +6110,10 @@
       <c r="C116" s="8"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
+      <c r="G116" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H116" s="8"/>
       <c r="I116" s="9"/>
       <c r="K116" s="8"/>
@@ -5690,6 +6136,10 @@
       <c r="C117" s="8"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
+      <c r="G117" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H117" s="8"/>
       <c r="I117" s="9"/>
       <c r="K117" s="8"/>
@@ -5712,6 +6162,10 @@
       <c r="C118" s="8"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
+      <c r="G118" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H118" s="8"/>
       <c r="I118" s="9"/>
       <c r="K118" s="8"/>
@@ -5734,6 +6188,10 @@
       <c r="C119" s="8"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
+      <c r="G119" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H119" s="8"/>
       <c r="I119" s="9"/>
       <c r="K119" s="8"/>
@@ -5756,6 +6214,10 @@
       <c r="C120" s="8"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
+      <c r="G120" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H120" s="8"/>
       <c r="I120" s="9"/>
       <c r="K120" s="8"/>
@@ -5778,6 +6240,10 @@
       <c r="C121" s="8"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
+      <c r="G121" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H121" s="8"/>
       <c r="I121" s="9"/>
       <c r="K121" s="8"/>
@@ -5800,6 +6266,10 @@
       <c r="C122" s="8"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
+      <c r="G122" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H122" s="8"/>
       <c r="I122" s="9"/>
       <c r="K122" s="8"/>
@@ -5822,6 +6292,10 @@
       <c r="C123" s="8"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
+      <c r="G123" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H123" s="8"/>
       <c r="I123" s="9"/>
       <c r="K123" s="8"/>
@@ -5844,6 +6318,10 @@
       <c r="C124" s="8"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
+      <c r="G124" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H124" s="8"/>
       <c r="I124" s="9"/>
       <c r="K124" s="8"/>
@@ -5866,6 +6344,10 @@
       <c r="C125" s="8"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
+      <c r="G125" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H125" s="8"/>
       <c r="I125" s="9"/>
       <c r="K125" s="8"/>
@@ -5888,6 +6370,10 @@
       <c r="C126" s="8"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
+      <c r="G126" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H126" s="8"/>
       <c r="I126" s="9"/>
       <c r="K126" s="8"/>
@@ -5910,6 +6396,10 @@
       <c r="C127" s="8"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
+      <c r="G127" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H127" s="8"/>
       <c r="I127" s="9"/>
       <c r="K127" s="8"/>
@@ -5932,6 +6422,10 @@
       <c r="C128" s="8"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
+      <c r="G128" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H128" s="8"/>
       <c r="I128" s="9"/>
       <c r="K128" s="8"/>
@@ -5954,6 +6448,10 @@
       <c r="C129" s="8"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
+      <c r="G129" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H129" s="8"/>
       <c r="I129" s="9"/>
       <c r="K129" s="8"/>
@@ -5976,6 +6474,10 @@
       <c r="C130" s="8"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
+      <c r="G130" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H130" s="8"/>
       <c r="I130" s="9"/>
       <c r="K130" s="8"/>
@@ -5998,6 +6500,10 @@
       <c r="C131" s="8"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
+      <c r="G131" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45604</v>
+      </c>
       <c r="H131" s="8"/>
       <c r="I131" s="9"/>
       <c r="K131" s="8"/>
@@ -6939,15 +7445,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B7"/>
+  <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="80.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6998,6 +7504,14 @@
         <v>94</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5.5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="159">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -283,9 +283,6 @@
     <t>Конфликтная работа</t>
   </si>
   <si>
-    <t>Остутсвие стопа</t>
-  </si>
-  <si>
     <t>Работал только по стакану</t>
   </si>
   <si>
@@ -485,6 +482,18 @@
   </si>
   <si>
     <t>Тестирование</t>
+  </si>
+  <si>
+    <t>Протестить</t>
+  </si>
+  <si>
+    <t>Протестить на LKOH хорошие результаты</t>
+  </si>
+  <si>
+    <t>Протестить на CHMF хорошие результаты</t>
+  </si>
+  <si>
+    <t>Остутсвие стопа, Если делать ST1, то обратить внимание</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1366,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2392,8 +2401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2407,12 +2416,13 @@
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
     <col min="9" max="9" width="31" style="15" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="4"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45603.980694328704</v>
+        <v>45604.072455439818</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -3003,26 +3013,24 @@
         <v>5</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" s="10">
         <v>45515</v>
       </c>
-      <c r="F16" s="10">
-        <v>45535</v>
-      </c>
+      <c r="F16" s="10"/>
       <c r="G16" s="4">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>30</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J16" s="14">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -3068,7 +3076,9 @@
       <c r="J17" s="14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K17" s="8"/>
+      <c r="K17" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
@@ -3112,7 +3122,9 @@
       <c r="J18" s="14">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K18" s="8"/>
+      <c r="K18" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
@@ -3156,7 +3168,9 @@
       <c r="J19" s="14">
         <v>4.2</v>
       </c>
-      <c r="K19" s="8"/>
+      <c r="K19" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
@@ -3168,7 +3182,7 @@
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -3195,10 +3209,10 @@
         <v>30</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="J20" s="14">
-        <v>4.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -3244,7 +3258,9 @@
       <c r="J21" s="14">
         <v>4.8</v>
       </c>
-      <c r="K21" s="8"/>
+      <c r="K21" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
@@ -3261,7 +3277,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C22" s="8">
         <v>5</v>
@@ -3281,10 +3297,10 @@
         <v>67</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J22" s="14">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
@@ -3325,7 +3341,9 @@
         <v>30</v>
       </c>
       <c r="I23" s="9"/>
-      <c r="J23" s="14"/>
+      <c r="J23" s="14">
+        <v>4.8</v>
+      </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -3343,13 +3361,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="8">
         <v>5</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E24" s="10">
         <v>45513</v>
@@ -3365,12 +3383,14 @@
         <v>30</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J24" s="14">
         <v>4.3</v>
       </c>
-      <c r="K24" s="8"/>
+      <c r="K24" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
@@ -3387,13 +3407,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="8">
         <v>5</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" s="10">
         <v>45514</v>
@@ -3409,10 +3429,10 @@
         <v>30</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J25" s="14">
-        <v>4.9000000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
@@ -3431,13 +3451,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26" s="8">
         <v>5</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E26" s="10">
         <v>45514</v>
@@ -3453,10 +3473,10 @@
         <v>30</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J26" s="14">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
@@ -3470,18 +3490,18 @@
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" s="8">
         <v>5</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E27" s="10">
         <v>45514</v>
@@ -3497,12 +3517,14 @@
         <v>30</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J27" s="14">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K27" s="8"/>
+      <c r="K27" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
@@ -3519,13 +3541,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" s="8">
         <v>5</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E28" s="10">
         <v>45515</v>
@@ -3546,7 +3568,9 @@
       <c r="J28" s="14">
         <v>4.2</v>
       </c>
-      <c r="K28" s="8"/>
+      <c r="K28" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
@@ -3563,13 +3587,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" s="8">
         <v>5</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E29" s="10">
         <v>45515</v>
@@ -3585,12 +3609,14 @@
         <v>30</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J29" s="14">
         <v>4.8</v>
       </c>
-      <c r="K29" s="8"/>
+      <c r="K29" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
@@ -3602,18 +3628,18 @@
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="8">
         <v>5</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E30" s="10">
         <v>45515</v>
@@ -3629,12 +3655,14 @@
         <v>30</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J30" s="14">
         <v>4.7</v>
       </c>
-      <c r="K30" s="8"/>
+      <c r="K30" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
@@ -3651,27 +3679,29 @@
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31" s="8">
         <v>5</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E31" s="10">
         <v>45516</v>
       </c>
-      <c r="F31" s="10"/>
+      <c r="F31" s="10">
+        <v>45535</v>
+      </c>
       <c r="G31" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J31" s="14">
         <v>5.0999999999999996</v>
@@ -3693,13 +3723,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C32" s="8">
         <v>5</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E32" s="10">
         <v>45516</v>
@@ -3715,10 +3745,10 @@
         <v>30</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J32" s="14">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -3737,13 +3767,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C33" s="8">
         <v>5</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E33" s="10">
         <v>45535</v>
@@ -3758,8 +3788,13 @@
       <c r="H33" s="11" t="s">
         <v>30</v>
       </c>
+      <c r="I33" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="J33" s="14"/>
-      <c r="K33" s="8"/>
+      <c r="K33" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
@@ -3776,13 +3811,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" s="8">
         <v>5</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E34" s="10">
         <v>45535</v>
@@ -3798,7 +3833,9 @@
         <v>30</v>
       </c>
       <c r="I34" s="9"/>
-      <c r="J34" s="14"/>
+      <c r="J34" s="14">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
@@ -3816,13 +3853,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C35" s="8">
         <v>5</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E35" s="10">
         <v>45535</v>
@@ -3837,8 +3874,12 @@
       <c r="H35" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I35" s="9"/>
-      <c r="K35" s="8"/>
+      <c r="I35" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
@@ -3855,13 +3896,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C36" s="8">
         <v>5</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E36" s="10">
         <v>45536</v>
@@ -3876,8 +3917,12 @@
       <c r="H36" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="9"/>
-      <c r="K36" s="8"/>
+      <c r="I36" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
@@ -3894,13 +3939,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C37" s="8">
         <v>5</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E37" s="10">
         <v>45537</v>
@@ -3915,8 +3960,15 @@
       <c r="H37" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I37" s="9"/>
-      <c r="K37" s="8"/>
+      <c r="I37" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J37" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
@@ -3933,13 +3985,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C38" s="8">
         <v>5</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E38" s="10">
         <v>45537</v>
@@ -3954,8 +4006,15 @@
       <c r="H38" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="9"/>
-      <c r="K38" s="8"/>
+      <c r="I38" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="J38" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
@@ -3972,13 +4031,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" s="8">
         <v>5</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E39" s="10">
         <v>45537</v>
@@ -3993,8 +4052,15 @@
       <c r="H39" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I39" s="9"/>
-      <c r="K39" s="8"/>
+      <c r="I39" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="J39" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
@@ -4011,13 +4077,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C40" s="8">
         <v>2</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E40" s="10">
         <v>45539</v>
@@ -4048,13 +4114,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C41" s="8">
         <v>5.5</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E41" s="10">
         <v>45602</v>
@@ -4085,13 +4151,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C42" s="8">
         <v>5</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E42" s="10">
         <v>45602</v>
@@ -4122,13 +4188,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C43" s="8">
         <v>5</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E43" s="10">
         <v>45602</v>
@@ -4143,7 +4209,9 @@
       <c r="H43" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I43" s="9"/>
+      <c r="J43" s="9">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
@@ -4161,13 +4229,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C44" s="8">
         <v>5</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E44" s="10">
         <v>45603</v>
@@ -4178,9 +4246,9 @@
         <v>1</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="I44" s="9"/>
+        <v>153</v>
+      </c>
+      <c r="J44" s="9"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
@@ -4198,13 +4266,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C45" s="8">
         <v>5</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E45" s="10">
         <v>45603</v>
@@ -4219,7 +4287,9 @@
       <c r="H45" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I45" s="9"/>
+      <c r="J45" s="9">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
@@ -4237,13 +4307,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C46" s="8">
         <v>5</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E46" s="10">
         <v>45603</v>
@@ -4254,9 +4324,9 @@
         <v>1</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="I46" s="9"/>
+        <v>154</v>
+      </c>
+      <c r="J46" s="9"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
@@ -4274,13 +4344,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C47" s="8">
         <v>5</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E47" s="10">
         <v>45603</v>
@@ -4295,7 +4365,9 @@
       <c r="H47" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I47" s="9"/>
+      <c r="J47" s="9">
+        <v>4.3</v>
+      </c>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
@@ -4313,13 +4385,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C48" s="8">
         <v>5</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E48" s="10">
         <v>45603</v>
@@ -4334,7 +4406,9 @@
       <c r="H48" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I48" s="9"/>
+      <c r="J48" s="9">
+        <v>4.2</v>
+      </c>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
@@ -4352,13 +4426,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C49" s="8">
         <v>5</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E49" s="10">
         <v>45603</v>
@@ -4373,7 +4447,9 @@
       <c r="H49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I49" s="9"/>
+      <c r="J49" s="9">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
@@ -7461,7 +7537,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7469,7 +7545,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7477,7 +7553,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7485,7 +7561,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7493,7 +7569,7 @@
         <v>4.5</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7501,7 +7577,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7509,7 +7585,7 @@
         <v>5.5</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="158">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -478,12 +478,6 @@
     <t>ПрофитныйТрейдер-2 (СВ)</t>
   </si>
   <si>
-    <t>Доработка</t>
-  </si>
-  <si>
-    <t>Тестирование</t>
-  </si>
-  <si>
     <t>Протестить</t>
   </si>
   <si>
@@ -494,6 +488,9 @@
   </si>
   <si>
     <t>Остутсвие стопа, Если делать ST1, то обратить внимание</t>
+  </si>
+  <si>
+    <t>Хорошо работает на фьючах</t>
   </si>
 </sst>
 </file>
@@ -512,7 +509,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -537,12 +534,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -556,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -601,12 +592,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2401,8 +2386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2422,7 +2407,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45604.072455439818</v>
+        <v>45605.012654398146</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2895,7 +2880,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>67</v>
@@ -2930,21 +2915,19 @@
       <c r="E14" s="10">
         <v>45499</v>
       </c>
-      <c r="F14" s="10">
-        <v>45510</v>
-      </c>
+      <c r="F14" s="10"/>
       <c r="G14" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>30</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>68</v>
       </c>
       <c r="J14" s="14">
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -3021,7 +3004,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>67</v>
@@ -3030,7 +3013,7 @@
         <v>117</v>
       </c>
       <c r="J16" s="14">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -3077,7 +3060,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
@@ -3123,7 +3106,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -3169,7 +3152,7 @@
         <v>4.2</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -3209,7 +3192,7 @@
         <v>30</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J20" s="14">
         <v>5.0999999999999996</v>
@@ -3259,7 +3242,7 @@
         <v>4.8</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
@@ -3291,7 +3274,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H22" s="17" t="s">
         <v>67</v>
@@ -3300,7 +3283,7 @@
         <v>101</v>
       </c>
       <c r="J22" s="14">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
@@ -3389,7 +3372,7 @@
         <v>4.3</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
@@ -3490,7 +3473,7 @@
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
     </row>
-    <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -3523,7 +3506,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -3569,7 +3552,7 @@
         <v>4.2</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
@@ -3615,7 +3598,7 @@
         <v>4.8</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -3628,7 +3611,7 @@
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
     </row>
-    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -3661,7 +3644,7 @@
         <v>4.7</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
@@ -3789,11 +3772,11 @@
         <v>30</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J33" s="14"/>
       <c r="K33" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
@@ -3875,10 +3858,10 @@
         <v>30</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
@@ -3918,10 +3901,10 @@
         <v>30</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
@@ -3961,13 +3944,13 @@
         <v>30</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J37" s="4">
         <v>4.7</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
@@ -4007,13 +3990,13 @@
         <v>30</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J38" s="4">
         <v>4.5999999999999996</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
@@ -4053,13 +4036,13 @@
         <v>30</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J39" s="4">
         <v>4.5999999999999996</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
@@ -4091,7 +4074,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H40" s="17" t="s">
         <v>67</v>
@@ -4128,7 +4111,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>67</v>
@@ -4165,7 +4148,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H42" s="17" t="s">
         <v>67</v>
@@ -4240,15 +4223,19 @@
       <c r="E44" s="10">
         <v>45603</v>
       </c>
-      <c r="F44" s="4"/>
+      <c r="F44" s="10">
+        <v>45605</v>
+      </c>
       <c r="G44" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J44" s="9"/>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44" s="9">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
@@ -4321,12 +4308,17 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="J46" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J46" s="9">
+        <v>6.1</v>
+      </c>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
@@ -4472,7 +4464,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="9"/>
@@ -4498,7 +4490,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="9"/>
@@ -4524,7 +4516,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="9"/>
@@ -4550,7 +4542,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="9"/>
@@ -4576,7 +4568,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="9"/>
@@ -4602,7 +4594,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="9"/>
@@ -4628,7 +4620,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="9"/>
@@ -4654,7 +4646,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="9"/>
@@ -4680,7 +4672,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="9"/>
@@ -4706,7 +4698,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="9"/>
@@ -4732,7 +4724,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="9"/>
@@ -4758,7 +4750,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="9"/>
@@ -4784,7 +4776,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="9"/>
@@ -4810,7 +4802,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="9"/>
@@ -4836,7 +4828,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="9"/>
@@ -4862,7 +4854,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="9"/>
@@ -4888,7 +4880,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="9"/>
@@ -4914,7 +4906,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="9"/>
@@ -4940,7 +4932,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="9"/>
@@ -4966,7 +4958,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="9"/>
@@ -4992,7 +4984,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="9"/>
@@ -5018,7 +5010,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4">
         <f t="shared" ref="G71:G131" ca="1" si="2">ROUND(IF(F71,F71-E71,$F$1-E71),0)</f>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="9"/>
@@ -5044,7 +5036,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="9"/>
@@ -5070,7 +5062,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="9"/>
@@ -5096,7 +5088,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="9"/>
@@ -5122,7 +5114,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="9"/>
@@ -5148,7 +5140,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="9"/>
@@ -5174,7 +5166,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="9"/>
@@ -5200,7 +5192,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="9"/>
@@ -5226,7 +5218,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="9"/>
@@ -5252,7 +5244,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="9"/>
@@ -5278,7 +5270,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="9"/>
@@ -5304,7 +5296,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="9"/>
@@ -5330,7 +5322,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="9"/>
@@ -5356,7 +5348,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="9"/>
@@ -5382,7 +5374,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="9"/>
@@ -5408,7 +5400,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="9"/>
@@ -5434,7 +5426,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="9"/>
@@ -5460,7 +5452,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="9"/>
@@ -5486,7 +5478,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="9"/>
@@ -5512,7 +5504,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="9"/>
@@ -5538,7 +5530,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="9"/>
@@ -5564,7 +5556,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="9"/>
@@ -5590,7 +5582,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
@@ -5616,7 +5608,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="9"/>
@@ -5642,7 +5634,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="9"/>
@@ -5668,7 +5660,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="9"/>
@@ -5694,7 +5686,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="9"/>
@@ -5720,7 +5712,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="9"/>
@@ -5746,7 +5738,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="9"/>
@@ -5772,7 +5764,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="9"/>
@@ -5798,7 +5790,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="9"/>
@@ -5824,7 +5816,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="9"/>
@@ -5850,7 +5842,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="9"/>
@@ -5876,7 +5868,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="9"/>
@@ -5902,7 +5894,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="9"/>
@@ -5928,7 +5920,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="9"/>
@@ -5954,7 +5946,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="9"/>
@@ -5980,7 +5972,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="9"/>
@@ -6006,7 +5998,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="9"/>
@@ -6032,7 +6024,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="9"/>
@@ -6058,7 +6050,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="9"/>
@@ -6084,7 +6076,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="9"/>
@@ -6110,7 +6102,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="9"/>
@@ -6136,7 +6128,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H114" s="8"/>
       <c r="I114" s="9"/>
@@ -6162,7 +6154,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="9"/>
@@ -6188,7 +6180,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="9"/>
@@ -6214,7 +6206,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="9"/>
@@ -6240,7 +6232,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="9"/>
@@ -6266,7 +6258,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="9"/>
@@ -6292,7 +6284,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="9"/>
@@ -6318,7 +6310,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="9"/>
@@ -6344,7 +6336,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="9"/>
@@ -6370,7 +6362,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="9"/>
@@ -6396,7 +6388,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="9"/>
@@ -6422,7 +6414,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="9"/>
@@ -6448,7 +6440,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="9"/>
@@ -6474,7 +6466,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="9"/>
@@ -6500,7 +6492,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="9"/>
@@ -6526,7 +6518,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="9"/>
@@ -6552,7 +6544,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="9"/>
@@ -6578,7 +6570,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="9"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="160">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -491,6 +491,12 @@
   </si>
   <si>
     <t>Хорошо работает на фьючах</t>
+  </si>
+  <si>
+    <t>PTA1_R5_BDDC</t>
+  </si>
+  <si>
+    <t>Увеличенный R_BDDC</t>
   </si>
 </sst>
 </file>
@@ -2386,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2407,7 +2413,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45605.012654398146</v>
+        <v>45608.159207291668</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2880,7 +2886,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>67</v>
@@ -2918,7 +2924,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H14" s="17" t="s">
         <v>67</v>
@@ -3004,7 +3010,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>67</v>
@@ -3059,9 +3065,7 @@
       <c r="J17" s="14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K17" s="9" t="s">
-        <v>153</v>
-      </c>
+      <c r="K17" s="9"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
@@ -3274,7 +3278,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H22" s="17" t="s">
         <v>67</v>
@@ -3371,9 +3375,7 @@
       <c r="J24" s="14">
         <v>4.3</v>
       </c>
-      <c r="K24" s="9" t="s">
-        <v>153</v>
-      </c>
+      <c r="K24" s="9"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
@@ -3774,10 +3776,10 @@
       <c r="I33" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="J33" s="14"/>
-      <c r="K33" s="9" t="s">
-        <v>153</v>
-      </c>
+      <c r="J33" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K33" s="9"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
@@ -4074,7 +4076,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H40" s="17" t="s">
         <v>67</v>
@@ -4111,7 +4113,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>67</v>
@@ -4148,7 +4150,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H42" s="17" t="s">
         <v>67</v>
@@ -4308,7 +4310,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H46" s="17" t="s">
         <v>67</v>
@@ -4458,16 +4460,30 @@
       <c r="A50" s="4">
         <v>48</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="E50" s="4"/>
+      <c r="B50" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="8">
+        <v>5</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E50" s="10">
+        <v>45608</v>
+      </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45605</v>
-      </c>
-      <c r="H50" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="I50" s="9"/>
+      <c r="J50" s="9">
+        <v>6.2</v>
+      </c>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
@@ -4490,7 +4506,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="9"/>
@@ -4516,7 +4532,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="9"/>
@@ -4542,7 +4558,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="9"/>
@@ -4568,7 +4584,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="9"/>
@@ -4594,7 +4610,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="9"/>
@@ -4620,7 +4636,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="9"/>
@@ -4646,7 +4662,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="9"/>
@@ -4672,7 +4688,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="9"/>
@@ -4698,7 +4714,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="9"/>
@@ -4724,7 +4740,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="9"/>
@@ -4750,7 +4766,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="9"/>
@@ -4776,7 +4792,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="9"/>
@@ -4802,7 +4818,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="9"/>
@@ -4828,7 +4844,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="9"/>
@@ -4854,7 +4870,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="9"/>
@@ -4880,7 +4896,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="9"/>
@@ -4906,7 +4922,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="9"/>
@@ -4932,7 +4948,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="9"/>
@@ -4958,7 +4974,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="9"/>
@@ -4984,7 +5000,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="9"/>
@@ -5010,7 +5026,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4">
         <f t="shared" ref="G71:G131" ca="1" si="2">ROUND(IF(F71,F71-E71,$F$1-E71),0)</f>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="9"/>
@@ -5036,7 +5052,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="9"/>
@@ -5062,7 +5078,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="9"/>
@@ -5088,7 +5104,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="9"/>
@@ -5114,7 +5130,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="9"/>
@@ -5140,7 +5156,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="9"/>
@@ -5166,7 +5182,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="9"/>
@@ -5192,7 +5208,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="9"/>
@@ -5218,7 +5234,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="9"/>
@@ -5244,7 +5260,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="9"/>
@@ -5270,7 +5286,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="9"/>
@@ -5296,7 +5312,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="9"/>
@@ -5322,7 +5338,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="9"/>
@@ -5348,7 +5364,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="9"/>
@@ -5374,7 +5390,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="9"/>
@@ -5400,7 +5416,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="9"/>
@@ -5426,7 +5442,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="9"/>
@@ -5452,7 +5468,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="9"/>
@@ -5478,7 +5494,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="9"/>
@@ -5504,7 +5520,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="9"/>
@@ -5530,7 +5546,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="9"/>
@@ -5556,7 +5572,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="9"/>
@@ -5582,7 +5598,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
@@ -5608,7 +5624,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="9"/>
@@ -5634,7 +5650,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="9"/>
@@ -5660,7 +5676,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="9"/>
@@ -5686,7 +5702,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="9"/>
@@ -5712,7 +5728,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="9"/>
@@ -5738,7 +5754,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="9"/>
@@ -5764,7 +5780,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="9"/>
@@ -5790,7 +5806,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="9"/>
@@ -5816,7 +5832,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="9"/>
@@ -5842,7 +5858,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="9"/>
@@ -5868,7 +5884,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="9"/>
@@ -5894,7 +5910,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="9"/>
@@ -5920,7 +5936,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="9"/>
@@ -5946,7 +5962,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="9"/>
@@ -5972,7 +5988,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="9"/>
@@ -5998,7 +6014,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="9"/>
@@ -6024,7 +6040,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="9"/>
@@ -6050,7 +6066,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="9"/>
@@ -6076,7 +6092,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="9"/>
@@ -6102,7 +6118,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="9"/>
@@ -6128,7 +6144,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H114" s="8"/>
       <c r="I114" s="9"/>
@@ -6154,7 +6170,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="9"/>
@@ -6180,7 +6196,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="9"/>
@@ -6206,7 +6222,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="9"/>
@@ -6232,7 +6248,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="9"/>
@@ -6258,7 +6274,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="9"/>
@@ -6284,7 +6300,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="9"/>
@@ -6310,7 +6326,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="9"/>
@@ -6336,7 +6352,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="9"/>
@@ -6362,7 +6378,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="9"/>
@@ -6388,7 +6404,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="9"/>
@@ -6414,7 +6430,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="9"/>
@@ -6440,7 +6456,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="9"/>
@@ -6466,7 +6482,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="9"/>
@@ -6492,7 +6508,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="9"/>
@@ -6518,7 +6534,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="9"/>
@@ -6544,7 +6560,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="9"/>
@@ -6570,7 +6586,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="9"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="166">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -497,6 +497,24 @@
   </si>
   <si>
     <t>Увеличенный R_BDDC</t>
+  </si>
+  <si>
+    <t>PTA1_R6_BDDC</t>
+  </si>
+  <si>
+    <t>PTA2_DCC</t>
+  </si>
+  <si>
+    <t>Универсальный R_BDDC</t>
+  </si>
+  <si>
+    <t>PTA1_R7_BDDC</t>
+  </si>
+  <si>
+    <t>Уменьшенный R_BDDC</t>
+  </si>
+  <si>
+    <t>тест</t>
   </si>
 </sst>
 </file>
@@ -2392,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2413,7 +2431,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45608.159207291668</v>
+        <v>45608.798717939811</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2886,7 +2904,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>67</v>
@@ -2924,7 +2942,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H14" s="17" t="s">
         <v>67</v>
@@ -3010,7 +3028,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>67</v>
@@ -3278,7 +3296,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H22" s="17" t="s">
         <v>67</v>
@@ -4076,7 +4094,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H40" s="17" t="s">
         <v>67</v>
@@ -4113,7 +4131,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>67</v>
@@ -4150,7 +4168,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H42" s="17" t="s">
         <v>67</v>
@@ -4194,7 +4212,7 @@
       <c r="H43" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="4">
         <v>4.0999999999999996</v>
       </c>
       <c r="K43" s="8"/>
@@ -4235,7 +4253,7 @@
       <c r="H44" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J44" s="4">
         <v>4.0999999999999996</v>
       </c>
       <c r="K44" s="8"/>
@@ -4276,7 +4294,7 @@
       <c r="H45" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45" s="4">
         <v>4.0999999999999996</v>
       </c>
       <c r="K45" s="8"/>
@@ -4310,7 +4328,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H46" s="17" t="s">
         <v>67</v>
@@ -4318,7 +4336,7 @@
       <c r="I46" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J46" s="4">
         <v>6.1</v>
       </c>
       <c r="K46" s="8"/>
@@ -4359,7 +4377,7 @@
       <c r="H47" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J47" s="4">
         <v>4.3</v>
       </c>
       <c r="K47" s="8"/>
@@ -4400,7 +4418,7 @@
       <c r="H48" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J48" s="9">
+      <c r="J48" s="4">
         <v>4.2</v>
       </c>
       <c r="K48" s="8"/>
@@ -4441,7 +4459,7 @@
       <c r="H49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J49" s="4">
         <v>4.0999999999999996</v>
       </c>
       <c r="K49" s="8"/>
@@ -4475,13 +4493,13 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="17" t="s">
         <v>67</v>
       </c>
       <c r="I50" s="9"/>
-      <c r="J50" s="9">
+      <c r="J50" s="4">
         <v>6.2</v>
       </c>
       <c r="K50" s="8"/>
@@ -4500,16 +4518,30 @@
       <c r="A51" s="4">
         <v>49</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="E51" s="4"/>
+      <c r="B51" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="8">
+        <v>5</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E51" s="10">
+        <v>45608</v>
+      </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45608</v>
-      </c>
-      <c r="H51" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="I51" s="9"/>
+      <c r="J51" s="4">
+        <v>6.3</v>
+      </c>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
@@ -4526,16 +4558,32 @@
       <c r="A52" s="4">
         <v>50</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
+      <c r="B52" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="8">
+        <v>5</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" s="10">
+        <v>45608</v>
+      </c>
+      <c r="F52" s="10">
+        <v>45608</v>
+      </c>
       <c r="G52" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>45608</v>
-      </c>
-      <c r="H52" s="8"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="I52" s="9"/>
+      <c r="J52" s="4">
+        <v>5.8</v>
+      </c>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
@@ -4552,15 +4600,26 @@
       <c r="A53" s="4">
         <v>51</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="E53" s="4"/>
+      <c r="B53" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="8">
+        <v>5</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E53" s="10">
+        <v>45608</v>
+      </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45608</v>
-      </c>
-      <c r="H53" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>165</v>
+      </c>
       <c r="I53" s="9"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
@@ -4584,7 +4643,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="9"/>
@@ -4610,7 +4669,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="9"/>
@@ -4636,7 +4695,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="9"/>
@@ -4662,7 +4721,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="9"/>
@@ -4688,7 +4747,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="9"/>
@@ -4714,7 +4773,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="9"/>
@@ -4740,7 +4799,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="9"/>
@@ -4766,7 +4825,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="9"/>
@@ -4792,7 +4851,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="9"/>
@@ -4818,7 +4877,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="9"/>
@@ -4844,7 +4903,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="9"/>
@@ -4870,7 +4929,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="9"/>
@@ -4896,7 +4955,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="9"/>
@@ -4922,7 +4981,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="9"/>
@@ -4948,7 +5007,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="9"/>
@@ -4974,7 +5033,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="9"/>
@@ -5000,7 +5059,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="9"/>
@@ -5026,7 +5085,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4">
         <f t="shared" ref="G71:G131" ca="1" si="2">ROUND(IF(F71,F71-E71,$F$1-E71),0)</f>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="9"/>
@@ -5052,7 +5111,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="9"/>
@@ -5078,7 +5137,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="9"/>
@@ -5104,7 +5163,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="9"/>
@@ -5130,7 +5189,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="9"/>
@@ -5156,7 +5215,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="9"/>
@@ -5182,7 +5241,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="9"/>
@@ -5208,7 +5267,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="9"/>
@@ -5234,7 +5293,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="9"/>
@@ -5260,7 +5319,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="9"/>
@@ -5286,7 +5345,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="9"/>
@@ -5312,7 +5371,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="9"/>
@@ -5338,7 +5397,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="9"/>
@@ -5364,7 +5423,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="9"/>
@@ -5390,7 +5449,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="9"/>
@@ -5416,7 +5475,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="9"/>
@@ -5442,7 +5501,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="9"/>
@@ -5468,7 +5527,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="9"/>
@@ -5494,7 +5553,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="9"/>
@@ -5520,7 +5579,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="9"/>
@@ -5546,7 +5605,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="9"/>
@@ -5572,7 +5631,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="9"/>
@@ -5598,7 +5657,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
@@ -5624,7 +5683,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="9"/>
@@ -5650,7 +5709,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="9"/>
@@ -5676,7 +5735,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="9"/>
@@ -5702,7 +5761,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="9"/>
@@ -5728,7 +5787,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="9"/>
@@ -5754,7 +5813,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="9"/>
@@ -5780,7 +5839,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="9"/>
@@ -5806,7 +5865,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="9"/>
@@ -5832,7 +5891,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="9"/>
@@ -5858,7 +5917,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="9"/>
@@ -5884,7 +5943,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="9"/>
@@ -5910,7 +5969,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="9"/>
@@ -5936,7 +5995,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="9"/>
@@ -5962,7 +6021,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="9"/>
@@ -5988,7 +6047,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="9"/>
@@ -6014,7 +6073,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="9"/>
@@ -6040,7 +6099,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="9"/>
@@ -6066,7 +6125,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="9"/>
@@ -6092,7 +6151,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="9"/>
@@ -6118,7 +6177,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="9"/>
@@ -6144,7 +6203,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H114" s="8"/>
       <c r="I114" s="9"/>
@@ -6170,7 +6229,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="9"/>
@@ -6196,7 +6255,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="9"/>
@@ -6222,7 +6281,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="9"/>
@@ -6248,7 +6307,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="9"/>
@@ -6274,7 +6333,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="9"/>
@@ -6300,7 +6359,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="9"/>
@@ -6326,7 +6385,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="9"/>
@@ -6352,7 +6411,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="9"/>
@@ -6378,7 +6437,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="9"/>
@@ -6404,7 +6463,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="9"/>
@@ -6430,7 +6489,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="9"/>
@@ -6456,7 +6515,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="9"/>
@@ -6482,7 +6541,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="9"/>
@@ -6508,7 +6567,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="9"/>
@@ -6534,7 +6593,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="9"/>
@@ -6560,7 +6619,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="9"/>
@@ -6586,7 +6645,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="9"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="166">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -2410,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2431,7 +2431,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45608.798717939811</v>
+        <v>45609.025364004628</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -3171,11 +3171,9 @@
         <v>87</v>
       </c>
       <c r="J19" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>153</v>
-      </c>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K19" s="9"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="11385" yWindow="1560" windowWidth="16545" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="План" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="165">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -512,9 +512,6 @@
   </si>
   <si>
     <t>Уменьшенный R_BDDC</t>
-  </si>
-  <si>
-    <t>тест</t>
   </si>
 </sst>
 </file>
@@ -2410,8 +2407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2431,7 +2428,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45609.025364004628</v>
+        <v>45609.670814583333</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2904,7 +2901,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>67</v>
@@ -2942,7 +2939,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H14" s="17" t="s">
         <v>67</v>
@@ -3028,7 +3025,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>67</v>
@@ -3157,21 +3154,19 @@
       <c r="E19" s="10">
         <v>45509</v>
       </c>
-      <c r="F19" s="10">
-        <v>45510</v>
-      </c>
+      <c r="F19" s="10"/>
       <c r="G19" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>30</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>87</v>
       </c>
       <c r="J19" s="14">
-        <v>4.9000000000000004</v>
+        <v>5.4</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="8"/>
@@ -3294,7 +3289,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H22" s="17" t="s">
         <v>67</v>
@@ -4092,7 +4087,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H40" s="17" t="s">
         <v>67</v>
@@ -4129,7 +4124,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>67</v>
@@ -4166,7 +4161,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H42" s="17" t="s">
         <v>67</v>
@@ -4323,13 +4318,15 @@
       <c r="E46" s="10">
         <v>45603</v>
       </c>
-      <c r="F46" s="4"/>
+      <c r="F46" s="10">
+        <v>45609</v>
+      </c>
       <c r="G46" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H46" s="17" t="s">
-        <v>67</v>
+      <c r="H46" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I46" s="15" t="s">
         <v>157</v>
@@ -4488,13 +4485,15 @@
       <c r="E50" s="10">
         <v>45608</v>
       </c>
-      <c r="F50" s="4"/>
+      <c r="F50" s="10">
+        <v>45609</v>
+      </c>
       <c r="G50" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H50" s="17" t="s">
-        <v>67</v>
+      <c r="H50" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="4">
@@ -4528,13 +4527,15 @@
       <c r="E51" s="10">
         <v>45608</v>
       </c>
-      <c r="F51" s="4"/>
+      <c r="F51" s="10">
+        <v>45609</v>
+      </c>
       <c r="G51" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H51" s="17" t="s">
-        <v>67</v>
+      <c r="H51" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="4">
@@ -4613,12 +4614,15 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>165</v>
+        <v>2</v>
+      </c>
+      <c r="H53" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="I53" s="9"/>
+      <c r="J53" s="4">
+        <v>6.5</v>
+      </c>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
@@ -4641,7 +4645,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="9"/>
@@ -4667,7 +4671,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="9"/>
@@ -4693,7 +4697,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="9"/>
@@ -4719,7 +4723,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="9"/>
@@ -4745,7 +4749,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="9"/>
@@ -4771,7 +4775,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="9"/>
@@ -4797,7 +4801,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="9"/>
@@ -4823,7 +4827,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="9"/>
@@ -4849,7 +4853,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="9"/>
@@ -4875,7 +4879,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="9"/>
@@ -4901,7 +4905,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="9"/>
@@ -4927,7 +4931,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="9"/>
@@ -4953,7 +4957,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="9"/>
@@ -4979,7 +4983,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="9"/>
@@ -5005,7 +5009,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="9"/>
@@ -5031,7 +5035,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="9"/>
@@ -5057,7 +5061,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="9"/>
@@ -5083,7 +5087,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4">
         <f t="shared" ref="G71:G131" ca="1" si="2">ROUND(IF(F71,F71-E71,$F$1-E71),0)</f>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="9"/>
@@ -5109,7 +5113,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="9"/>
@@ -5135,7 +5139,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="9"/>
@@ -5161,7 +5165,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="9"/>
@@ -5187,7 +5191,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="9"/>
@@ -5213,7 +5217,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="9"/>
@@ -5239,7 +5243,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="9"/>
@@ -5265,7 +5269,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="9"/>
@@ -5291,7 +5295,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="9"/>
@@ -5317,7 +5321,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="9"/>
@@ -5343,7 +5347,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="9"/>
@@ -5369,7 +5373,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="9"/>
@@ -5395,7 +5399,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="9"/>
@@ -5421,7 +5425,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="9"/>
@@ -5447,7 +5451,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="9"/>
@@ -5473,7 +5477,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="9"/>
@@ -5499,7 +5503,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="9"/>
@@ -5525,7 +5529,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="9"/>
@@ -5551,7 +5555,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="9"/>
@@ -5577,7 +5581,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="9"/>
@@ -5603,7 +5607,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="9"/>
@@ -5629,7 +5633,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="9"/>
@@ -5655,7 +5659,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
@@ -5681,7 +5685,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="9"/>
@@ -5707,7 +5711,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="9"/>
@@ -5733,7 +5737,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="9"/>
@@ -5759,7 +5763,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="9"/>
@@ -5785,7 +5789,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="9"/>
@@ -5811,7 +5815,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="9"/>
@@ -5837,7 +5841,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="9"/>
@@ -5863,7 +5867,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="9"/>
@@ -5889,7 +5893,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="9"/>
@@ -5915,7 +5919,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="9"/>
@@ -5941,7 +5945,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="9"/>
@@ -5967,7 +5971,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="9"/>
@@ -5993,7 +5997,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="9"/>
@@ -6019,7 +6023,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="9"/>
@@ -6045,7 +6049,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="9"/>
@@ -6071,7 +6075,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="9"/>
@@ -6097,7 +6101,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="9"/>
@@ -6123,7 +6127,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="9"/>
@@ -6149,7 +6153,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="9"/>
@@ -6175,7 +6179,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="9"/>
@@ -6201,7 +6205,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H114" s="8"/>
       <c r="I114" s="9"/>
@@ -6227,7 +6231,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="9"/>
@@ -6253,7 +6257,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="9"/>
@@ -6279,7 +6283,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="9"/>
@@ -6305,7 +6309,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="9"/>
@@ -6331,7 +6335,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="9"/>
@@ -6357,7 +6361,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="9"/>
@@ -6383,7 +6387,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="9"/>
@@ -6409,7 +6413,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="9"/>
@@ -6435,7 +6439,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="9"/>
@@ -6461,7 +6465,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="9"/>
@@ -6487,7 +6491,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="9"/>
@@ -6513,7 +6517,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="9"/>
@@ -6539,7 +6543,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="9"/>
@@ -6565,7 +6569,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="9"/>
@@ -6591,7 +6595,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="9"/>
@@ -6617,7 +6621,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="9"/>
@@ -6643,7 +6647,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="9"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -2407,8 +2407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2428,7 +2428,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45609.670814583333</v>
+        <v>45610.991713194446</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2901,7 +2901,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>67</v>
@@ -2939,7 +2939,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H14" s="17" t="s">
         <v>67</v>
@@ -3025,7 +3025,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>67</v>
@@ -3157,7 +3157,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>67</v>
@@ -3289,7 +3289,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H22" s="17" t="s">
         <v>67</v>
@@ -4087,7 +4087,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H40" s="17" t="s">
         <v>67</v>
@@ -4124,7 +4124,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>67</v>
@@ -4161,7 +4161,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H42" s="17" t="s">
         <v>67</v>
@@ -4614,7 +4614,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H53" s="17" t="s">
         <v>67</v>
@@ -4645,7 +4645,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="9"/>
@@ -4671,7 +4671,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="9"/>
@@ -4697,7 +4697,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="9"/>
@@ -4723,7 +4723,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="9"/>
@@ -4749,7 +4749,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="9"/>
@@ -4775,7 +4775,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="9"/>
@@ -4801,7 +4801,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="9"/>
@@ -4827,7 +4827,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="9"/>
@@ -4853,7 +4853,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="9"/>
@@ -4879,7 +4879,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="9"/>
@@ -4905,7 +4905,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="9"/>
@@ -4931,7 +4931,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="9"/>
@@ -4957,7 +4957,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="9"/>
@@ -4983,7 +4983,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="9"/>
@@ -5009,7 +5009,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="9"/>
@@ -5035,7 +5035,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="9"/>
@@ -5061,7 +5061,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="9"/>
@@ -5087,7 +5087,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4">
         <f t="shared" ref="G71:G131" ca="1" si="2">ROUND(IF(F71,F71-E71,$F$1-E71),0)</f>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="9"/>
@@ -5113,7 +5113,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="9"/>
@@ -5139,7 +5139,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="9"/>
@@ -5165,7 +5165,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="9"/>
@@ -5191,7 +5191,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="9"/>
@@ -5217,7 +5217,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="9"/>
@@ -5243,7 +5243,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="9"/>
@@ -5269,7 +5269,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="9"/>
@@ -5295,7 +5295,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="9"/>
@@ -5321,7 +5321,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="9"/>
@@ -5347,7 +5347,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="9"/>
@@ -5373,7 +5373,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="9"/>
@@ -5399,7 +5399,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="9"/>
@@ -5425,7 +5425,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="9"/>
@@ -5451,7 +5451,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="9"/>
@@ -5477,7 +5477,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="9"/>
@@ -5503,7 +5503,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="9"/>
@@ -5529,7 +5529,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="9"/>
@@ -5555,7 +5555,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="9"/>
@@ -5581,7 +5581,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="9"/>
@@ -5607,7 +5607,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="9"/>
@@ -5633,7 +5633,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="9"/>
@@ -5659,7 +5659,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
@@ -5685,7 +5685,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="9"/>
@@ -5711,7 +5711,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="9"/>
@@ -5737,7 +5737,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="9"/>
@@ -5763,7 +5763,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="9"/>
@@ -5789,7 +5789,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="9"/>
@@ -5815,7 +5815,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="9"/>
@@ -5841,7 +5841,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="9"/>
@@ -5867,7 +5867,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="9"/>
@@ -5893,7 +5893,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="9"/>
@@ -5919,7 +5919,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="9"/>
@@ -5945,7 +5945,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="9"/>
@@ -5971,7 +5971,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="9"/>
@@ -5997,7 +5997,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="9"/>
@@ -6023,7 +6023,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="9"/>
@@ -6049,7 +6049,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="9"/>
@@ -6075,7 +6075,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="9"/>
@@ -6101,7 +6101,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="9"/>
@@ -6127,7 +6127,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="9"/>
@@ -6153,7 +6153,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="9"/>
@@ -6179,7 +6179,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="9"/>
@@ -6205,7 +6205,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H114" s="8"/>
       <c r="I114" s="9"/>
@@ -6231,7 +6231,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="9"/>
@@ -6257,7 +6257,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="9"/>
@@ -6283,7 +6283,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="9"/>
@@ -6309,7 +6309,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="9"/>
@@ -6335,7 +6335,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="9"/>
@@ -6361,7 +6361,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="9"/>
@@ -6387,7 +6387,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="9"/>
@@ -6413,7 +6413,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="9"/>
@@ -6439,7 +6439,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="9"/>
@@ -6465,7 +6465,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="9"/>
@@ -6491,7 +6491,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="9"/>
@@ -6517,7 +6517,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="9"/>
@@ -6543,7 +6543,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="9"/>
@@ -6569,7 +6569,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="9"/>
@@ -6595,7 +6595,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="9"/>
@@ -6621,7 +6621,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="9"/>
@@ -6647,7 +6647,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="9"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="172">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -512,6 +512,27 @@
   </si>
   <si>
     <t>Уменьшенный R_BDDC</t>
+  </si>
+  <si>
+    <t>PTA2a_DDC</t>
+  </si>
+  <si>
+    <t>Упрощенный выход в PTA2</t>
+  </si>
+  <si>
+    <t>Тест</t>
+  </si>
+  <si>
+    <t>PTA3_ADCC</t>
+  </si>
+  <si>
+    <t>PTA3a_ADDC</t>
+  </si>
+  <si>
+    <t>PTA2 на адаптивном DC</t>
+  </si>
+  <si>
+    <t>Упрощенный выход в PTA3</t>
   </si>
 </sst>
 </file>
@@ -2407,8 +2428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2428,7 +2449,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45610.991713194446</v>
+        <v>45611.719304282407</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2901,7 +2922,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>67</v>
@@ -2939,7 +2960,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H14" s="17" t="s">
         <v>67</v>
@@ -3025,7 +3046,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>67</v>
@@ -3157,7 +3178,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>67</v>
@@ -3289,7 +3310,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H22" s="17" t="s">
         <v>67</v>
@@ -4087,7 +4108,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H40" s="17" t="s">
         <v>67</v>
@@ -4124,7 +4145,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>67</v>
@@ -4161,7 +4182,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H42" s="17" t="s">
         <v>67</v>
@@ -4614,7 +4635,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H53" s="17" t="s">
         <v>67</v>
@@ -4639,15 +4660,26 @@
       <c r="A54" s="4">
         <v>52</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="E54" s="4"/>
+      <c r="B54" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="8">
+        <v>5</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E54" s="10">
+        <v>45611</v>
+      </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45611</v>
-      </c>
-      <c r="H54" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="I54" s="9"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
@@ -4665,15 +4697,26 @@
       <c r="A55" s="4">
         <v>53</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="E55" s="4"/>
+      <c r="B55" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="8">
+        <v>5</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" s="10">
+        <v>45611</v>
+      </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45611</v>
-      </c>
-      <c r="H55" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="I55" s="9"/>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
@@ -4691,15 +4734,26 @@
       <c r="A56" s="4">
         <v>54</v>
       </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="E56" s="4"/>
+      <c r="B56" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="8">
+        <v>5</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E56" s="10">
+        <v>45611</v>
+      </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45611</v>
-      </c>
-      <c r="H56" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="I56" s="9"/>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
@@ -4723,7 +4777,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="9"/>
@@ -4749,7 +4803,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="9"/>
@@ -4775,7 +4829,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="9"/>
@@ -4801,7 +4855,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="9"/>
@@ -4827,7 +4881,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="9"/>
@@ -4853,7 +4907,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="9"/>
@@ -4879,7 +4933,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="9"/>
@@ -4905,7 +4959,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="9"/>
@@ -4931,7 +4985,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="9"/>
@@ -4957,7 +5011,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="9"/>
@@ -4983,7 +5037,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="9"/>
@@ -5009,7 +5063,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="9"/>
@@ -5035,7 +5089,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="9"/>
@@ -5061,7 +5115,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="9"/>
@@ -5087,7 +5141,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4">
         <f t="shared" ref="G71:G131" ca="1" si="2">ROUND(IF(F71,F71-E71,$F$1-E71),0)</f>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="9"/>
@@ -5113,7 +5167,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="9"/>
@@ -5139,7 +5193,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="9"/>
@@ -5165,7 +5219,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="9"/>
@@ -5191,7 +5245,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="9"/>
@@ -5217,7 +5271,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="9"/>
@@ -5243,7 +5297,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="9"/>
@@ -5269,7 +5323,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="9"/>
@@ -5295,7 +5349,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="9"/>
@@ -5321,7 +5375,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="9"/>
@@ -5347,7 +5401,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="9"/>
@@ -5373,7 +5427,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="9"/>
@@ -5399,7 +5453,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="9"/>
@@ -5425,7 +5479,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="9"/>
@@ -5451,7 +5505,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="9"/>
@@ -5477,7 +5531,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="9"/>
@@ -5503,7 +5557,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="9"/>
@@ -5529,7 +5583,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="9"/>
@@ -5555,7 +5609,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="9"/>
@@ -5581,7 +5635,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="9"/>
@@ -5607,7 +5661,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="9"/>
@@ -5633,7 +5687,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="9"/>
@@ -5659,7 +5713,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
@@ -5685,7 +5739,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="9"/>
@@ -5711,7 +5765,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="9"/>
@@ -5737,7 +5791,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="9"/>
@@ -5763,7 +5817,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="9"/>
@@ -5789,7 +5843,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="9"/>
@@ -5815,7 +5869,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="9"/>
@@ -5841,7 +5895,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="9"/>
@@ -5867,7 +5921,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="9"/>
@@ -5893,7 +5947,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="9"/>
@@ -5919,7 +5973,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="9"/>
@@ -5945,7 +5999,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="9"/>
@@ -5971,7 +6025,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="9"/>
@@ -5997,7 +6051,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="9"/>
@@ -6023,7 +6077,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="9"/>
@@ -6049,7 +6103,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="9"/>
@@ -6075,7 +6129,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="9"/>
@@ -6101,7 +6155,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="9"/>
@@ -6127,7 +6181,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="9"/>
@@ -6153,7 +6207,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="9"/>
@@ -6179,7 +6233,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="9"/>
@@ -6205,7 +6259,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H114" s="8"/>
       <c r="I114" s="9"/>
@@ -6231,7 +6285,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="9"/>
@@ -6257,7 +6311,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="9"/>
@@ -6283,7 +6337,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="9"/>
@@ -6309,7 +6363,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="9"/>
@@ -6335,7 +6389,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="9"/>
@@ -6361,7 +6415,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="9"/>
@@ -6387,7 +6441,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="9"/>
@@ -6413,7 +6467,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="9"/>
@@ -6439,7 +6493,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="9"/>
@@ -6465,7 +6519,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="9"/>
@@ -6491,7 +6545,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="9"/>
@@ -6517,7 +6571,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="9"/>
@@ -6543,7 +6597,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="9"/>
@@ -6569,7 +6623,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="9"/>
@@ -6595,7 +6649,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="9"/>
@@ -6621,7 +6675,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="9"/>
@@ -6647,7 +6701,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="9"/>
@@ -7585,6 +7639,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="172">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -2428,8 +2428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2449,7 +2449,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45611.719304282407</v>
+        <v>45611.833568865739</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2957,13 +2957,15 @@
       <c r="E14" s="10">
         <v>45499</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="10">
+        <v>45611</v>
+      </c>
       <c r="G14" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>113</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>68</v>
@@ -2999,21 +3001,19 @@
       <c r="E15" s="10">
         <v>45505</v>
       </c>
-      <c r="F15" s="10">
-        <v>45510</v>
-      </c>
+      <c r="F15" s="10"/>
       <c r="G15" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>30</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>84</v>
       </c>
       <c r="J15" s="14">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -3043,19 +3043,21 @@
       <c r="E16" s="10">
         <v>45515</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="10">
+        <v>45611</v>
+      </c>
       <c r="G16" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>97</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>117</v>
       </c>
       <c r="J16" s="14">
-        <v>5.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -3143,11 +3145,9 @@
         <v>86</v>
       </c>
       <c r="J18" s="14">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>153</v>
-      </c>
+        <v>5.5</v>
+      </c>
+      <c r="K18" s="9"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
@@ -3187,7 +3187,7 @@
         <v>87</v>
       </c>
       <c r="J19" s="14">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="8"/>
@@ -3217,21 +3217,19 @@
       <c r="E20" s="10">
         <v>45509</v>
       </c>
-      <c r="F20" s="10">
-        <v>45510</v>
-      </c>
+      <c r="F20" s="10"/>
       <c r="G20" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>30</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>156</v>
       </c>
       <c r="J20" s="14">
-        <v>5.0999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -3307,19 +3305,21 @@
       <c r="E22" s="10">
         <v>45510</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="10">
+        <v>45611</v>
+      </c>
       <c r="G22" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>101</v>
       </c>
       <c r="J22" s="14">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
@@ -3451,7 +3451,9 @@
       <c r="J25" s="14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K25" s="8"/>
+      <c r="K25" s="9" t="s">
+        <v>153</v>
+      </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
@@ -3493,7 +3495,7 @@
         <v>112</v>
       </c>
       <c r="J26" s="14">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
@@ -3523,21 +3525,19 @@
       <c r="E27" s="10">
         <v>45514</v>
       </c>
-      <c r="F27" s="10">
-        <v>45515</v>
-      </c>
+      <c r="F27" s="10"/>
       <c r="G27" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>30</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>111</v>
       </c>
       <c r="J27" s="14">
-        <v>4.5999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K27" s="9" t="s">
         <v>153</v>
@@ -3583,11 +3583,9 @@
         <v>58</v>
       </c>
       <c r="J28" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>153</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K28" s="9"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
@@ -3629,11 +3627,9 @@
         <v>119</v>
       </c>
       <c r="J29" s="14">
-        <v>4.8</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>153</v>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="K29" s="9"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
@@ -3765,9 +3761,11 @@
         <v>119</v>
       </c>
       <c r="J32" s="14">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="K32" s="8"/>
+        <v>3.4</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>153</v>
+      </c>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
@@ -3809,7 +3807,7 @@
         <v>153</v>
       </c>
       <c r="J33" s="14">
-        <v>4.0999999999999996</v>
+        <v>3.6</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="8"/>
@@ -4677,10 +4675,13 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="H54" s="8" t="s">
-        <v>167</v>
+      <c r="H54" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="I54" s="9"/>
+      <c r="J54" s="4">
+        <v>6.6</v>
+      </c>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="174">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -533,6 +533,12 @@
   </si>
   <si>
     <t>Упрощенный выход в PTA3</t>
+  </si>
+  <si>
+    <t>LTA1_C</t>
+  </si>
+  <si>
+    <t>Сборщик с выходом в центре</t>
   </si>
 </sst>
 </file>
@@ -2428,8 +2434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2449,7 +2455,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45611.833568865739</v>
+        <v>45612.943086342595</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2922,7 +2928,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>67</v>
@@ -3004,7 +3010,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H15" s="17" t="s">
         <v>67</v>
@@ -3178,7 +3184,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>67</v>
@@ -3220,7 +3226,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H20" s="17" t="s">
         <v>67</v>
@@ -3528,7 +3534,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H27" s="17" t="s">
         <v>67</v>
@@ -4106,7 +4112,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H40" s="17" t="s">
         <v>67</v>
@@ -4143,7 +4149,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>67</v>
@@ -4180,7 +4186,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H42" s="17" t="s">
         <v>67</v>
@@ -4633,7 +4639,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H53" s="17" t="s">
         <v>67</v>
@@ -4673,7 +4679,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" s="17" t="s">
         <v>67</v>
@@ -4713,7 +4719,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>167</v>
@@ -4750,7 +4756,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>167</v>
@@ -4772,15 +4778,26 @@
       <c r="A57" s="4">
         <v>55</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="E57" s="4"/>
+      <c r="B57" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" s="8">
+        <v>2</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E57" s="10">
+        <v>45612</v>
+      </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45612</v>
-      </c>
-      <c r="H57" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="I57" s="9"/>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
@@ -4804,7 +4821,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="9"/>
@@ -4830,7 +4847,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="9"/>
@@ -4856,7 +4873,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="9"/>
@@ -4882,7 +4899,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="9"/>
@@ -4908,7 +4925,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="9"/>
@@ -4934,7 +4951,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="9"/>
@@ -4960,7 +4977,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="9"/>
@@ -4986,7 +5003,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="9"/>
@@ -5012,7 +5029,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="9"/>
@@ -5038,7 +5055,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="9"/>
@@ -5064,7 +5081,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="9"/>
@@ -5090,7 +5107,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="9"/>
@@ -5116,7 +5133,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="9"/>
@@ -5142,7 +5159,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4">
         <f t="shared" ref="G71:G131" ca="1" si="2">ROUND(IF(F71,F71-E71,$F$1-E71),0)</f>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="9"/>
@@ -5168,7 +5185,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="9"/>
@@ -5194,7 +5211,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="9"/>
@@ -5220,7 +5237,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="9"/>
@@ -5246,7 +5263,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="9"/>
@@ -5272,7 +5289,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="9"/>
@@ -5298,7 +5315,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="9"/>
@@ -5324,7 +5341,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="9"/>
@@ -5350,7 +5367,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="9"/>
@@ -5376,7 +5393,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="9"/>
@@ -5402,7 +5419,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="9"/>
@@ -5428,7 +5445,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="9"/>
@@ -5454,7 +5471,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="9"/>
@@ -5480,7 +5497,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="9"/>
@@ -5506,7 +5523,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="9"/>
@@ -5532,7 +5549,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="9"/>
@@ -5558,7 +5575,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="9"/>
@@ -5584,7 +5601,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="9"/>
@@ -5610,7 +5627,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="9"/>
@@ -5636,7 +5653,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="9"/>
@@ -5662,7 +5679,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="9"/>
@@ -5688,7 +5705,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="9"/>
@@ -5714,7 +5731,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
@@ -5740,7 +5757,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="9"/>
@@ -5766,7 +5783,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="9"/>
@@ -5792,7 +5809,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="9"/>
@@ -5818,7 +5835,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="9"/>
@@ -5844,7 +5861,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="9"/>
@@ -5870,7 +5887,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="9"/>
@@ -5896,7 +5913,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="9"/>
@@ -5922,7 +5939,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="9"/>
@@ -5948,7 +5965,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="9"/>
@@ -5974,7 +5991,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="9"/>
@@ -6000,7 +6017,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="9"/>
@@ -6026,7 +6043,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="9"/>
@@ -6052,7 +6069,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="9"/>
@@ -6078,7 +6095,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="9"/>
@@ -6104,7 +6121,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="9"/>
@@ -6130,7 +6147,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="9"/>
@@ -6156,7 +6173,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="9"/>
@@ -6182,7 +6199,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="9"/>
@@ -6208,7 +6225,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="9"/>
@@ -6234,7 +6251,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="9"/>
@@ -6260,7 +6277,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H114" s="8"/>
       <c r="I114" s="9"/>
@@ -6286,7 +6303,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="9"/>
@@ -6312,7 +6329,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="9"/>
@@ -6338,7 +6355,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="9"/>
@@ -6364,7 +6381,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="9"/>
@@ -6390,7 +6407,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="9"/>
@@ -6416,7 +6433,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="9"/>
@@ -6442,7 +6459,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="9"/>
@@ -6468,7 +6485,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="9"/>
@@ -6494,7 +6511,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="9"/>
@@ -6520,7 +6537,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="9"/>
@@ -6546,7 +6563,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="9"/>
@@ -6572,7 +6589,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="9"/>
@@ -6598,7 +6615,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="9"/>
@@ -6624,7 +6641,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="9"/>
@@ -6650,7 +6667,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="9"/>
@@ -6676,7 +6693,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="9"/>
@@ -6702,7 +6719,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="9"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -2434,8 +2434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,7 +2455,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45612.943086342595</v>
+        <v>45615.603424421293</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2928,7 +2928,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>67</v>
@@ -3010,7 +3010,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H15" s="17" t="s">
         <v>67</v>
@@ -3184,7 +3184,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>67</v>
@@ -3226,7 +3226,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H20" s="17" t="s">
         <v>67</v>
@@ -3531,13 +3531,15 @@
       <c r="E27" s="10">
         <v>45514</v>
       </c>
-      <c r="F27" s="10"/>
+      <c r="F27" s="10">
+        <v>45615</v>
+      </c>
       <c r="G27" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>111</v>
@@ -4112,7 +4114,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H40" s="17" t="s">
         <v>67</v>
@@ -4149,7 +4151,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>67</v>
@@ -4186,7 +4188,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H42" s="17" t="s">
         <v>67</v>
@@ -4639,7 +4641,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H53" s="17" t="s">
         <v>67</v>
@@ -4679,7 +4681,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H54" s="17" t="s">
         <v>67</v>
@@ -4719,12 +4721,15 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>167</v>
       </c>
       <c r="I55" s="9"/>
+      <c r="J55" s="4">
+        <v>5.3</v>
+      </c>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
@@ -4756,12 +4761,15 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>167</v>
       </c>
       <c r="I56" s="9"/>
+      <c r="J56" s="4">
+        <v>5.3</v>
+      </c>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
@@ -4793,12 +4801,15 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>167</v>
+        <v>4</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="I57" s="9"/>
+      <c r="J57" s="4">
+        <v>5.9</v>
+      </c>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
@@ -4821,7 +4832,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="9"/>
@@ -4847,7 +4858,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="9"/>
@@ -4873,7 +4884,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="9"/>
@@ -4899,7 +4910,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="9"/>
@@ -4925,7 +4936,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="9"/>
@@ -4951,7 +4962,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="9"/>
@@ -4977,7 +4988,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="9"/>
@@ -5003,7 +5014,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="9"/>
@@ -5029,7 +5040,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="9"/>
@@ -5055,7 +5066,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="9"/>
@@ -5081,7 +5092,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="9"/>
@@ -5107,7 +5118,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="9"/>
@@ -5133,7 +5144,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="9"/>
@@ -5159,7 +5170,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4">
         <f t="shared" ref="G71:G131" ca="1" si="2">ROUND(IF(F71,F71-E71,$F$1-E71),0)</f>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="9"/>
@@ -5185,7 +5196,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="9"/>
@@ -5211,7 +5222,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="9"/>
@@ -5237,7 +5248,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="9"/>
@@ -5263,7 +5274,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="9"/>
@@ -5289,7 +5300,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="9"/>
@@ -5315,7 +5326,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="9"/>
@@ -5341,7 +5352,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="9"/>
@@ -5367,7 +5378,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="9"/>
@@ -5393,7 +5404,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="9"/>
@@ -5419,7 +5430,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="9"/>
@@ -5445,7 +5456,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="9"/>
@@ -5471,7 +5482,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="9"/>
@@ -5497,7 +5508,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="9"/>
@@ -5523,7 +5534,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="9"/>
@@ -5549,7 +5560,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="9"/>
@@ -5575,7 +5586,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="9"/>
@@ -5601,7 +5612,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="9"/>
@@ -5627,7 +5638,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="9"/>
@@ -5653,7 +5664,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="9"/>
@@ -5679,7 +5690,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="9"/>
@@ -5705,7 +5716,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="9"/>
@@ -5731,7 +5742,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
@@ -5757,7 +5768,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="9"/>
@@ -5783,7 +5794,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="9"/>
@@ -5809,7 +5820,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="9"/>
@@ -5835,7 +5846,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="9"/>
@@ -5861,7 +5872,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="9"/>
@@ -5887,7 +5898,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="9"/>
@@ -5913,7 +5924,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="9"/>
@@ -5939,7 +5950,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="9"/>
@@ -5965,7 +5976,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="9"/>
@@ -5991,7 +6002,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="9"/>
@@ -6017,7 +6028,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="9"/>
@@ -6043,7 +6054,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="9"/>
@@ -6069,7 +6080,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="9"/>
@@ -6095,7 +6106,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="9"/>
@@ -6121,7 +6132,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="9"/>
@@ -6147,7 +6158,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="9"/>
@@ -6173,7 +6184,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="9"/>
@@ -6199,7 +6210,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="9"/>
@@ -6225,7 +6236,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="9"/>
@@ -6251,7 +6262,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="9"/>
@@ -6277,7 +6288,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H114" s="8"/>
       <c r="I114" s="9"/>
@@ -6303,7 +6314,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="9"/>
@@ -6329,7 +6340,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="9"/>
@@ -6355,7 +6366,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="9"/>
@@ -6381,7 +6392,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="9"/>
@@ -6407,7 +6418,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="9"/>
@@ -6433,7 +6444,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="9"/>
@@ -6459,7 +6470,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="9"/>
@@ -6485,7 +6496,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="9"/>
@@ -6511,7 +6522,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="9"/>
@@ -6537,7 +6548,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="9"/>
@@ -6563,7 +6574,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="9"/>
@@ -6589,7 +6600,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="9"/>
@@ -6615,7 +6626,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="9"/>
@@ -6641,7 +6652,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="9"/>
@@ -6667,7 +6678,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="9"/>
@@ -6693,7 +6704,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="9"/>
@@ -6719,7 +6730,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="9"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="177">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -539,6 +539,15 @@
   </si>
   <si>
     <t>Сборщик с выходом в центре</t>
+  </si>
+  <si>
+    <t>Настраиваемые параметры</t>
+  </si>
+  <si>
+    <t>PTA4_WDDC</t>
+  </si>
+  <si>
+    <t>PTA2 с фильтрацией по SI</t>
   </si>
 </sst>
 </file>
@@ -2435,7 +2444,7 @@
   <dimension ref="A1:U221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,7 +2464,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45615.603424421293</v>
+        <v>45615.794779976852</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -4359,7 +4368,7 @@
         <v>157</v>
       </c>
       <c r="J46" s="4">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
@@ -4524,7 +4533,7 @@
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="4">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
@@ -4566,7 +4575,7 @@
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="4">
-        <v>6.3</v>
+        <v>5.3</v>
       </c>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
@@ -4608,7 +4617,7 @@
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="4">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
@@ -4630,7 +4639,7 @@
         <v>161</v>
       </c>
       <c r="C53" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>162</v>
@@ -4648,7 +4657,7 @@
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="4">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
@@ -4670,7 +4679,7 @@
         <v>165</v>
       </c>
       <c r="C54" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>166</v>
@@ -4688,7 +4697,7 @@
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="4">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
@@ -4710,7 +4719,7 @@
         <v>168</v>
       </c>
       <c r="C55" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>170</v>
@@ -4750,7 +4759,7 @@
         <v>169</v>
       </c>
       <c r="C56" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>171</v>
@@ -4790,7 +4799,7 @@
         <v>172</v>
       </c>
       <c r="C57" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>173</v>
@@ -4808,7 +4817,7 @@
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="4">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
@@ -4826,15 +4835,26 @@
       <c r="A58" s="4">
         <v>56</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="E58" s="4"/>
+      <c r="B58" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" s="8">
+        <v>6</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" s="10">
+        <v>45615</v>
+      </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45616</v>
-      </c>
-      <c r="H58" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="I58" s="9"/>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
@@ -7674,10 +7694,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B8"/>
+  <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7741,6 +7761,14 @@
         <v>134</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731BEE44-84F3-44DD-BC25-6C8FBAFDA712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11385" yWindow="1560" windowWidth="16545" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="План" sheetId="1" r:id="rId1"/>
@@ -12,12 +13,23 @@
     <sheet name="Боты" sheetId="3" r:id="rId3"/>
     <sheet name="Поколения" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="180">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -548,12 +560,21 @@
   </si>
   <si>
     <t>PTA2 с фильтрацией по SI</t>
+  </si>
+  <si>
+    <t>PTA4_WDDC2</t>
+  </si>
+  <si>
+    <t>LTA1_C2</t>
+  </si>
+  <si>
+    <t>Сборщик с буфером выхода</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -661,6 +682,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -708,7 +732,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -741,9 +765,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -776,6 +817,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -951,7 +1009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1311,7 +1369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:B213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2440,11 +2498,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2464,7 +2522,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45615.794779976852</v>
+        <v>45616.051292708333</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -4852,8 +4910,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="H58" s="8" t="s">
-        <v>167</v>
+      <c r="H58" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="I58" s="9"/>
       <c r="K58" s="8"/>
@@ -4872,15 +4930,26 @@
       <c r="A59" s="4">
         <v>57</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="E59" s="4"/>
+      <c r="B59" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="8">
+        <v>6</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E59" s="10">
+        <v>45615</v>
+      </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45616</v>
-      </c>
-      <c r="H59" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="I59" s="9"/>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
@@ -4898,15 +4967,26 @@
       <c r="A60" s="4">
         <v>58</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="E60" s="4"/>
+      <c r="B60" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="8">
+        <v>6</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E60" s="10">
+        <v>45615</v>
+      </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45616</v>
-      </c>
-      <c r="H60" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="I60" s="9"/>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
@@ -7693,7 +7773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731BEE44-84F3-44DD-BC25-6C8FBAFDA712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE86D27-03CF-4FE4-A44C-82D42D82851B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="План" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="187">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -569,6 +569,27 @@
   </si>
   <si>
     <t>Сборщик с буфером выхода</t>
+  </si>
+  <si>
+    <t>OGTA1_Rails</t>
+  </si>
+  <si>
+    <t>PTA2_DCC2</t>
+  </si>
+  <si>
+    <t>PTA2a_DDC2</t>
+  </si>
+  <si>
+    <t>Работа с паттерном рельсы</t>
+  </si>
+  <si>
+    <t>PTA2_DCC на вангерчике</t>
+  </si>
+  <si>
+    <t>PTA2_DCCa на вангерчике</t>
+  </si>
+  <si>
+    <t>Доработка</t>
   </si>
 </sst>
 </file>
@@ -2502,7 +2523,7 @@
   <dimension ref="A1:U221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2522,7 +2543,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45616.051292708333</v>
+        <v>45617.665293749997</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2995,7 +3016,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>67</v>
@@ -3077,7 +3098,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H15" s="17" t="s">
         <v>67</v>
@@ -3251,7 +3272,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>67</v>
@@ -3293,7 +3314,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H20" s="17" t="s">
         <v>67</v>
@@ -4181,7 +4202,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H40" s="17" t="s">
         <v>67</v>
@@ -4218,7 +4239,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>67</v>
@@ -4255,7 +4276,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H42" s="17" t="s">
         <v>67</v>
@@ -4708,7 +4729,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H53" s="17" t="s">
         <v>67</v>
@@ -4748,7 +4769,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H54" s="17" t="s">
         <v>67</v>
@@ -4788,10 +4809,10 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="4">
@@ -4828,10 +4849,10 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="4">
@@ -4868,7 +4889,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H57" s="17" t="s">
         <v>67</v>
@@ -4908,7 +4929,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H58" s="17" t="s">
         <v>67</v>
@@ -4945,10 +4966,10 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="I59" s="9"/>
       <c r="K59" s="8"/>
@@ -4982,7 +5003,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>167</v>
@@ -5004,15 +5025,26 @@
       <c r="A61" s="4">
         <v>59</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="E61" s="4"/>
+      <c r="B61" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" s="8">
+        <v>6</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E61" s="10">
+        <v>45616</v>
+      </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45616</v>
-      </c>
-      <c r="H61" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>186</v>
+      </c>
       <c r="I61" s="9"/>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
@@ -5030,15 +5062,26 @@
       <c r="A62" s="4">
         <v>60</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="E62" s="4"/>
+      <c r="B62" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="8">
+        <v>6</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E62" s="10">
+        <v>45617</v>
+      </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45616</v>
-      </c>
-      <c r="H62" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="I62" s="9"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
@@ -5056,15 +5099,26 @@
       <c r="A63" s="4">
         <v>61</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="E63" s="4"/>
+      <c r="B63" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" s="8">
+        <v>6</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E63" s="10">
+        <v>45617</v>
+      </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45616</v>
-      </c>
-      <c r="H63" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="I63" s="9"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
@@ -5088,7 +5142,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="9"/>
@@ -5114,7 +5168,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="9"/>
@@ -5140,7 +5194,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="9"/>
@@ -5166,7 +5220,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="9"/>
@@ -5192,7 +5246,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="9"/>
@@ -5218,7 +5272,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="9"/>
@@ -5244,7 +5298,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="9"/>
@@ -5270,7 +5324,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4">
         <f t="shared" ref="G71:G131" ca="1" si="2">ROUND(IF(F71,F71-E71,$F$1-E71),0)</f>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="9"/>
@@ -5296,7 +5350,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="9"/>
@@ -5322,7 +5376,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="9"/>
@@ -5348,7 +5402,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="9"/>
@@ -5374,7 +5428,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="9"/>
@@ -5400,7 +5454,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="9"/>
@@ -5426,7 +5480,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="9"/>
@@ -5452,7 +5506,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="9"/>
@@ -5478,7 +5532,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="9"/>
@@ -5504,7 +5558,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="9"/>
@@ -5530,7 +5584,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="9"/>
@@ -5556,7 +5610,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="9"/>
@@ -5582,7 +5636,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="9"/>
@@ -5608,7 +5662,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="9"/>
@@ -5634,7 +5688,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="9"/>
@@ -5660,7 +5714,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="9"/>
@@ -5686,7 +5740,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="9"/>
@@ -5712,7 +5766,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="9"/>
@@ -5738,7 +5792,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="9"/>
@@ -5764,7 +5818,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="9"/>
@@ -5790,7 +5844,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="9"/>
@@ -5816,7 +5870,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="9"/>
@@ -5842,7 +5896,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
@@ -5868,7 +5922,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="9"/>
@@ -5894,7 +5948,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="9"/>
@@ -5920,7 +5974,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="9"/>
@@ -5946,7 +6000,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="9"/>
@@ -5972,7 +6026,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="9"/>
@@ -5998,7 +6052,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="9"/>
@@ -6024,7 +6078,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="9"/>
@@ -6050,7 +6104,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="9"/>
@@ -6076,7 +6130,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="9"/>
@@ -6102,7 +6156,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="9"/>
@@ -6128,7 +6182,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="9"/>
@@ -6154,7 +6208,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="9"/>
@@ -6180,7 +6234,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="9"/>
@@ -6206,7 +6260,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="9"/>
@@ -6232,7 +6286,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="9"/>
@@ -6258,7 +6312,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="9"/>
@@ -6284,7 +6338,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="9"/>
@@ -6310,7 +6364,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="9"/>
@@ -6336,7 +6390,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="9"/>
@@ -6362,7 +6416,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="9"/>
@@ -6388,7 +6442,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H114" s="8"/>
       <c r="I114" s="9"/>
@@ -6414,7 +6468,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="9"/>
@@ -6440,7 +6494,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="9"/>
@@ -6466,7 +6520,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="9"/>
@@ -6492,7 +6546,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="9"/>
@@ -6518,7 +6572,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="9"/>
@@ -6544,7 +6598,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="9"/>
@@ -6570,7 +6624,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="9"/>
@@ -6596,7 +6650,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="9"/>
@@ -6622,7 +6676,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="9"/>
@@ -6648,7 +6702,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="9"/>
@@ -6674,7 +6728,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="9"/>
@@ -6700,7 +6754,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="9"/>
@@ -6726,7 +6780,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="9"/>
@@ -6752,7 +6806,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="9"/>
@@ -6778,7 +6832,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="9"/>
@@ -6804,7 +6858,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="9"/>
@@ -6830,7 +6884,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="9"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE86D27-03CF-4FE4-A44C-82D42D82851B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282A972F-72E1-49B0-B88B-D18FA3F2D430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="189">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -590,6 +590,12 @@
   </si>
   <si>
     <t>Доработка</t>
+  </si>
+  <si>
+    <t>Абстрак-4</t>
+  </si>
+  <si>
+    <t>3 версия использующая серые тона, вместо цветных</t>
   </si>
 </sst>
 </file>
@@ -2522,8 +2528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2543,7 +2549,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45617.665293749997</v>
+        <v>45632.872176851852</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -3016,7 +3022,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>67</v>
@@ -3098,7 +3104,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="H15" s="17" t="s">
         <v>67</v>
@@ -3272,7 +3278,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>67</v>
@@ -3314,7 +3320,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="H20" s="17" t="s">
         <v>67</v>
@@ -4202,7 +4208,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H40" s="17" t="s">
         <v>67</v>
@@ -4239,7 +4245,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>67</v>
@@ -4276,7 +4282,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H42" s="17" t="s">
         <v>67</v>
@@ -4729,7 +4735,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H53" s="17" t="s">
         <v>67</v>
@@ -4769,7 +4775,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H54" s="17" t="s">
         <v>67</v>
@@ -4809,7 +4815,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>186</v>
@@ -4849,7 +4855,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>186</v>
@@ -4889,7 +4895,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H57" s="17" t="s">
         <v>67</v>
@@ -4929,7 +4935,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H58" s="17" t="s">
         <v>67</v>
@@ -4966,7 +4972,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>186</v>
@@ -5003,7 +5009,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>167</v>
@@ -5040,7 +5046,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>186</v>
@@ -5077,7 +5083,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>167</v>
@@ -5114,7 +5120,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H63" s="8" t="s">
         <v>167</v>
@@ -5132,19 +5138,30 @@
       <c r="T63" s="8"/>
       <c r="U63" s="8"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>62</v>
       </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="E64" s="4"/>
+      <c r="B64" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E64" s="10">
+        <v>45632</v>
+      </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45618</v>
-      </c>
-      <c r="H64" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="I64" s="9"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
@@ -5168,7 +5185,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="9"/>
@@ -5194,7 +5211,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="9"/>
@@ -5220,7 +5237,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="9"/>
@@ -5246,7 +5263,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="9"/>
@@ -5272,7 +5289,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="9"/>
@@ -5298,7 +5315,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="9"/>
@@ -5324,7 +5341,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4">
         <f t="shared" ref="G71:G131" ca="1" si="2">ROUND(IF(F71,F71-E71,$F$1-E71),0)</f>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="9"/>
@@ -5350,7 +5367,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="9"/>
@@ -5376,7 +5393,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="9"/>
@@ -5402,7 +5419,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="9"/>
@@ -5428,7 +5445,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="9"/>
@@ -5454,7 +5471,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="9"/>
@@ -5480,7 +5497,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="9"/>
@@ -5506,7 +5523,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="9"/>
@@ -5532,7 +5549,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="9"/>
@@ -5558,7 +5575,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="9"/>
@@ -5584,7 +5601,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="9"/>
@@ -5610,7 +5627,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="9"/>
@@ -5636,7 +5653,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="9"/>
@@ -5662,7 +5679,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="9"/>
@@ -5688,7 +5705,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="9"/>
@@ -5714,7 +5731,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="9"/>
@@ -5740,7 +5757,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="9"/>
@@ -5766,7 +5783,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="9"/>
@@ -5792,7 +5809,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="9"/>
@@ -5818,7 +5835,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="9"/>
@@ -5844,7 +5861,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="9"/>
@@ -5870,7 +5887,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="9"/>
@@ -5896,7 +5913,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
@@ -5922,7 +5939,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="9"/>
@@ -5948,7 +5965,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="9"/>
@@ -5974,7 +5991,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="9"/>
@@ -6000,7 +6017,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="9"/>
@@ -6026,7 +6043,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="9"/>
@@ -6052,7 +6069,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="9"/>
@@ -6078,7 +6095,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="9"/>
@@ -6104,7 +6121,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="9"/>
@@ -6130,7 +6147,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="9"/>
@@ -6156,7 +6173,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="9"/>
@@ -6182,7 +6199,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="9"/>
@@ -6208,7 +6225,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="9"/>
@@ -6234,7 +6251,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="9"/>
@@ -6260,7 +6277,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="9"/>
@@ -6286,7 +6303,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="9"/>
@@ -6312,7 +6329,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="9"/>
@@ -6338,7 +6355,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="9"/>
@@ -6364,7 +6381,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="9"/>
@@ -6390,7 +6407,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="9"/>
@@ -6416,7 +6433,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="9"/>
@@ -6442,7 +6459,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H114" s="8"/>
       <c r="I114" s="9"/>
@@ -6468,7 +6485,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="9"/>
@@ -6494,7 +6511,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="9"/>
@@ -6520,7 +6537,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="9"/>
@@ -6546,7 +6563,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="9"/>
@@ -6572,7 +6589,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="9"/>
@@ -6598,7 +6615,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="9"/>
@@ -6624,7 +6641,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="9"/>
@@ -6650,7 +6667,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="9"/>
@@ -6676,7 +6693,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="9"/>
@@ -6702,7 +6719,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="9"/>
@@ -6728,7 +6745,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="9"/>
@@ -6754,7 +6771,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="9"/>
@@ -6780,7 +6797,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="9"/>
@@ -6806,7 +6823,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="9"/>
@@ -6832,7 +6849,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="9"/>
@@ -6858,7 +6875,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="9"/>
@@ -6884,7 +6901,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45618</v>
+        <v>45633</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="9"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282A972F-72E1-49B0-B88B-D18FA3F2D430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4646BABC-56F8-47DF-8F7C-B2E64D5771EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="191">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -596,6 +596,12 @@
   </si>
   <si>
     <t>3 версия использующая серые тона, вместо цветных</t>
+  </si>
+  <si>
+    <t>PTA5_MHP</t>
+  </si>
+  <si>
+    <t>Свечной паттерн Майкла Харриса</t>
   </si>
 </sst>
 </file>
@@ -2528,8 +2534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2549,7 +2555,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45632.872176851852</v>
+        <v>45639.834919444445</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -3019,13 +3025,15 @@
       <c r="E13" s="10">
         <v>45494</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="10">
+        <v>45639</v>
+      </c>
       <c r="G13" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>139</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="14"/>
@@ -3101,13 +3109,15 @@
       <c r="E15" s="10">
         <v>45505</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="10">
+        <v>45639</v>
+      </c>
       <c r="G15" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>84</v>
@@ -3275,13 +3285,15 @@
       <c r="E19" s="10">
         <v>45509</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="10">
+        <v>45639</v>
+      </c>
       <c r="G19" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>124</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>87</v>
@@ -3317,13 +3329,15 @@
       <c r="E20" s="10">
         <v>45509</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="F20" s="10">
+        <v>45639</v>
+      </c>
       <c r="G20" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>124</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>156</v>
@@ -4205,13 +4219,15 @@
       <c r="E40" s="10">
         <v>45539</v>
       </c>
-      <c r="F40" s="4"/>
+      <c r="F40" s="10">
+        <v>45639</v>
+      </c>
       <c r="G40" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="H40" s="17" t="s">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="K40" s="8"/>
@@ -4245,7 +4261,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>67</v>
@@ -4282,7 +4298,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H42" s="17" t="s">
         <v>67</v>
@@ -4735,7 +4751,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H53" s="17" t="s">
         <v>67</v>
@@ -4775,7 +4791,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H54" s="17" t="s">
         <v>67</v>
@@ -4815,7 +4831,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>186</v>
@@ -4855,7 +4871,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>186</v>
@@ -4895,7 +4911,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H57" s="17" t="s">
         <v>67</v>
@@ -4935,7 +4951,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H58" s="17" t="s">
         <v>67</v>
@@ -4972,7 +4988,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>186</v>
@@ -5009,7 +5025,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>167</v>
@@ -5046,7 +5062,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>186</v>
@@ -5083,7 +5099,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>167</v>
@@ -5120,7 +5136,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H63" s="8" t="s">
         <v>167</v>
@@ -5157,7 +5173,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>167</v>
@@ -5175,19 +5191,30 @@
       <c r="T64" s="8"/>
       <c r="U64" s="8"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>63</v>
       </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="E65" s="4"/>
+      <c r="B65" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" s="8">
+        <v>6</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65" s="10">
+        <v>45639</v>
+      </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45633</v>
-      </c>
-      <c r="H65" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>186</v>
+      </c>
       <c r="I65" s="9"/>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
@@ -5211,7 +5238,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="9"/>
@@ -5237,7 +5264,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="9"/>
@@ -5263,7 +5290,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="9"/>
@@ -5289,7 +5316,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="9"/>
@@ -5315,7 +5342,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="9"/>
@@ -5341,7 +5368,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4">
         <f t="shared" ref="G71:G131" ca="1" si="2">ROUND(IF(F71,F71-E71,$F$1-E71),0)</f>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="9"/>
@@ -5367,7 +5394,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="9"/>
@@ -5393,7 +5420,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="9"/>
@@ -5419,7 +5446,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="9"/>
@@ -5445,7 +5472,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="9"/>
@@ -5471,7 +5498,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="9"/>
@@ -5497,7 +5524,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="9"/>
@@ -5523,7 +5550,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="9"/>
@@ -5549,7 +5576,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="9"/>
@@ -5575,7 +5602,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="9"/>
@@ -5601,7 +5628,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="9"/>
@@ -5627,7 +5654,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="9"/>
@@ -5653,7 +5680,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="9"/>
@@ -5679,7 +5706,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="9"/>
@@ -5705,7 +5732,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="9"/>
@@ -5731,7 +5758,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="9"/>
@@ -5757,7 +5784,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="9"/>
@@ -5783,7 +5810,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="9"/>
@@ -5809,7 +5836,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="9"/>
@@ -5835,7 +5862,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="9"/>
@@ -5861,7 +5888,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="9"/>
@@ -5887,7 +5914,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="9"/>
@@ -5913,7 +5940,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
@@ -5939,7 +5966,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="9"/>
@@ -5965,7 +5992,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="9"/>
@@ -5991,7 +6018,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="9"/>
@@ -6017,7 +6044,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="9"/>
@@ -6043,7 +6070,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="9"/>
@@ -6069,7 +6096,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="9"/>
@@ -6095,7 +6122,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="9"/>
@@ -6121,7 +6148,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="9"/>
@@ -6147,7 +6174,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="9"/>
@@ -6173,7 +6200,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="9"/>
@@ -6199,7 +6226,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="9"/>
@@ -6225,7 +6252,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="9"/>
@@ -6251,7 +6278,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="9"/>
@@ -6277,7 +6304,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="9"/>
@@ -6303,7 +6330,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="9"/>
@@ -6329,7 +6356,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="9"/>
@@ -6355,7 +6382,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="9"/>
@@ -6381,7 +6408,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="9"/>
@@ -6407,7 +6434,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="9"/>
@@ -6433,7 +6460,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="9"/>
@@ -6459,7 +6486,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H114" s="8"/>
       <c r="I114" s="9"/>
@@ -6485,7 +6512,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="9"/>
@@ -6511,7 +6538,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="9"/>
@@ -6537,7 +6564,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="9"/>
@@ -6563,7 +6590,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="9"/>
@@ -6589,7 +6616,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="9"/>
@@ -6615,7 +6642,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="9"/>
@@ -6641,7 +6668,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="9"/>
@@ -6667,7 +6694,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="9"/>
@@ -6693,7 +6720,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="9"/>
@@ -6719,7 +6746,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="9"/>
@@ -6745,7 +6772,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="9"/>
@@ -6771,7 +6798,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="9"/>
@@ -6797,7 +6824,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="9"/>
@@ -6823,7 +6850,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="9"/>
@@ -6849,7 +6876,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="9"/>
@@ -6875,7 +6902,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="9"/>
@@ -6901,7 +6928,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="9"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4646BABC-56F8-47DF-8F7C-B2E64D5771EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8041084F-A384-449C-A2D1-A5FE099FDA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="План" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="193">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -602,6 +602,12 @@
   </si>
   <si>
     <t>Свечной паттерн Майкла Харриса</t>
+  </si>
+  <si>
+    <t>STA2_PPP</t>
+  </si>
+  <si>
+    <t>Поиск паттерна с помощью косинусного сходства</t>
   </si>
 </sst>
 </file>
@@ -2535,7 +2541,7 @@
   <dimension ref="A1:U221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2555,7 +2561,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45639.834919444445</v>
+        <v>45643.839230555554</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -4261,7 +4267,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>67</v>
@@ -4298,7 +4304,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H42" s="17" t="s">
         <v>67</v>
@@ -4751,7 +4757,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H53" s="17" t="s">
         <v>67</v>
@@ -4791,7 +4797,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H54" s="17" t="s">
         <v>67</v>
@@ -4831,7 +4837,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>186</v>
@@ -4871,7 +4877,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>186</v>
@@ -4911,7 +4917,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H57" s="17" t="s">
         <v>67</v>
@@ -4951,7 +4957,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H58" s="17" t="s">
         <v>67</v>
@@ -4988,7 +4994,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>186</v>
@@ -5025,7 +5031,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>167</v>
@@ -5062,7 +5068,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>186</v>
@@ -5099,7 +5105,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>167</v>
@@ -5136,7 +5142,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H63" s="8" t="s">
         <v>167</v>
@@ -5173,7 +5179,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>167</v>
@@ -5210,7 +5216,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H65" s="8" t="s">
         <v>186</v>
@@ -5228,19 +5234,30 @@
       <c r="T65" s="8"/>
       <c r="U65" s="8"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>64</v>
       </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="E66" s="4"/>
+      <c r="B66" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" s="8">
+        <v>6</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E66" s="10">
+        <v>45643</v>
+      </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45640</v>
-      </c>
-      <c r="H66" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>186</v>
+      </c>
       <c r="I66" s="9"/>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
@@ -5264,7 +5281,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="9"/>
@@ -5290,7 +5307,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="9"/>
@@ -5316,7 +5333,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="9"/>
@@ -5342,7 +5359,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="9"/>
@@ -5368,7 +5385,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4">
         <f t="shared" ref="G71:G131" ca="1" si="2">ROUND(IF(F71,F71-E71,$F$1-E71),0)</f>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="9"/>
@@ -5394,7 +5411,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="9"/>
@@ -5420,7 +5437,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="9"/>
@@ -5446,7 +5463,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="9"/>
@@ -5472,7 +5489,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="9"/>
@@ -5498,7 +5515,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="9"/>
@@ -5524,7 +5541,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="9"/>
@@ -5550,7 +5567,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="9"/>
@@ -5576,7 +5593,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="9"/>
@@ -5602,7 +5619,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="9"/>
@@ -5628,7 +5645,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="9"/>
@@ -5654,7 +5671,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="9"/>
@@ -5680,7 +5697,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="9"/>
@@ -5706,7 +5723,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="9"/>
@@ -5732,7 +5749,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="9"/>
@@ -5758,7 +5775,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="9"/>
@@ -5784,7 +5801,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="9"/>
@@ -5810,7 +5827,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="9"/>
@@ -5836,7 +5853,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="9"/>
@@ -5862,7 +5879,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="9"/>
@@ -5888,7 +5905,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="9"/>
@@ -5914,7 +5931,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="9"/>
@@ -5940,7 +5957,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
@@ -5966,7 +5983,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="9"/>
@@ -5992,7 +6009,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="9"/>
@@ -6018,7 +6035,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="9"/>
@@ -6044,7 +6061,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="9"/>
@@ -6070,7 +6087,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="9"/>
@@ -6096,7 +6113,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="9"/>
@@ -6122,7 +6139,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="9"/>
@@ -6148,7 +6165,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="9"/>
@@ -6174,7 +6191,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="9"/>
@@ -6200,7 +6217,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="9"/>
@@ -6226,7 +6243,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="9"/>
@@ -6252,7 +6269,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="9"/>
@@ -6278,7 +6295,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="9"/>
@@ -6304,7 +6321,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="9"/>
@@ -6330,7 +6347,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="9"/>
@@ -6356,7 +6373,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="9"/>
@@ -6382,7 +6399,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="9"/>
@@ -6408,7 +6425,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="9"/>
@@ -6434,7 +6451,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="9"/>
@@ -6460,7 +6477,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="9"/>
@@ -6486,7 +6503,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H114" s="8"/>
       <c r="I114" s="9"/>
@@ -6512,7 +6529,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="9"/>
@@ -6538,7 +6555,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="9"/>
@@ -6564,7 +6581,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="9"/>
@@ -6590,7 +6607,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="9"/>
@@ -6616,7 +6633,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="9"/>
@@ -6642,7 +6659,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="9"/>
@@ -6668,7 +6685,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="9"/>
@@ -6694,7 +6711,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="9"/>
@@ -6720,7 +6737,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="9"/>
@@ -6746,7 +6763,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="9"/>
@@ -6772,7 +6789,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="9"/>
@@ -6798,7 +6815,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="9"/>
@@ -6824,7 +6841,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="9"/>
@@ -6850,7 +6867,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="9"/>
@@ -6876,7 +6893,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="9"/>
@@ -6902,7 +6919,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="9"/>
@@ -6928,7 +6945,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="9"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8041084F-A384-449C-A2D1-A5FE099FDA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC4C346-D161-475D-B7E8-586EF5DFB5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="195">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -608,6 +608,12 @@
   </si>
   <si>
     <t>Поиск паттерна с помощью косинусного сходства</t>
+  </si>
+  <si>
+    <t>LTA2_SP</t>
+  </si>
+  <si>
+    <t>Торговля от точек статистики</t>
   </si>
 </sst>
 </file>
@@ -2540,8 +2546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2561,7 +2567,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45643.839230555554</v>
+        <v>45644.062787731484</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -5271,19 +5277,30 @@
       <c r="T66" s="8"/>
       <c r="U66" s="8"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>65</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="E67" s="4"/>
+      <c r="B67" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" s="8">
+        <v>6</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E67" s="10">
+        <v>45644</v>
+      </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45644</v>
-      </c>
-      <c r="H67" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="I67" s="9"/>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC4C346-D161-475D-B7E8-586EF5DFB5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C408FA-7128-4D84-99D8-F4D87001F7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,6 +12,7 @@
     <sheet name="Таск" sheetId="2" r:id="rId2"/>
     <sheet name="Боты" sheetId="3" r:id="rId3"/>
     <sheet name="Поколения" sheetId="4" r:id="rId4"/>
+    <sheet name="Идеи" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="238">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -614,6 +615,135 @@
   </si>
   <si>
     <t>Торговля от точек статистики</t>
+  </si>
+  <si>
+    <t>PTA3_ADCC2</t>
+  </si>
+  <si>
+    <t>Идея PTA2 c выходом по линия со средним отспупом от верхних линий</t>
+  </si>
+  <si>
+    <t>PTA4_WDDC3</t>
+  </si>
+  <si>
+    <t>PTA2 с фильтрацией по RMI</t>
+  </si>
+  <si>
+    <t>PTA2 с фильтрацией по BPI</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>ProSveT</t>
+  </si>
+  <si>
+    <t>VSA</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>Crysis Remora</t>
+  </si>
+  <si>
+    <t>Переработанный ST1</t>
+  </si>
+  <si>
+    <t>Пересечение скользящих средних</t>
+  </si>
+  <si>
+    <t>ЦМТ</t>
+  </si>
+  <si>
+    <t>RSI</t>
+  </si>
+  <si>
+    <t>EMA</t>
+  </si>
+  <si>
+    <t>ZigZag</t>
+  </si>
+  <si>
+    <t>Адаптивный PTA2</t>
+  </si>
+  <si>
+    <t>Волны Эллиота</t>
+  </si>
+  <si>
+    <t>Обучение с подкреплением</t>
+  </si>
+  <si>
+    <t>Аллигатор</t>
+  </si>
+  <si>
+    <t>Бот на основе дерева решений</t>
+  </si>
+  <si>
+    <t>Бот на основе knn</t>
+  </si>
+  <si>
+    <t>СуперТренд</t>
+  </si>
+  <si>
+    <t>ткладываение скальзящек</t>
+  </si>
+  <si>
+    <t>Канал линейной регрессии</t>
+  </si>
+  <si>
+    <t>Линейная регрессия по всем признакам</t>
+  </si>
+  <si>
+    <t>Адаптивный BB</t>
+  </si>
+  <si>
+    <t>Пересечение скользящих с задержкой</t>
+  </si>
+  <si>
+    <t>ATR</t>
+  </si>
+  <si>
+    <t>Параболик</t>
+  </si>
+  <si>
+    <t>Adaptive Envelop</t>
+  </si>
+  <si>
+    <t>Alma Channel</t>
+  </si>
+  <si>
+    <t>Fractal Break</t>
+  </si>
+  <si>
+    <t>William percent range</t>
+  </si>
+  <si>
+    <t>Кластеризация</t>
+  </si>
+  <si>
+    <t>Пивоты</t>
+  </si>
+  <si>
+    <t>Быстрый медленный RMI</t>
+  </si>
+  <si>
+    <t>OGT1_Raills</t>
+  </si>
+  <si>
+    <t>Перепроданность по цветам</t>
+  </si>
+  <si>
+    <t>Движение по большому бару</t>
+  </si>
+  <si>
+    <t>PTA6_COMA</t>
+  </si>
+  <si>
+    <t>Пересечение скользящих</t>
   </si>
 </sst>
 </file>
@@ -632,7 +762,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,6 +787,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -670,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -717,6 +859,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2546,8 +2691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2567,7 +2712,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45644.062787731484</v>
+        <v>45645.86707349537</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -4273,7 +4418,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>67</v>
@@ -4310,7 +4455,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H42" s="17" t="s">
         <v>67</v>
@@ -4763,7 +4908,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H53" s="17" t="s">
         <v>67</v>
@@ -4803,7 +4948,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H54" s="17" t="s">
         <v>67</v>
@@ -4840,13 +4985,15 @@
       <c r="E55" s="10">
         <v>45611</v>
       </c>
-      <c r="F55" s="4"/>
+      <c r="F55" s="10">
+        <v>45645</v>
+      </c>
       <c r="G55" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>186</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="4">
@@ -4880,13 +5027,15 @@
       <c r="E56" s="10">
         <v>45611</v>
       </c>
-      <c r="F56" s="4"/>
+      <c r="F56" s="10">
+        <v>45645</v>
+      </c>
       <c r="G56" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>186</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="4">
@@ -4923,7 +5072,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H57" s="17" t="s">
         <v>67</v>
@@ -4963,10 +5112,10 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="H58" s="17" t="s">
-        <v>67</v>
+        <v>31</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="I58" s="9"/>
       <c r="K58" s="8"/>
@@ -4992,7 +5141,7 @@
         <v>6</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="E59" s="10">
         <v>45615</v>
@@ -5000,7 +5149,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>186</v>
@@ -5037,7 +5186,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>167</v>
@@ -5074,7 +5223,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>186</v>
@@ -5108,13 +5257,15 @@
       <c r="E62" s="10">
         <v>45617</v>
       </c>
-      <c r="F62" s="4"/>
+      <c r="F62" s="10">
+        <v>45645</v>
+      </c>
       <c r="G62" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>167</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="K62" s="8"/>
@@ -5145,13 +5296,15 @@
       <c r="E63" s="10">
         <v>45617</v>
       </c>
-      <c r="F63" s="4"/>
+      <c r="F63" s="10">
+        <v>45645</v>
+      </c>
       <c r="G63" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>167</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="K63" s="8"/>
@@ -5185,7 +5338,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>167</v>
@@ -5219,13 +5372,15 @@
       <c r="E65" s="10">
         <v>45639</v>
       </c>
-      <c r="F65" s="4"/>
+      <c r="F65" s="10">
+        <v>45645</v>
+      </c>
       <c r="G65" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>186</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="K65" s="8"/>
@@ -5256,13 +5411,15 @@
       <c r="E66" s="10">
         <v>45643</v>
       </c>
-      <c r="F66" s="4"/>
+      <c r="F66" s="10">
+        <v>45645</v>
+      </c>
       <c r="G66" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>186</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="K66" s="8"/>
@@ -5293,13 +5450,15 @@
       <c r="E67" s="10">
         <v>45644</v>
       </c>
-      <c r="F67" s="4"/>
+      <c r="F67" s="10">
+        <v>45645</v>
+      </c>
       <c r="G67" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>167</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="K67" s="8"/>
@@ -5314,19 +5473,30 @@
       <c r="T67" s="8"/>
       <c r="U67" s="8"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>66</v>
       </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="E68" s="4"/>
+      <c r="B68" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" s="8">
+        <v>6</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E68" s="10">
+        <v>45644</v>
+      </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45644</v>
-      </c>
-      <c r="H68" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="I68" s="9"/>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
@@ -5344,15 +5514,26 @@
       <c r="A69" s="4">
         <v>67</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="E69" s="4"/>
+      <c r="B69" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" s="8">
+        <v>6</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E69" s="10">
+        <v>45645</v>
+      </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45644</v>
-      </c>
-      <c r="H69" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="I69" s="9"/>
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
@@ -5370,15 +5551,26 @@
       <c r="A70" s="4">
         <v>68</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="E70" s="4"/>
+      <c r="B70" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C70" s="8">
+        <v>6</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E70" s="10">
+        <v>45645</v>
+      </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45644</v>
-      </c>
-      <c r="H70" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>186</v>
+      </c>
       <c r="I70" s="9"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
@@ -5402,7 +5594,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4">
         <f t="shared" ref="G71:G131" ca="1" si="2">ROUND(IF(F71,F71-E71,$F$1-E71),0)</f>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="9"/>
@@ -5428,7 +5620,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="9"/>
@@ -5454,7 +5646,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="9"/>
@@ -5480,7 +5672,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="9"/>
@@ -5506,7 +5698,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="9"/>
@@ -5532,7 +5724,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="9"/>
@@ -5558,7 +5750,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="9"/>
@@ -5584,7 +5776,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="9"/>
@@ -5610,7 +5802,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="9"/>
@@ -5636,7 +5828,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="9"/>
@@ -5662,7 +5854,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="9"/>
@@ -5688,7 +5880,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="9"/>
@@ -5714,7 +5906,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="9"/>
@@ -5740,7 +5932,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="9"/>
@@ -5766,7 +5958,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="9"/>
@@ -5792,7 +5984,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="9"/>
@@ -5818,7 +6010,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="9"/>
@@ -5844,7 +6036,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="9"/>
@@ -5870,7 +6062,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="9"/>
@@ -5896,7 +6088,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="9"/>
@@ -5922,7 +6114,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="9"/>
@@ -5948,7 +6140,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="9"/>
@@ -5974,7 +6166,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
@@ -6000,7 +6192,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="9"/>
@@ -6026,7 +6218,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="9"/>
@@ -6052,7 +6244,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="9"/>
@@ -6078,7 +6270,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="9"/>
@@ -6104,7 +6296,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="9"/>
@@ -6130,7 +6322,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="9"/>
@@ -6156,7 +6348,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="9"/>
@@ -6182,7 +6374,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="9"/>
@@ -6208,7 +6400,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="9"/>
@@ -6234,7 +6426,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="9"/>
@@ -6260,7 +6452,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="9"/>
@@ -6286,7 +6478,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="9"/>
@@ -6312,7 +6504,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="9"/>
@@ -6338,7 +6530,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="9"/>
@@ -6364,7 +6556,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="9"/>
@@ -6390,7 +6582,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="9"/>
@@ -6416,7 +6608,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="9"/>
@@ -6442,7 +6634,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="9"/>
@@ -6468,7 +6660,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="9"/>
@@ -6494,7 +6686,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="9"/>
@@ -6520,7 +6712,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H114" s="8"/>
       <c r="I114" s="9"/>
@@ -6546,7 +6738,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="9"/>
@@ -6572,7 +6764,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="9"/>
@@ -6598,7 +6790,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="9"/>
@@ -6624,7 +6816,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="9"/>
@@ -6650,7 +6842,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="9"/>
@@ -6676,7 +6868,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="9"/>
@@ -6702,7 +6894,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="9"/>
@@ -6728,7 +6920,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="9"/>
@@ -6754,7 +6946,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="9"/>
@@ -6780,7 +6972,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="9"/>
@@ -6806,7 +6998,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="9"/>
@@ -6832,7 +7024,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="9"/>
@@ -6858,7 +7050,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="9"/>
@@ -6884,7 +7076,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="9"/>
@@ -6910,7 +7102,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="9"/>
@@ -6936,7 +7128,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="9"/>
@@ -6962,7 +7154,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="9"/>
@@ -7984,4 +8176,187 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D15F4DE-7FC7-452C-A28C-97AFCD076E28}">
+  <dimension ref="A2:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="G5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>232</v>
+      </c>
+      <c r="G11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C408FA-7128-4D84-99D8-F4D87001F7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90C7571-DEDA-4AAB-99FD-D582A3122700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="241">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -689,9 +689,6 @@
     <t>СуперТренд</t>
   </si>
   <si>
-    <t>ткладываение скальзящек</t>
-  </si>
-  <si>
     <t>Канал линейной регрессии</t>
   </si>
   <si>
@@ -744,6 +741,18 @@
   </si>
   <si>
     <t>Пересечение скользящих</t>
+  </si>
+  <si>
+    <t>откладываение скальзящек</t>
+  </si>
+  <si>
+    <t>Лента скользящих средних</t>
+  </si>
+  <si>
+    <t>PTA4_WDDC3b</t>
+  </si>
+  <si>
+    <t>PTA4_WDDC3 с более широким выходом</t>
   </si>
 </sst>
 </file>
@@ -2691,8 +2700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2712,7 +2721,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45645.86707349537</v>
+        <v>45646.727519675929</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -4418,7 +4427,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>67</v>
@@ -4455,7 +4464,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H42" s="17" t="s">
         <v>67</v>
@@ -4908,7 +4917,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H53" s="17" t="s">
         <v>67</v>
@@ -4948,7 +4957,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H54" s="17" t="s">
         <v>67</v>
@@ -5072,7 +5081,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H57" s="17" t="s">
         <v>67</v>
@@ -5112,12 +5121,15 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>186</v>
       </c>
       <c r="I58" s="9"/>
+      <c r="J58" s="4">
+        <v>6.5</v>
+      </c>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
@@ -5149,12 +5161,15 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>186</v>
       </c>
       <c r="I59" s="9"/>
+      <c r="J59" s="4">
+        <v>6.1</v>
+      </c>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
@@ -5186,12 +5201,15 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>167</v>
       </c>
       <c r="I60" s="9"/>
+      <c r="J60" s="4">
+        <v>6.1</v>
+      </c>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
@@ -5223,12 +5241,15 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>186</v>
       </c>
       <c r="I61" s="9"/>
+      <c r="J61" s="4">
+        <v>3.6</v>
+      </c>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
@@ -5268,6 +5289,9 @@
         <v>30</v>
       </c>
       <c r="I62" s="9"/>
+      <c r="J62" s="4">
+        <v>5.2</v>
+      </c>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
@@ -5307,6 +5331,9 @@
         <v>30</v>
       </c>
       <c r="I63" s="9"/>
+      <c r="J63" s="4">
+        <v>5.2</v>
+      </c>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
@@ -5338,7 +5365,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>167</v>
@@ -5383,6 +5410,9 @@
         <v>30</v>
       </c>
       <c r="I65" s="9"/>
+      <c r="J65" s="4">
+        <v>3.1</v>
+      </c>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
@@ -5422,6 +5452,9 @@
         <v>30</v>
       </c>
       <c r="I66" s="9"/>
+      <c r="J66" s="4">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
@@ -5461,6 +5494,9 @@
         <v>30</v>
       </c>
       <c r="I67" s="9"/>
+      <c r="J67" s="4">
+        <v>5.5</v>
+      </c>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
       <c r="M67" s="8"/>
@@ -5489,15 +5525,20 @@
       <c r="E68" s="10">
         <v>45644</v>
       </c>
-      <c r="F68" s="4"/>
+      <c r="F68" s="10">
+        <v>45646</v>
+      </c>
       <c r="G68" s="4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H68" s="8" t="s">
-        <v>167</v>
+      <c r="H68" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
+      <c r="J68" s="4">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
@@ -5529,12 +5570,15 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="I69" s="9"/>
+      <c r="J69" s="4">
+        <v>5.9</v>
+      </c>
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
       <c r="M69" s="8"/>
@@ -5552,13 +5596,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C70" s="8">
         <v>6</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E70" s="10">
         <v>45645</v>
@@ -5566,12 +5610,15 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>186</v>
       </c>
       <c r="I70" s="9"/>
+      <c r="J70" s="4">
+        <v>3.6</v>
+      </c>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="8"/>
@@ -5584,20 +5631,34 @@
       <c r="T70" s="8"/>
       <c r="U70" s="8"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>69</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="E71" s="4"/>
+      <c r="B71" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C71" s="8">
+        <v>6</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E71" s="10">
+        <v>45645</v>
+      </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4">
         <f t="shared" ref="G71:G131" ca="1" si="2">ROUND(IF(F71,F71-E71,$F$1-E71),0)</f>
-        <v>45646</v>
-      </c>
-      <c r="H71" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>186</v>
+      </c>
       <c r="I71" s="9"/>
+      <c r="J71" s="4">
+        <v>5.9</v>
+      </c>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="M71" s="8"/>
@@ -5620,7 +5681,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="9"/>
@@ -5646,7 +5707,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="9"/>
@@ -5672,7 +5733,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="9"/>
@@ -5698,7 +5759,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="9"/>
@@ -5724,7 +5785,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="9"/>
@@ -5750,7 +5811,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="9"/>
@@ -5776,7 +5837,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="9"/>
@@ -5802,7 +5863,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="9"/>
@@ -5828,7 +5889,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="9"/>
@@ -5854,7 +5915,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="9"/>
@@ -5880,7 +5941,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="9"/>
@@ -5906,7 +5967,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="9"/>
@@ -5932,7 +5993,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="9"/>
@@ -5958,7 +6019,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="9"/>
@@ -5984,7 +6045,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="9"/>
@@ -6010,7 +6071,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="9"/>
@@ -6036,7 +6097,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="9"/>
@@ -6062,7 +6123,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="9"/>
@@ -6088,7 +6149,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="9"/>
@@ -6114,7 +6175,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="9"/>
@@ -6140,7 +6201,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="9"/>
@@ -6166,7 +6227,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
@@ -6192,7 +6253,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="9"/>
@@ -6218,7 +6279,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="9"/>
@@ -6244,7 +6305,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="9"/>
@@ -6270,7 +6331,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="9"/>
@@ -6296,7 +6357,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="9"/>
@@ -6322,7 +6383,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="9"/>
@@ -6348,7 +6409,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="9"/>
@@ -6374,7 +6435,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="9"/>
@@ -6400,7 +6461,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="9"/>
@@ -6426,7 +6487,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="9"/>
@@ -6452,7 +6513,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="9"/>
@@ -6478,7 +6539,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="9"/>
@@ -6504,7 +6565,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="9"/>
@@ -6530,7 +6591,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="9"/>
@@ -6556,7 +6617,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="9"/>
@@ -6582,7 +6643,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="9"/>
@@ -6608,7 +6669,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="9"/>
@@ -6634,7 +6695,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="9"/>
@@ -6660,7 +6721,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="9"/>
@@ -6686,7 +6747,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="9"/>
@@ -6712,7 +6773,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H114" s="8"/>
       <c r="I114" s="9"/>
@@ -6738,7 +6799,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="9"/>
@@ -6764,7 +6825,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="9"/>
@@ -6790,7 +6851,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="9"/>
@@ -6816,7 +6877,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="9"/>
@@ -6842,7 +6903,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="9"/>
@@ -6868,7 +6929,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="9"/>
@@ -6894,7 +6955,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="9"/>
@@ -6920,7 +6981,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="9"/>
@@ -6946,7 +7007,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="9"/>
@@ -6972,7 +7033,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="9"/>
@@ -6998,7 +7059,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="9"/>
@@ -7024,7 +7085,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="9"/>
@@ -7050,7 +7111,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="9"/>
@@ -7076,7 +7137,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="9"/>
@@ -7102,7 +7163,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="9"/>
@@ -7128,7 +7189,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="9"/>
@@ -7154,7 +7215,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45646</v>
+        <v>45647</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="9"/>
@@ -8183,7 +8244,7 @@
   <dimension ref="A2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8230,10 +8291,10 @@
         <v>205</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" t="s">
         <v>233</v>
-      </c>
-      <c r="F3" t="s">
-        <v>234</v>
       </c>
       <c r="G3" t="s">
         <v>209</v>
@@ -8253,7 +8314,7 @@
         <v>213</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G4" t="s">
         <v>210</v>
@@ -8281,10 +8342,10 @@
         <v>215</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -8295,10 +8356,10 @@
         <v>218</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -8306,13 +8367,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -8320,10 +8381,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -8331,10 +8392,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -8342,18 +8403,21 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>238</v>
+      </c>
       <c r="G12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90C7571-DEDA-4AAB-99FD-D582A3122700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C7E569-6078-40B3-94CA-E2D7C01138A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="План" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="245">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -753,6 +753,18 @@
   </si>
   <si>
     <t>PTA4_WDDC3 с более широким выходом</t>
+  </si>
+  <si>
+    <t>PTA7_MS1</t>
+  </si>
+  <si>
+    <t>Использование df</t>
+  </si>
+  <si>
+    <t>Мультистратеговые боты</t>
+  </si>
+  <si>
+    <t>Мультистратеговый бот на канале Дончана</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1224,7 @@
   <dimension ref="A2:C70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2700,8 +2712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2721,7 +2733,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45646.727519675929</v>
+        <v>45680.753625694444</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -4427,7 +4439,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>67</v>
@@ -4464,7 +4476,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="H42" s="17" t="s">
         <v>67</v>
@@ -4917,7 +4929,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="H53" s="17" t="s">
         <v>67</v>
@@ -4957,7 +4969,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H54" s="17" t="s">
         <v>67</v>
@@ -5081,7 +5093,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="H57" s="17" t="s">
         <v>67</v>
@@ -5121,7 +5133,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>186</v>
@@ -5161,7 +5173,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>186</v>
@@ -5201,7 +5213,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>167</v>
@@ -5241,7 +5253,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>186</v>
@@ -5365,7 +5377,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>167</v>
@@ -5570,7 +5582,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="H69" s="8" t="s">
         <v>186</v>
@@ -5610,7 +5622,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>186</v>
@@ -5650,7 +5662,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4">
         <f t="shared" ref="G71:G131" ca="1" si="2">ROUND(IF(F71,F71-E71,$F$1-E71),0)</f>
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>186</v>
@@ -5671,19 +5683,30 @@
       <c r="T71" s="8"/>
       <c r="U71" s="8"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>70</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="E72" s="4"/>
+      <c r="B72" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C72" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E72" s="10">
+        <v>45314</v>
+      </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
-      </c>
-      <c r="H72" s="8"/>
+        <v>367</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="I72" s="9"/>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
@@ -5707,7 +5730,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="9"/>
@@ -5733,7 +5756,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="9"/>
@@ -5759,7 +5782,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="9"/>
@@ -5785,7 +5808,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="9"/>
@@ -5811,7 +5834,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="9"/>
@@ -5837,7 +5860,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="9"/>
@@ -5863,7 +5886,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="9"/>
@@ -5889,7 +5912,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="9"/>
@@ -5915,7 +5938,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="9"/>
@@ -5941,7 +5964,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="9"/>
@@ -5967,7 +5990,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="9"/>
@@ -5993,7 +6016,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="9"/>
@@ -6019,7 +6042,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="9"/>
@@ -6045,7 +6068,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="9"/>
@@ -6071,7 +6094,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="9"/>
@@ -6097,7 +6120,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="9"/>
@@ -6123,7 +6146,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="9"/>
@@ -6149,7 +6172,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="9"/>
@@ -6175,7 +6198,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="9"/>
@@ -6201,7 +6224,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="9"/>
@@ -6227,7 +6250,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
@@ -6253,7 +6276,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="9"/>
@@ -6279,7 +6302,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="9"/>
@@ -6305,7 +6328,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="9"/>
@@ -6331,7 +6354,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="9"/>
@@ -6357,7 +6380,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="9"/>
@@ -6383,7 +6406,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="9"/>
@@ -6409,7 +6432,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="9"/>
@@ -6435,7 +6458,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="9"/>
@@ -6461,7 +6484,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="9"/>
@@ -6487,7 +6510,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="9"/>
@@ -6513,7 +6536,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="9"/>
@@ -6539,7 +6562,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="9"/>
@@ -6565,7 +6588,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="9"/>
@@ -6591,7 +6614,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="9"/>
@@ -6617,7 +6640,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="9"/>
@@ -6643,7 +6666,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="9"/>
@@ -6669,7 +6692,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="9"/>
@@ -6695,7 +6718,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="9"/>
@@ -6721,7 +6744,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="9"/>
@@ -6747,7 +6770,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="9"/>
@@ -6773,7 +6796,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H114" s="8"/>
       <c r="I114" s="9"/>
@@ -6799,7 +6822,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="9"/>
@@ -6825,7 +6848,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="9"/>
@@ -6851,7 +6874,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="9"/>
@@ -6877,7 +6900,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="9"/>
@@ -6903,7 +6926,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="9"/>
@@ -6929,7 +6952,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="9"/>
@@ -6955,7 +6978,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="9"/>
@@ -6981,7 +7004,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="9"/>
@@ -7007,7 +7030,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="9"/>
@@ -7033,7 +7056,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="9"/>
@@ -7059,7 +7082,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="9"/>
@@ -7085,7 +7108,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="9"/>
@@ -7111,7 +7134,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="9"/>
@@ -7137,7 +7160,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="9"/>
@@ -7163,7 +7186,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="9"/>
@@ -7189,7 +7212,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="9"/>
@@ -7215,7 +7238,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45647</v>
+        <v>45681</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="9"/>
@@ -8159,10 +8182,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:B9"/>
+  <dimension ref="A2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8232,6 +8255,22 @@
       </c>
       <c r="B9" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7.5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C7E569-6078-40B3-94CA-E2D7C01138A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D18668E-F2F3-4ECE-A468-B0670A488D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="План" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="252">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -765,6 +765,27 @@
   </si>
   <si>
     <t>Мультистратеговый бот на канале Дончана</t>
+  </si>
+  <si>
+    <t>PTA8_DOBBY</t>
+  </si>
+  <si>
+    <t>PTA2 на BB</t>
+  </si>
+  <si>
+    <t>Разработка</t>
+  </si>
+  <si>
+    <t>PTA9_CRAB</t>
+  </si>
+  <si>
+    <t>Универсальный бот на простой динамике sma</t>
+  </si>
+  <si>
+    <t>Быстрые варианты реверсные OBBY и LOBSTER были хорошими вариантами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">быстрый DCCr был интересным вариантом </t>
   </si>
 </sst>
 </file>
@@ -2712,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2733,7 +2754,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45680.753625694444</v>
+        <v>45708.726350462966</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -4439,7 +4460,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>67</v>
@@ -4476,7 +4497,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="H42" s="17" t="s">
         <v>67</v>
@@ -4910,7 +4931,7 @@
       <c r="T52" s="8"/>
       <c r="U52" s="8"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>51</v>
       </c>
@@ -4929,12 +4950,14 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="H53" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="I53" s="9"/>
+      <c r="I53" s="9" t="s">
+        <v>251</v>
+      </c>
       <c r="J53" s="4">
         <v>5.9</v>
       </c>
@@ -4969,7 +4992,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="H54" s="17" t="s">
         <v>67</v>
@@ -5093,7 +5116,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="H57" s="17" t="s">
         <v>67</v>
@@ -5133,7 +5156,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>186</v>
@@ -5173,7 +5196,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>186</v>
@@ -5213,7 +5236,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>167</v>
@@ -5253,7 +5276,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>186</v>
@@ -5377,7 +5400,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>167</v>
@@ -5582,7 +5605,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="H69" s="8" t="s">
         <v>186</v>
@@ -5622,7 +5645,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>186</v>
@@ -5662,7 +5685,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4">
         <f t="shared" ref="G71:G131" ca="1" si="2">ROUND(IF(F71,F71-E71,$F$1-E71),0)</f>
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>186</v>
@@ -5702,10 +5725,10 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="I72" s="9"/>
       <c r="K72" s="8"/>
@@ -5720,20 +5743,33 @@
       <c r="T72" s="8"/>
       <c r="U72" s="8"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>71</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="E73" s="4"/>
+      <c r="B73" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C73" s="8">
+        <v>7</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E73" s="10">
+        <v>45341</v>
+      </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
-      </c>
-      <c r="H73" s="8"/>
-      <c r="I73" s="9"/>
+        <v>368</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>250</v>
+      </c>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
@@ -5746,19 +5782,30 @@
       <c r="T73" s="8"/>
       <c r="U73" s="8"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>72</v>
       </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="E74" s="4"/>
+      <c r="B74" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C74" s="8">
+        <v>7</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E74" s="10">
+        <v>45342</v>
+      </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
-      </c>
-      <c r="H74" s="8"/>
+        <v>367</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>247</v>
+      </c>
       <c r="I74" s="9"/>
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
@@ -5782,7 +5829,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="9"/>
@@ -5808,7 +5855,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="9"/>
@@ -5834,7 +5881,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="9"/>
@@ -5860,7 +5907,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="9"/>
@@ -5886,7 +5933,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="9"/>
@@ -5912,7 +5959,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="9"/>
@@ -5938,7 +5985,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="9"/>
@@ -5964,7 +6011,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="9"/>
@@ -5990,7 +6037,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="9"/>
@@ -6016,7 +6063,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="9"/>
@@ -6042,7 +6089,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="9"/>
@@ -6068,7 +6115,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="9"/>
@@ -6094,7 +6141,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="9"/>
@@ -6120,7 +6167,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="9"/>
@@ -6146,7 +6193,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="9"/>
@@ -6172,7 +6219,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="9"/>
@@ -6198,7 +6245,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="9"/>
@@ -6224,7 +6271,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="9"/>
@@ -6250,7 +6297,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
@@ -6276,7 +6323,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="9"/>
@@ -6302,7 +6349,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="9"/>
@@ -6328,7 +6375,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="9"/>
@@ -6354,7 +6401,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="9"/>
@@ -6380,7 +6427,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="9"/>
@@ -6406,7 +6453,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="9"/>
@@ -6432,7 +6479,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="9"/>
@@ -6458,7 +6505,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="9"/>
@@ -6484,7 +6531,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="9"/>
@@ -6510,7 +6557,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="9"/>
@@ -6536,7 +6583,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="9"/>
@@ -6562,7 +6609,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="9"/>
@@ -6588,7 +6635,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="9"/>
@@ -6614,7 +6661,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="9"/>
@@ -6640,7 +6687,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="9"/>
@@ -6666,7 +6713,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="9"/>
@@ -6692,7 +6739,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="9"/>
@@ -6718,7 +6765,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="9"/>
@@ -6744,7 +6791,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="9"/>
@@ -6770,7 +6817,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="9"/>
@@ -6796,7 +6843,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H114" s="8"/>
       <c r="I114" s="9"/>
@@ -6822,7 +6869,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="9"/>
@@ -6848,7 +6895,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="9"/>
@@ -6874,7 +6921,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="9"/>
@@ -6900,7 +6947,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="9"/>
@@ -6926,7 +6973,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="9"/>
@@ -6952,7 +6999,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="9"/>
@@ -6978,7 +7025,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="9"/>
@@ -7004,7 +7051,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="9"/>
@@ -7030,7 +7077,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="9"/>
@@ -7056,7 +7103,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="9"/>
@@ -7082,7 +7129,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="9"/>
@@ -7108,7 +7155,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="9"/>
@@ -7134,7 +7181,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="9"/>
@@ -7160,7 +7207,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="9"/>
@@ -7186,7 +7233,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="9"/>
@@ -7212,7 +7259,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="9"/>
@@ -7238,7 +7285,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45681</v>
+        <v>45709</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="9"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D18668E-F2F3-4ECE-A468-B0670A488D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06B1002-5D0A-4ECD-9E33-9302C25FF3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="План" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="256">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -590,9 +590,6 @@
     <t>PTA2_DCCa на вангерчике</t>
   </si>
   <si>
-    <t>Доработка</t>
-  </si>
-  <si>
     <t>Абстрак-4</t>
   </si>
   <si>
@@ -773,9 +770,6 @@
     <t>PTA2 на BB</t>
   </si>
   <si>
-    <t>Разработка</t>
-  </si>
-  <si>
     <t>PTA9_CRAB</t>
   </si>
   <si>
@@ -786,6 +780,24 @@
   </si>
   <si>
     <t xml:space="preserve">быстрый DCCr был интересным вариантом </t>
+  </si>
+  <si>
+    <t>PTA4_WDDCrRL</t>
+  </si>
+  <si>
+    <t>PTA4_WDVCrRL</t>
+  </si>
+  <si>
+    <t>PTA8_WDOBBYFrRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDC + RSI реверсный </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DVC + RSI реверсный </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBB + RSI реверсный </t>
   </si>
 </sst>
 </file>
@@ -2733,8 +2745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2754,7 +2766,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45708.726350462966</v>
+        <v>45730.990543749998</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -4460,7 +4472,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>67</v>
@@ -4497,7 +4509,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="H42" s="17" t="s">
         <v>67</v>
@@ -4947,16 +4959,18 @@
       <c r="E53" s="10">
         <v>45608</v>
       </c>
-      <c r="F53" s="4"/>
+      <c r="F53" s="10">
+        <v>45730</v>
+      </c>
       <c r="G53" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>101</v>
-      </c>
-      <c r="H53" s="17" t="s">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J53" s="4">
         <v>5.9</v>
@@ -4989,13 +5003,15 @@
       <c r="E54" s="10">
         <v>45611</v>
       </c>
-      <c r="F54" s="4"/>
+      <c r="F54" s="10">
+        <v>45730</v>
+      </c>
       <c r="G54" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="H54" s="17" t="s">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="4">
@@ -5113,13 +5129,15 @@
       <c r="E57" s="10">
         <v>45612</v>
       </c>
-      <c r="F57" s="4"/>
+      <c r="F57" s="10">
+        <v>45730</v>
+      </c>
       <c r="G57" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>97</v>
-      </c>
-      <c r="H57" s="17" t="s">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="4">
@@ -5153,13 +5171,15 @@
       <c r="E58" s="10">
         <v>45615</v>
       </c>
-      <c r="F58" s="4"/>
+      <c r="F58" s="10">
+        <v>45730</v>
+      </c>
       <c r="G58" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>186</v>
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="4">
@@ -5188,18 +5208,20 @@
         <v>6</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E59" s="10">
         <v>45615</v>
       </c>
-      <c r="F59" s="4"/>
+      <c r="F59" s="10">
+        <v>45730</v>
+      </c>
       <c r="G59" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>186</v>
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="4">
@@ -5233,13 +5255,15 @@
       <c r="E60" s="10">
         <v>45615</v>
       </c>
-      <c r="F60" s="4"/>
+      <c r="F60" s="10">
+        <v>45730</v>
+      </c>
       <c r="G60" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>167</v>
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="4">
@@ -5273,13 +5297,15 @@
       <c r="E61" s="10">
         <v>45616</v>
       </c>
-      <c r="F61" s="4"/>
+      <c r="F61" s="10">
+        <v>45730</v>
+      </c>
       <c r="G61" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>186</v>
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="4">
@@ -5386,24 +5412,26 @@
         <v>62</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C64" s="8">
         <v>5.5</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E64" s="10">
         <v>45632</v>
       </c>
-      <c r="F64" s="4"/>
+      <c r="F64" s="10">
+        <v>45730</v>
+      </c>
       <c r="G64" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>167</v>
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="K64" s="8"/>
@@ -5423,13 +5451,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C65" s="8">
         <v>6</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E65" s="10">
         <v>45639</v>
@@ -5465,13 +5493,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C66" s="8">
         <v>6</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E66" s="10">
         <v>45643</v>
@@ -5507,13 +5535,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C67" s="8">
         <v>6</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E67" s="10">
         <v>45644</v>
@@ -5549,13 +5577,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C68" s="8">
         <v>6</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E68" s="10">
         <v>45644</v>
@@ -5591,24 +5619,26 @@
         <v>67</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C69" s="8">
         <v>6</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E69" s="10">
         <v>45645</v>
       </c>
-      <c r="F69" s="4"/>
+      <c r="F69" s="10">
+        <v>45730</v>
+      </c>
       <c r="G69" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>186</v>
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="4">
@@ -5631,24 +5661,26 @@
         <v>68</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C70" s="8">
         <v>6</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E70" s="10">
         <v>45645</v>
       </c>
-      <c r="F70" s="4"/>
+      <c r="F70" s="10">
+        <v>45730</v>
+      </c>
       <c r="G70" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>186</v>
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="4">
@@ -5671,24 +5703,26 @@
         <v>69</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C71" s="8">
         <v>6</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E71" s="10">
         <v>45645</v>
       </c>
-      <c r="F71" s="4"/>
+      <c r="F71" s="10">
+        <v>45730</v>
+      </c>
       <c r="G71" s="4">
-        <f t="shared" ref="G71:G131" ca="1" si="2">ROUND(IF(F71,F71-E71,$F$1-E71),0)</f>
-        <v>64</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>186</v>
+        <f t="shared" ref="G71:G131" si="2">ROUND(IF(F71,F71-E71,$F$1-E71),0)</f>
+        <v>85</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="4">
@@ -5711,26 +5745,31 @@
         <v>70</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C72" s="8">
         <v>7.5</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E72" s="10">
-        <v>45314</v>
-      </c>
-      <c r="F72" s="4"/>
+        <v>45680</v>
+      </c>
+      <c r="F72" s="10">
+        <v>45730</v>
+      </c>
       <c r="G72" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>395</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>186</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
+      <c r="J72" s="4">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="8"/>
@@ -5748,27 +5787,27 @@
         <v>71</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C73" s="8">
         <v>7</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E73" s="10">
-        <v>45341</v>
+        <v>45707</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>368</v>
+        <v>24</v>
       </c>
       <c r="H73" s="8" t="s">
         <v>167</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
@@ -5787,24 +5826,24 @@
         <v>72</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C74" s="8">
         <v>7</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E74" s="10">
-        <v>45342</v>
+        <v>45708</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>367</v>
+        <v>23</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>247</v>
+        <v>167</v>
       </c>
       <c r="I74" s="9"/>
       <c r="K74" s="8"/>
@@ -5823,16 +5862,30 @@
       <c r="A75" s="4">
         <v>73</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="E75" s="4"/>
+      <c r="B75" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C75" s="8">
+        <v>7</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E75" s="10">
+        <v>45726</v>
+      </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
-      </c>
-      <c r="H75" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="H75" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="I75" s="9"/>
+      <c r="J75" s="4">
+        <v>7.2</v>
+      </c>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
       <c r="M75" s="8"/>
@@ -5849,16 +5902,30 @@
       <c r="A76" s="4">
         <v>74</v>
       </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="E76" s="4"/>
+      <c r="B76" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C76" s="8">
+        <v>7</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E76" s="10">
+        <v>45726</v>
+      </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
-      </c>
-      <c r="H76" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="H76" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="I76" s="9"/>
+      <c r="J76" s="4">
+        <v>7.1</v>
+      </c>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
       <c r="M76" s="8"/>
@@ -5875,16 +5942,30 @@
       <c r="A77" s="4">
         <v>75</v>
       </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="E77" s="4"/>
+      <c r="B77" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C77" s="8">
+        <v>7</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E77" s="10">
+        <v>45726</v>
+      </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
-      </c>
-      <c r="H77" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="H77" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="I77" s="9"/>
+      <c r="J77" s="4">
+        <v>7.1</v>
+      </c>
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
       <c r="M77" s="8"/>
@@ -5907,7 +5988,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="9"/>
@@ -5933,7 +6014,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="9"/>
@@ -5959,7 +6040,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="9"/>
@@ -5985,7 +6066,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="9"/>
@@ -6011,7 +6092,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="9"/>
@@ -6037,7 +6118,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="9"/>
@@ -6063,7 +6144,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="9"/>
@@ -6089,7 +6170,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="9"/>
@@ -6115,7 +6196,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="9"/>
@@ -6141,7 +6222,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="9"/>
@@ -6167,7 +6248,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="9"/>
@@ -6193,7 +6274,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="9"/>
@@ -6219,7 +6300,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="9"/>
@@ -6245,7 +6326,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="9"/>
@@ -6271,7 +6352,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="9"/>
@@ -6297,7 +6378,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
@@ -6323,7 +6404,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="9"/>
@@ -6349,7 +6430,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="9"/>
@@ -6375,7 +6456,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="9"/>
@@ -6401,7 +6482,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="9"/>
@@ -6427,7 +6508,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="9"/>
@@ -6453,7 +6534,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="9"/>
@@ -6479,7 +6560,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="9"/>
@@ -6505,7 +6586,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="9"/>
@@ -6531,7 +6612,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="9"/>
@@ -6557,7 +6638,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="9"/>
@@ -6583,7 +6664,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="9"/>
@@ -6609,7 +6690,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="9"/>
@@ -6635,7 +6716,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="9"/>
@@ -6661,7 +6742,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="9"/>
@@ -6687,7 +6768,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="9"/>
@@ -6713,7 +6794,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="9"/>
@@ -6739,7 +6820,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="9"/>
@@ -6765,7 +6846,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="9"/>
@@ -6791,7 +6872,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="9"/>
@@ -6817,7 +6898,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="9"/>
@@ -6843,7 +6924,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H114" s="8"/>
       <c r="I114" s="9"/>
@@ -6869,7 +6950,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="9"/>
@@ -6895,7 +6976,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="9"/>
@@ -6921,7 +7002,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="9"/>
@@ -6947,7 +7028,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="9"/>
@@ -6973,7 +7054,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="9"/>
@@ -6999,7 +7080,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="9"/>
@@ -7025,7 +7106,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="9"/>
@@ -7051,7 +7132,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="9"/>
@@ -7077,7 +7158,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="9"/>
@@ -7103,7 +7184,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="9"/>
@@ -7129,7 +7210,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="9"/>
@@ -7155,7 +7236,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="9"/>
@@ -7181,7 +7262,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="9"/>
@@ -7207,7 +7288,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="9"/>
@@ -7233,7 +7314,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="9"/>
@@ -7259,7 +7340,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="9"/>
@@ -7285,7 +7366,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45709</v>
+        <v>45731</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="9"/>
@@ -8309,7 +8390,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8317,7 +8398,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -8345,22 +8426,22 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>200</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>201</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>202</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>203</v>
       </c>
-      <c r="F2" t="s">
-        <v>204</v>
-      </c>
       <c r="G2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -8368,22 +8449,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" t="s">
         <v>232</v>
       </c>
-      <c r="F3" t="s">
-        <v>233</v>
-      </c>
       <c r="G3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -8391,19 +8472,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -8411,13 +8492,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -8425,13 +8506,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -8439,13 +8520,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -8453,13 +8534,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -8467,10 +8548,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -8478,10 +8559,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -8489,10 +8570,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -8500,10 +8581,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06B1002-5D0A-4ECD-9E33-9302C25FF3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46B6B29-A6AF-4973-9E47-A80CF98CE1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="259">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -798,6 +798,15 @@
   </si>
   <si>
     <t xml:space="preserve">DBB + RSI реверсный </t>
+  </si>
+  <si>
+    <t>RLITA1</t>
+  </si>
+  <si>
+    <t>Использование внешних данных</t>
+  </si>
+  <si>
+    <t>Использует данные с APIMOEX и стратегии из RL</t>
   </si>
 </sst>
 </file>
@@ -2746,7 +2755,7 @@
   <dimension ref="A1:U221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2766,7 +2775,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45730.990543749998</v>
+        <v>45735.684422106482</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -4472,7 +4481,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>67</v>
@@ -4509,7 +4518,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H42" s="17" t="s">
         <v>67</v>
@@ -5801,7 +5810,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H73" s="8" t="s">
         <v>167</v>
@@ -5840,7 +5849,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H74" s="8" t="s">
         <v>167</v>
@@ -5877,7 +5886,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H75" s="17" t="s">
         <v>67</v>
@@ -5917,7 +5926,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H76" s="17" t="s">
         <v>67</v>
@@ -5957,7 +5966,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H77" s="17" t="s">
         <v>67</v>
@@ -5978,19 +5987,30 @@
       <c r="T77" s="8"/>
       <c r="U77" s="8"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>76</v>
       </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="E78" s="4"/>
+      <c r="B78" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C78" s="8">
+        <v>8</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E78" s="10">
+        <v>45735</v>
+      </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
-      </c>
-      <c r="H78" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="I78" s="9"/>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
@@ -6014,7 +6034,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="9"/>
@@ -6040,7 +6060,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="9"/>
@@ -6066,7 +6086,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="9"/>
@@ -6092,7 +6112,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="9"/>
@@ -6118,7 +6138,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="9"/>
@@ -6144,7 +6164,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="9"/>
@@ -6170,7 +6190,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="9"/>
@@ -6196,7 +6216,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="9"/>
@@ -6222,7 +6242,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="9"/>
@@ -6248,7 +6268,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="9"/>
@@ -6274,7 +6294,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="9"/>
@@ -6300,7 +6320,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="9"/>
@@ -6326,7 +6346,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="9"/>
@@ -6352,7 +6372,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="9"/>
@@ -6378,7 +6398,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
@@ -6404,7 +6424,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="9"/>
@@ -6430,7 +6450,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="9"/>
@@ -6456,7 +6476,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="9"/>
@@ -6482,7 +6502,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="9"/>
@@ -6508,7 +6528,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="9"/>
@@ -6534,7 +6554,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="9"/>
@@ -6560,7 +6580,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="9"/>
@@ -6586,7 +6606,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="9"/>
@@ -6612,7 +6632,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="9"/>
@@ -6638,7 +6658,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="9"/>
@@ -6664,7 +6684,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="9"/>
@@ -6690,7 +6710,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="9"/>
@@ -6716,7 +6736,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="9"/>
@@ -6742,7 +6762,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="9"/>
@@ -6768,7 +6788,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="9"/>
@@ -6794,7 +6814,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="9"/>
@@ -6820,7 +6840,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="9"/>
@@ -6846,7 +6866,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="9"/>
@@ -6872,7 +6892,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="9"/>
@@ -6898,7 +6918,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="9"/>
@@ -6924,7 +6944,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H114" s="8"/>
       <c r="I114" s="9"/>
@@ -6950,7 +6970,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="9"/>
@@ -6976,7 +6996,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="9"/>
@@ -7002,7 +7022,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="9"/>
@@ -7028,7 +7048,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="9"/>
@@ -7054,7 +7074,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="9"/>
@@ -7080,7 +7100,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="9"/>
@@ -7106,7 +7126,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="9"/>
@@ -7132,7 +7152,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="9"/>
@@ -7158,7 +7178,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="9"/>
@@ -7184,7 +7204,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="9"/>
@@ -7210,7 +7230,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="9"/>
@@ -7236,7 +7256,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="9"/>
@@ -7262,7 +7282,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="9"/>
@@ -7288,7 +7308,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="9"/>
@@ -7314,7 +7334,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="9"/>
@@ -7340,7 +7360,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="9"/>
@@ -7366,7 +7386,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="9"/>
@@ -8310,10 +8330,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8399,6 +8419,14 @@
       </c>
       <c r="B11" t="s">
         <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46B6B29-A6AF-4973-9E47-A80CF98CE1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB710E89-6A38-4017-88A9-3625451DE781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="План" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="259">
   <si>
     <t>Модуль для торговли через эмуляцию нажатий мыши и клавиш</t>
   </si>
@@ -233,9 +233,6 @@
     <t>Торговля по лимитам разных таймфремов с применением полос Боллинджера</t>
   </si>
   <si>
-    <t>Действует</t>
-  </si>
-  <si>
     <t>Редкие сделки, небольшая прибыль. Пропуск основных движений. Но в целом бот работает в плюс</t>
   </si>
   <si>
@@ -533,9 +530,6 @@
     <t>Упрощенный выход в PTA2</t>
   </si>
   <si>
-    <t>Тест</t>
-  </si>
-  <si>
     <t>PTA3_ADCC</t>
   </si>
   <si>
@@ -807,6 +801,12 @@
   </si>
   <si>
     <t>Использует данные с APIMOEX и стратегии из RL</t>
+  </si>
+  <si>
+    <t>Абстрак-5</t>
+  </si>
+  <si>
+    <t>Абстракный бот для стратегий RL. Проект переехал в RL</t>
   </si>
 </sst>
 </file>
@@ -875,7 +875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -918,9 +918,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -1719,7 +1716,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2754,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2775,7 +2772,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F1" s="12">
         <f ca="1">NOW()</f>
-        <v>45735.684422106482</v>
+        <v>45741.044833217595</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -3296,7 +3293,7 @@
         <v>30</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J14" s="14">
         <v>5.4</v>
@@ -3318,13 +3315,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="8">
         <v>5</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="10">
         <v>45505</v>
@@ -3340,7 +3337,7 @@
         <v>30</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J15" s="14">
         <v>5.7</v>
@@ -3362,13 +3359,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="8">
         <v>5</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E16" s="10">
         <v>45515</v>
@@ -3384,7 +3381,7 @@
         <v>30</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J16" s="14">
         <v>4.9000000000000004</v>
@@ -3406,13 +3403,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="8">
         <v>5</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="10">
         <v>45508</v>
@@ -3428,7 +3425,7 @@
         <v>30</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J17" s="14">
         <v>4.4000000000000004</v>
@@ -3450,13 +3447,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="8">
         <v>5</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" s="10">
         <v>45509</v>
@@ -3472,7 +3469,7 @@
         <v>30</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J18" s="14">
         <v>5.5</v>
@@ -3494,13 +3491,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="8">
         <v>5</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="10">
         <v>45509</v>
@@ -3516,7 +3513,7 @@
         <v>30</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J19" s="14">
         <v>5.5</v>
@@ -3538,13 +3535,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="8">
         <v>5</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="10">
         <v>45509</v>
@@ -3560,7 +3557,7 @@
         <v>30</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J20" s="14">
         <v>5.6</v>
@@ -3582,13 +3579,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="8">
         <v>5</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" s="10">
         <v>45509</v>
@@ -3604,13 +3601,13 @@
         <v>30</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J21" s="14">
         <v>4.8</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
@@ -3628,13 +3625,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C22" s="8">
         <v>5</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E22" s="10">
         <v>45510</v>
@@ -3650,7 +3647,7 @@
         <v>30</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J22" s="14">
         <v>5</v>
@@ -3672,13 +3669,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="8">
         <v>5</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" s="10">
         <v>45510</v>
@@ -3714,13 +3711,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" s="8">
         <v>5</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E24" s="10">
         <v>45513</v>
@@ -3736,7 +3733,7 @@
         <v>30</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J24" s="14">
         <v>4.3</v>
@@ -3758,13 +3755,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" s="8">
         <v>5</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E25" s="10">
         <v>45514</v>
@@ -3780,13 +3777,13 @@
         <v>30</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J25" s="14">
         <v>4.4000000000000004</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -3804,13 +3801,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="8">
         <v>5</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E26" s="10">
         <v>45514</v>
@@ -3826,7 +3823,7 @@
         <v>30</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J26" s="14">
         <v>5</v>
@@ -3848,13 +3845,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27" s="8">
         <v>5</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E27" s="10">
         <v>45514</v>
@@ -3870,13 +3867,13 @@
         <v>30</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J27" s="14">
         <v>5.0999999999999996</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -3894,13 +3891,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28" s="8">
         <v>5</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E28" s="10">
         <v>45515</v>
@@ -3938,13 +3935,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="8">
         <v>5</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E29" s="10">
         <v>45515</v>
@@ -3960,7 +3957,7 @@
         <v>30</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J29" s="14">
         <v>4.5</v>
@@ -3982,13 +3979,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C30" s="8">
         <v>5</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E30" s="10">
         <v>45515</v>
@@ -4004,13 +4001,13 @@
         <v>30</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J30" s="14">
         <v>4.7</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
@@ -4028,13 +4025,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31" s="8">
         <v>5</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E31" s="10">
         <v>45516</v>
@@ -4050,7 +4047,7 @@
         <v>30</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J31" s="14">
         <v>5.0999999999999996</v>
@@ -4072,13 +4069,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C32" s="8">
         <v>5</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E32" s="10">
         <v>45516</v>
@@ -4094,13 +4091,13 @@
         <v>30</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J32" s="14">
         <v>3.4</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
@@ -4118,13 +4115,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C33" s="8">
         <v>5</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E33" s="10">
         <v>45535</v>
@@ -4140,7 +4137,7 @@
         <v>30</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J33" s="14">
         <v>3.6</v>
@@ -4162,13 +4159,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" s="8">
         <v>5</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E34" s="10">
         <v>45535</v>
@@ -4204,13 +4201,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C35" s="8">
         <v>5</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E35" s="10">
         <v>45535</v>
@@ -4226,10 +4223,10 @@
         <v>30</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
@@ -4247,13 +4244,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C36" s="8">
         <v>5</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E36" s="10">
         <v>45536</v>
@@ -4269,10 +4266,10 @@
         <v>30</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
@@ -4290,13 +4287,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" s="8">
         <v>5</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E37" s="10">
         <v>45537</v>
@@ -4312,13 +4309,13 @@
         <v>30</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J37" s="4">
         <v>4.7</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
@@ -4336,13 +4333,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C38" s="8">
         <v>5</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E38" s="10">
         <v>45537</v>
@@ -4358,13 +4355,13 @@
         <v>30</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J38" s="4">
         <v>4.5999999999999996</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
@@ -4382,13 +4379,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C39" s="8">
         <v>5</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E39" s="10">
         <v>45537</v>
@@ -4404,13 +4401,13 @@
         <v>30</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J39" s="4">
         <v>4.5999999999999996</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
@@ -4428,13 +4425,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C40" s="8">
         <v>2</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E40" s="10">
         <v>45539</v>
@@ -4467,24 +4464,26 @@
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C41" s="8">
         <v>5.5</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E41" s="10">
         <v>45602</v>
       </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="10">
+        <v>45741</v>
+      </c>
       <c r="G41" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>134</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="K41" s="8"/>
@@ -4504,24 +4503,26 @@
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="8">
         <v>5</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E42" s="10">
         <v>45602</v>
       </c>
-      <c r="F42" s="4"/>
+      <c r="F42" s="10">
+        <v>45741</v>
+      </c>
       <c r="G42" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>134</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="K42" s="8"/>
@@ -4541,13 +4542,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C43" s="8">
         <v>5</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E43" s="10">
         <v>45602</v>
@@ -4582,13 +4583,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C44" s="8">
         <v>5</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E44" s="10">
         <v>45603</v>
@@ -4623,13 +4624,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C45" s="8">
         <v>5</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E45" s="10">
         <v>45603</v>
@@ -4664,13 +4665,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C46" s="8">
         <v>5</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E46" s="10">
         <v>45603</v>
@@ -4686,7 +4687,7 @@
         <v>30</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J46" s="4">
         <v>5.8</v>
@@ -4708,13 +4709,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C47" s="8">
         <v>5</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E47" s="10">
         <v>45603</v>
@@ -4749,13 +4750,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C48" s="8">
         <v>5</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E48" s="10">
         <v>45603</v>
@@ -4790,13 +4791,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="8">
         <v>5</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E49" s="10">
         <v>45603</v>
@@ -4831,13 +4832,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C50" s="8">
         <v>5</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E50" s="10">
         <v>45608</v>
@@ -4873,13 +4874,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C51" s="8">
         <v>5</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E51" s="10">
         <v>45608</v>
@@ -4915,13 +4916,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C52" s="8">
         <v>5</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E52" s="10">
         <v>45608</v>
@@ -4957,13 +4958,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C53" s="8">
         <v>6</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E53" s="10">
         <v>45608</v>
@@ -4979,7 +4980,7 @@
         <v>30</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J53" s="4">
         <v>5.9</v>
@@ -5001,13 +5002,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C54" s="8">
         <v>6</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E54" s="10">
         <v>45611</v>
@@ -5043,13 +5044,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C55" s="8">
         <v>6</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E55" s="10">
         <v>45611</v>
@@ -5085,13 +5086,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C56" s="8">
         <v>6</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E56" s="10">
         <v>45611</v>
@@ -5127,13 +5128,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C57" s="8">
         <v>6</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E57" s="10">
         <v>45612</v>
@@ -5169,13 +5170,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C58" s="8">
         <v>6</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E58" s="10">
         <v>45615</v>
@@ -5211,13 +5212,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C59" s="8">
         <v>6</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E59" s="10">
         <v>45615</v>
@@ -5253,13 +5254,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C60" s="8">
         <v>6</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E60" s="10">
         <v>45615</v>
@@ -5295,13 +5296,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C61" s="8">
         <v>6</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E61" s="10">
         <v>45616</v>
@@ -5337,13 +5338,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C62" s="8">
         <v>6</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E62" s="10">
         <v>45617</v>
@@ -5379,13 +5380,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C63" s="8">
         <v>6</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E63" s="10">
         <v>45617</v>
@@ -5421,13 +5422,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C64" s="8">
         <v>5.5</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E64" s="10">
         <v>45632</v>
@@ -5460,13 +5461,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C65" s="8">
         <v>6</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E65" s="10">
         <v>45639</v>
@@ -5502,13 +5503,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C66" s="8">
         <v>6</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E66" s="10">
         <v>45643</v>
@@ -5544,13 +5545,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C67" s="8">
         <v>6</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E67" s="10">
         <v>45644</v>
@@ -5586,13 +5587,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C68" s="8">
         <v>6</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E68" s="10">
         <v>45644</v>
@@ -5628,13 +5629,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C69" s="8">
         <v>6</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E69" s="10">
         <v>45645</v>
@@ -5670,13 +5671,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C70" s="8">
         <v>6</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E70" s="10">
         <v>45645</v>
@@ -5712,13 +5713,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C71" s="8">
         <v>6</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E71" s="10">
         <v>45645</v>
@@ -5754,13 +5755,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C72" s="8">
         <v>7.5</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E72" s="10">
         <v>45680</v>
@@ -5796,27 +5797,29 @@
         <v>71</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C73" s="8">
         <v>7</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E73" s="10">
         <v>45707</v>
       </c>
-      <c r="F73" s="4"/>
+      <c r="F73" s="10">
+        <v>45741</v>
+      </c>
       <c r="G73" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>167</v>
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
@@ -5835,24 +5838,26 @@
         <v>72</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C74" s="8">
         <v>7</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E74" s="10">
         <v>45708</v>
       </c>
-      <c r="F74" s="4"/>
+      <c r="F74" s="10">
+        <v>45741</v>
+      </c>
       <c r="G74" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>167</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="K74" s="8"/>
@@ -5872,24 +5877,26 @@
         <v>73</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C75" s="8">
         <v>7</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E75" s="10">
         <v>45726</v>
       </c>
-      <c r="F75" s="4"/>
+      <c r="F75" s="10">
+        <v>45741</v>
+      </c>
       <c r="G75" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H75" s="17" t="s">
-        <v>67</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="4">
@@ -5912,24 +5919,26 @@
         <v>74</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C76" s="8">
         <v>7</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E76" s="10">
         <v>45726</v>
       </c>
-      <c r="F76" s="4"/>
+      <c r="F76" s="10">
+        <v>45741</v>
+      </c>
       <c r="G76" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H76" s="17" t="s">
-        <v>67</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="4">
@@ -5952,24 +5961,26 @@
         <v>75</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C77" s="8">
         <v>7</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E77" s="10">
         <v>45726</v>
       </c>
-      <c r="F77" s="4"/>
+      <c r="F77" s="10">
+        <v>45741</v>
+      </c>
       <c r="G77" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H77" s="17" t="s">
-        <v>67</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="4">
@@ -5992,26 +6003,31 @@
         <v>76</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C78" s="8">
         <v>8</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E78" s="10">
         <v>45735</v>
       </c>
-      <c r="F78" s="4"/>
+      <c r="F78" s="10">
+        <v>45741</v>
+      </c>
       <c r="G78" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>167</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="I78" s="9"/>
+      <c r="J78" s="4">
+        <v>7.5</v>
+      </c>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="M78" s="8"/>
@@ -6024,17 +6040,26 @@
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>77</v>
       </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="E79" s="4"/>
+      <c r="B79" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C79" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E79" s="10">
+        <v>45740</v>
+      </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>1</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="9"/>
@@ -6060,7 +6085,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="9"/>
@@ -6086,7 +6111,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="9"/>
@@ -6112,7 +6137,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="9"/>
@@ -6138,7 +6163,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="9"/>
@@ -6164,7 +6189,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="9"/>
@@ -6190,7 +6215,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="9"/>
@@ -6216,7 +6241,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="9"/>
@@ -6242,7 +6267,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="9"/>
@@ -6268,7 +6293,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="9"/>
@@ -6294,7 +6319,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="9"/>
@@ -6320,7 +6345,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="9"/>
@@ -6346,7 +6371,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="9"/>
@@ -6372,7 +6397,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="9"/>
@@ -6398,7 +6423,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
@@ -6424,7 +6449,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="9"/>
@@ -6450,7 +6475,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="9"/>
@@ -6476,7 +6501,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="9"/>
@@ -6502,7 +6527,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="9"/>
@@ -6528,7 +6553,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="9"/>
@@ -6554,7 +6579,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="9"/>
@@ -6580,7 +6605,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="9"/>
@@ -6606,7 +6631,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="9"/>
@@ -6632,7 +6657,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="9"/>
@@ -6658,7 +6683,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="9"/>
@@ -6684,7 +6709,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="9"/>
@@ -6710,7 +6735,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="9"/>
@@ -6736,7 +6761,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="9"/>
@@ -6762,7 +6787,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="9"/>
@@ -6788,7 +6813,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="9"/>
@@ -6814,7 +6839,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="9"/>
@@ -6840,7 +6865,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="9"/>
@@ -6866,7 +6891,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="9"/>
@@ -6892,7 +6917,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="9"/>
@@ -6918,7 +6943,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="9"/>
@@ -6944,7 +6969,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H114" s="8"/>
       <c r="I114" s="9"/>
@@ -6970,7 +6995,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="9"/>
@@ -6996,7 +7021,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="9"/>
@@ -7022,7 +7047,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="9"/>
@@ -7048,7 +7073,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="9"/>
@@ -7074,7 +7099,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="9"/>
@@ -7100,7 +7125,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="9"/>
@@ -7126,7 +7151,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="9"/>
@@ -7152,7 +7177,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="9"/>
@@ -7178,7 +7203,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="9"/>
@@ -7204,7 +7229,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="9"/>
@@ -7230,7 +7255,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="9"/>
@@ -7256,7 +7281,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="9"/>
@@ -7282,7 +7307,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="9"/>
@@ -7308,7 +7333,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="9"/>
@@ -7334,7 +7359,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="9"/>
@@ -7360,7 +7385,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="9"/>
@@ -7386,7 +7411,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="9"/>
@@ -8346,7 +8371,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8354,7 +8379,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8362,7 +8387,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -8370,7 +8395,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8378,7 +8403,7 @@
         <v>4.5</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8386,7 +8411,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -8394,7 +8419,7 @@
         <v>5.5</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -8402,7 +8427,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -8410,7 +8435,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8418,7 +8443,7 @@
         <v>7.5</v>
       </c>
       <c r="B11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -8426,7 +8451,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -8454,22 +8479,22 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" t="s">
         <v>199</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>200</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>201</v>
       </c>
-      <c r="E2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F2" t="s">
-        <v>203</v>
-      </c>
       <c r="G2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -8477,22 +8502,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -8500,19 +8525,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>233</v>
+        <v>210</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>231</v>
       </c>
       <c r="G4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -8520,13 +8545,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>216</v>
+        <v>209</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>214</v>
       </c>
       <c r="G5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -8534,13 +8559,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -8548,13 +8573,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" t="s">
         <v>217</v>
       </c>
-      <c r="C7" t="s">
-        <v>219</v>
-      </c>
       <c r="G7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -8562,13 +8587,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -8576,21 +8601,21 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>226</v>
+      <c r="B10" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="G10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -8598,10 +8623,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -8609,10 +8634,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
